--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46531935-5EF3-423E-BD5C-9C1CCFB68E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2E4EF-C383-48E8-AE12-A26F56F750DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="27">
   <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,90 @@
   </si>
   <si>
     <t>몫3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,9 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -391,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -587,67 +681,67 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="J4">
-        <f>J3+K3</f>
+        <f t="shared" ref="J4:Y4" si="2">J3+K3</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>K3+L3</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L4">
-        <f>L3+M3</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M4">
-        <f>M3+N3</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N4">
-        <f>N3+O3</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O4">
-        <f>O3+P3</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P4">
-        <f>P3+Q3</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="Q4">
-        <f>Q3+R3</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="R4">
-        <f>R3+S3</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="S4">
-        <f>S3+T3</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="T4">
-        <f>T3+U3</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="U4">
-        <f>U3+V3</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="V4">
-        <f>V3+W3</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="W4">
-        <f>W3+X3</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="X4">
-        <f>X3+Y3</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="Y4">
-        <f>Y3+Z3</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Z4">
@@ -659,67 +753,67 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="J5">
-        <f t="shared" ref="J5:Y5" si="2">J4/3</f>
+        <f t="shared" ref="J5:Y5" si="3">J4/3</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Z5">
@@ -732,67 +826,67 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="I6">
-        <f t="shared" ref="I6:X6" si="3">I5+J5</f>
+        <f t="shared" ref="I6:X6" si="4">I5+J5</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="R6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="S6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="U6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="V6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="X6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="Y6">
@@ -830,71 +924,71 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="I8">
-        <f t="shared" ref="I8:Y8" si="4">FLOOR(I6/4, 1)</f>
+        <f t="shared" ref="I8:Y8" si="5">FLOOR(I6/4, 1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="S8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="T8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="U8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="W8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="X8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z8">
@@ -907,79 +1001,79 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G9">
-        <f t="shared" ref="G9:Y9" si="5">MOD(G6,4)</f>
+        <f t="shared" ref="G9:Y9" si="6">MOD(G6,4)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z9">
@@ -989,71 +1083,71 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G10">
-        <f t="shared" ref="G10:W10" si="6">G9+G8+H8+I8</f>
+        <f t="shared" ref="G10:W10" si="7">G9+G8+H8+I8</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="L10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="P10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="S10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="U10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="V10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="W10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="X10">
@@ -1071,67 +1165,67 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="I12">
-        <f t="shared" ref="I12:X12" si="7">FLOOR(I6/3, 1)</f>
+        <f t="shared" ref="I12:X12" si="8">FLOOR(I6/3, 1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="S12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="T12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="U12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="V12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="W12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="X12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y12">
@@ -1148,71 +1242,71 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="I13">
-        <f t="shared" ref="I13:Y13" si="8">MOD(I6,3)</f>
+        <f t="shared" ref="I13:Y13" si="9">MOD(I6,3)</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="R13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z13">
@@ -1225,71 +1319,71 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="H14">
-        <f t="shared" ref="H14:X14" si="9">H12+H13+I12</f>
+        <f t="shared" ref="H14:X14" si="10">H12+H13+I12</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="P14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="R14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="S14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="T14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="U14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="V14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="W14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="X14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="Y14">
@@ -1298,6 +1392,834 @@
       </c>
       <c r="Z14">
         <f>Z12+Z13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-2</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-2</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1</v>
+      </c>
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3">
+        <v>2</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="9:23" x14ac:dyDescent="0.45">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I33" s="3"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I34" s="3"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" s="5"/>
+      <c r="V36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="5"/>
+      <c r="V37" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I38" s="3"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I39" s="3"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I40" s="3"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="K45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
         <v>1</v>
       </c>
     </row>

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2E4EF-C383-48E8-AE12-A26F56F750DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BDA5AB-C325-4403-BD72-7DD986DEF37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="27">
   <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,13 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -485,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1395,831 +1394,967 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3" t="s">
+      <c r="O24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="S25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="T25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="U25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3">
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2">
         <v>-1</v>
       </c>
-      <c r="S27" s="3">
+      <c r="R27" s="2">
         <v>-2</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="2">
         <v>-2</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
         <v>-1</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="2">
         <v>-1</v>
       </c>
-      <c r="U28" s="3">
-        <v>1</v>
-      </c>
-      <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3">
-        <v>1</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3">
-        <v>1</v>
-      </c>
-      <c r="T30" s="3">
-        <v>1</v>
-      </c>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3">
-        <v>2</v>
-      </c>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="9:23" x14ac:dyDescent="0.45">
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="2"/>
-    </row>
-    <row r="33" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I33" s="3"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I34" s="3"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="3" t="s">
+      <c r="U28" s="2">
+        <v>1</v>
+      </c>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2">
+        <v>1</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1</v>
+      </c>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="T34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="U34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="V34" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3" t="s">
+    <row r="35" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="R36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="S36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U36" s="5"/>
-      <c r="V36" s="3" t="s">
+      <c r="U36" s="2"/>
+      <c r="V36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
+    <row r="37" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="P37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="R37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="S37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U37" s="5"/>
-      <c r="V37" s="3" t="s">
+      <c r="U37" s="2"/>
+      <c r="V37" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I38" s="3"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I39" s="3"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="3" t="s">
+    <row r="38" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="S39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="T39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3" t="s">
+      <c r="U39" s="2"/>
+      <c r="V39" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I40" s="3"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
+    <row r="40" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="K41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="L41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="M41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="N41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="O41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="P41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="Q41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3" t="s">
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3" t="s">
+    <row r="42" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="L42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="M42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="N42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="O42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="P42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="Q42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="R42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3" t="s">
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="3" t="s">
+    <row r="43" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="L44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="M44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="N44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="O44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="P44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="Q44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="R44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3" t="s">
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="K45" s="3" t="s">
+    <row r="45" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="J45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="L45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="M45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="N45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="O45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="P45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="Q45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V45">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="9:22" x14ac:dyDescent="0.45">
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-      <c r="T56">
+    <row r="47" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="8:22" x14ac:dyDescent="0.45">
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="H51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+    </row>
+    <row r="53" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="G53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V53" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="G54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="59" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="K59">
         <v>1</v>
       </c>
     </row>

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BDA5AB-C325-4403-BD72-7DD986DEF37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C71A680-76DB-4274-97D8-27F70C9BFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,12 +198,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -484,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="S59" sqref="S59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2153,11 +2152,6 @@
       <c r="P49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
       <c r="V49" s="2" t="s">
         <v>17</v>
       </c>
@@ -2188,11 +2182,6 @@
       <c r="P50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
       <c r="V50" s="2" t="s">
         <v>16</v>
       </c>
@@ -2222,30 +2211,9 @@
       <c r="O51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
       <c r="V51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.45">
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
     </row>
     <row r="53" spans="6:22" x14ac:dyDescent="0.45">
       <c r="G53" s="2" t="s">
@@ -2358,6 +2326,1822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>3</v>
+      </c>
+      <c r="I66" s="1">
+        <v>4</v>
+      </c>
+      <c r="J66" s="1">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1">
+        <v>6</v>
+      </c>
+      <c r="L66" s="1">
+        <v>7</v>
+      </c>
+      <c r="M66" s="1">
+        <v>8</v>
+      </c>
+      <c r="N66" s="1">
+        <v>7</v>
+      </c>
+      <c r="O66" s="1">
+        <v>6</v>
+      </c>
+      <c r="P66" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>4</v>
+      </c>
+      <c r="R66" s="1">
+        <v>3</v>
+      </c>
+      <c r="S66" s="1">
+        <v>2</v>
+      </c>
+      <c r="T66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <f>QUOTIENT(A66,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:T67" si="11">QUOTIENT(B66,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <f>SUM(B67:U67)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <f>MOD(A66,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:T68" si="12">MOD(B66,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <f>A67+A68+B67</f>
+        <v>0</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" ref="B69:T69" si="13">B67+B68+C67</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="L69" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="R69" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S69" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="T69" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <f>QUOTIENT(A69,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:T70" si="14">QUOTIENT(B69,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <f>SUM(B70:U70)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <f>MOD(A69,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:T71" si="15">MOD(B69,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <f>A70+A71+B70</f>
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" ref="B72:T72" si="16">B70+B71+C70</f>
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R72" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S72" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="T72" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <f>QUOTIENT(A72,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ref="B73:T73" si="17">QUOTIENT(B72,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <f>SUM(B73:U73)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <f>MOD(A72,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74:T74" si="18">MOD(B72,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <f>A73+A74+B73</f>
+        <v>0</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" ref="B75:T75" si="19">B73+B74+C73</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="T75" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <f>QUOTIENT(A75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ref="B76" si="20">QUOTIENT(B75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76" si="21">QUOTIENT(C75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76" si="22">QUOTIENT(D75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76" si="23">QUOTIENT(E75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76" si="24">QUOTIENT(F75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ref="G76" si="25">QUOTIENT(G75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ref="H76" si="26">QUOTIENT(H75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ref="I76" si="27">QUOTIENT(I75,3)</f>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ref="J76" si="28">QUOTIENT(J75,3)</f>
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ref="K76" si="29">QUOTIENT(K75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" ref="L76" si="30">QUOTIENT(L75,3)</f>
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ref="M76" si="31">QUOTIENT(M75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" ref="N76" si="32">QUOTIENT(N75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" ref="O76" si="33">QUOTIENT(O75,3)</f>
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <f t="shared" ref="P76" si="34">QUOTIENT(P75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" ref="Q76" si="35">QUOTIENT(Q75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="shared" ref="R76" si="36">QUOTIENT(R75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" ref="S76" si="37">QUOTIENT(S75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f t="shared" ref="T76" si="38">QUOTIENT(T75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <f>SUM(B76:U76)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <f>MOD(A75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77:T77" si="39">MOD(B75,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <f>A76+A77+B76</f>
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" ref="B78" si="40">B76+B77+C76</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" ref="C78" si="41">C76+C77+D76</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" ref="D78" si="42">D76+D77+E76</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" ref="E78" si="43">E76+E77+F76</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" ref="F78" si="44">F76+F77+G76</f>
+        <v>2</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" ref="G78" si="45">G76+G77+H76</f>
+        <v>2</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" ref="H78" si="46">H76+H77+I76</f>
+        <v>2</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" ref="I78" si="47">I76+I77+J76</f>
+        <v>2</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" ref="J78" si="48">J76+J77+K76</f>
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" ref="K78" si="49">K76+K77+L76</f>
+        <v>3</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" ref="L78" si="50">L76+L77+M76</f>
+        <v>2</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" ref="M78" si="51">M76+M77+N76</f>
+        <v>2</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" ref="N78" si="52">N76+N77+O76</f>
+        <v>3</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" ref="O78" si="53">O76+O77+P76</f>
+        <v>1</v>
+      </c>
+      <c r="P78" s="1">
+        <f t="shared" ref="P78" si="54">P76+P77+Q76</f>
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" ref="Q78" si="55">Q76+Q77+R76</f>
+        <v>1</v>
+      </c>
+      <c r="R78" s="1">
+        <f t="shared" ref="R78" si="56">R76+R77+S76</f>
+        <v>1</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" ref="S78" si="57">S76+S77+T76</f>
+        <v>2</v>
+      </c>
+      <c r="T78" s="1">
+        <f t="shared" ref="T78" si="58">T76+T77+U76</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <f>QUOTIENT(A78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ref="B79" si="59">QUOTIENT(B78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79" si="60">QUOTIENT(C78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79" si="61">QUOTIENT(D78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79" si="62">QUOTIENT(E78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79" si="63">QUOTIENT(F78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ref="G79" si="64">QUOTIENT(G78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ref="H79" si="65">QUOTIENT(H78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79" si="66">QUOTIENT(I78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79" si="67">QUOTIENT(J78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79" si="68">QUOTIENT(K78,3)</f>
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <f t="shared" ref="L79" si="69">QUOTIENT(L78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ref="M79" si="70">QUOTIENT(M78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" ref="N79" si="71">QUOTIENT(N78,3)</f>
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <f t="shared" ref="O79" si="72">QUOTIENT(O78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" ref="P79" si="73">QUOTIENT(P78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" ref="Q79" si="74">QUOTIENT(Q78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" ref="R79" si="75">QUOTIENT(R78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" ref="S79" si="76">QUOTIENT(S78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f t="shared" ref="T79" si="77">QUOTIENT(T78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f>SUM(B79:U79)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <f>MOD(A78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80:T80" si="78">MOD(B78,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="78"/>
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="78"/>
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="78"/>
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="78"/>
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="78"/>
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="78"/>
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="78"/>
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <f>A79+A80+B79</f>
+        <v>0</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" ref="B81" si="79">B79+B80+C79</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ref="C81" si="80">C79+C80+D79</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" ref="D81" si="81">D79+D80+E79</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" ref="E81" si="82">E79+E80+F79</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" ref="F81" si="83">F79+F80+G79</f>
+        <v>2</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" ref="G81" si="84">G79+G80+H79</f>
+        <v>2</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" ref="H81" si="85">H79+H80+I79</f>
+        <v>2</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" ref="I81" si="86">I79+I80+J79</f>
+        <v>2</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" ref="J81" si="87">J79+J80+K79</f>
+        <v>2</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" ref="K81" si="88">K79+K80+L79</f>
+        <v>1</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" ref="L81" si="89">L79+L80+M79</f>
+        <v>2</v>
+      </c>
+      <c r="M81" s="1">
+        <f t="shared" ref="M81" si="90">M79+M80+N79</f>
+        <v>3</v>
+      </c>
+      <c r="N81" s="1">
+        <f t="shared" ref="N81" si="91">N79+N80+O79</f>
+        <v>1</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" ref="O81" si="92">O79+O80+P79</f>
+        <v>1</v>
+      </c>
+      <c r="P81" s="1">
+        <f t="shared" ref="P81" si="93">P79+P80+Q79</f>
+        <v>1</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" ref="Q81" si="94">Q79+Q80+R79</f>
+        <v>1</v>
+      </c>
+      <c r="R81" s="1">
+        <f t="shared" ref="R81" si="95">R79+R80+S79</f>
+        <v>1</v>
+      </c>
+      <c r="S81" s="1">
+        <f t="shared" ref="S81" si="96">S79+S80+T79</f>
+        <v>2</v>
+      </c>
+      <c r="T81" s="1">
+        <f t="shared" ref="T81" si="97">T79+T80+U79</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <f>QUOTIENT(A81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ref="B82" si="98">QUOTIENT(B81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82" si="99">QUOTIENT(C81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82" si="100">QUOTIENT(D81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ref="E82" si="101">QUOTIENT(E81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ref="F82" si="102">QUOTIENT(F81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ref="G82" si="103">QUOTIENT(G81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ref="H82" si="104">QUOTIENT(H81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ref="I82" si="105">QUOTIENT(I81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ref="J82" si="106">QUOTIENT(J81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ref="K82" si="107">QUOTIENT(K81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" ref="L82" si="108">QUOTIENT(L81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ref="M82" si="109">QUOTIENT(M81,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <f t="shared" ref="N82" si="110">QUOTIENT(N81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" ref="O82" si="111">QUOTIENT(O81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" ref="P82" si="112">QUOTIENT(P81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" ref="Q82" si="113">QUOTIENT(Q81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <f t="shared" ref="R82" si="114">QUOTIENT(R81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f t="shared" ref="S82" si="115">QUOTIENT(S81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f t="shared" ref="T82" si="116">QUOTIENT(T81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <f>SUM(B82:U82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <f>MOD(A81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:T83" si="117">MOD(B81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="117"/>
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="117"/>
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="117"/>
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="117"/>
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="117"/>
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="117"/>
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="117"/>
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <f>A82+A83+B82</f>
+        <v>0</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" ref="B84" si="118">B82+B83+C82</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" ref="C84" si="119">C82+C83+D82</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" ref="D84" si="120">D82+D83+E82</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" ref="E84" si="121">E82+E83+F82</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" ref="F84" si="122">F82+F83+G82</f>
+        <v>2</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" ref="G84" si="123">G82+G83+H82</f>
+        <v>2</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" ref="H84" si="124">H82+H83+I82</f>
+        <v>2</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" ref="I84" si="125">I82+I83+J82</f>
+        <v>2</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" ref="J84" si="126">J82+J83+K82</f>
+        <v>2</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" ref="K84" si="127">K82+K83+L82</f>
+        <v>1</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" ref="L84" si="128">L82+L83+M82</f>
+        <v>3</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" ref="M84" si="129">M82+M83+N82</f>
+        <v>1</v>
+      </c>
+      <c r="N84" s="1">
+        <f t="shared" ref="N84" si="130">N82+N83+O82</f>
+        <v>1</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" ref="O84" si="131">O82+O83+P82</f>
+        <v>1</v>
+      </c>
+      <c r="P84" s="1">
+        <f t="shared" ref="P84" si="132">P82+P83+Q82</f>
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" ref="Q84" si="133">Q82+Q83+R82</f>
+        <v>1</v>
+      </c>
+      <c r="R84" s="1">
+        <f t="shared" ref="R84" si="134">R82+R83+S82</f>
+        <v>1</v>
+      </c>
+      <c r="S84" s="1">
+        <f t="shared" ref="S84" si="135">S82+S83+T82</f>
+        <v>2</v>
+      </c>
+      <c r="T84" s="1">
+        <f t="shared" ref="T84" si="136">T82+T83+U82</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <f>QUOTIENT(A84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ref="B85" si="137">QUOTIENT(B84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85" si="138">QUOTIENT(C84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ref="D85" si="139">QUOTIENT(D84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85" si="140">QUOTIENT(E84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85" si="141">QUOTIENT(F84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ref="G85" si="142">QUOTIENT(G84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ref="H85" si="143">QUOTIENT(H84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ref="I85" si="144">QUOTIENT(I84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ref="J85" si="145">QUOTIENT(J84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ref="K85" si="146">QUOTIENT(K84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" ref="L85" si="147">QUOTIENT(L84,3)</f>
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ref="M85" si="148">QUOTIENT(M84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <f t="shared" ref="N85" si="149">QUOTIENT(N84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" ref="O85" si="150">QUOTIENT(O84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f t="shared" ref="P85" si="151">QUOTIENT(P84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" ref="Q85" si="152">QUOTIENT(Q84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <f t="shared" ref="R85" si="153">QUOTIENT(R84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <f t="shared" ref="S85" si="154">QUOTIENT(S84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <f t="shared" ref="T85" si="155">QUOTIENT(T84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <f>SUM(B85:U85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <f>MOD(A84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ref="B86:T86" si="156">MOD(B84,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <f>A85+A86+B85</f>
+        <v>0</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" ref="B87" si="157">B85+B86+C85</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" ref="C87" si="158">C85+C86+D85</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" ref="D87" si="159">D85+D86+E85</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" ref="E87" si="160">E85+E86+F85</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" ref="F87" si="161">F85+F86+G85</f>
+        <v>2</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" ref="G87" si="162">G85+G86+H85</f>
+        <v>2</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" ref="H87" si="163">H85+H86+I85</f>
+        <v>2</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" ref="I87" si="164">I85+I86+J85</f>
+        <v>2</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" ref="J87" si="165">J85+J86+K85</f>
+        <v>2</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" ref="K87" si="166">K85+K86+L85</f>
+        <v>2</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" ref="L87" si="167">L85+L86+M85</f>
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" ref="M87" si="168">M85+M86+N85</f>
+        <v>1</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" ref="N87" si="169">N85+N86+O85</f>
+        <v>1</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" ref="O87" si="170">O85+O86+P85</f>
+        <v>1</v>
+      </c>
+      <c r="P87" s="1">
+        <f t="shared" ref="P87" si="171">P85+P86+Q85</f>
+        <v>1</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" ref="Q87" si="172">Q85+Q86+R85</f>
+        <v>1</v>
+      </c>
+      <c r="R87" s="1">
+        <f t="shared" ref="R87" si="173">R85+R86+S85</f>
+        <v>1</v>
+      </c>
+      <c r="S87" s="1">
+        <f t="shared" ref="S87" si="174">S85+S86+T85</f>
+        <v>2</v>
+      </c>
+      <c r="T87" s="1">
+        <f t="shared" ref="T87" si="175">T85+T86+U85</f>
+        <v>1</v>
+      </c>
+      <c r="V87" s="1">
+        <f>SUM(V67:V86)</f>
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C71A680-76DB-4274-97D8-27F70C9BFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807BBB4-C00F-48DC-A1A8-2DD4522D5200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA87"/>
+  <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="R71" sqref="R71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z72" sqref="Z72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4142,6 +4142,314 @@
         <v>42</v>
       </c>
     </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1">
+        <v>3</v>
+      </c>
+      <c r="J92" s="1">
+        <v>4</v>
+      </c>
+      <c r="K92" s="1">
+        <v>5</v>
+      </c>
+      <c r="L92" s="1">
+        <v>6</v>
+      </c>
+      <c r="M92" s="1">
+        <v>7</v>
+      </c>
+      <c r="N92" s="1">
+        <v>8</v>
+      </c>
+      <c r="O92" s="1">
+        <v>7</v>
+      </c>
+      <c r="P92" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>5</v>
+      </c>
+      <c r="R92" s="1">
+        <v>4</v>
+      </c>
+      <c r="S92" s="1">
+        <v>3</v>
+      </c>
+      <c r="T92" s="1">
+        <v>2</v>
+      </c>
+      <c r="U92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B93">
+        <f>QUOTIENT(B92,5)</f>
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:U93" si="176">QUOTIENT(C92,5)</f>
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="176"/>
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B94">
+        <f>MOD(B92,5)</f>
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:U94" si="177">MOD(C92,5)</f>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="177"/>
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="177"/>
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="177"/>
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="177"/>
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="177"/>
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="177"/>
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="177"/>
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="177"/>
+        <v>2</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="177"/>
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="177"/>
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="177"/>
+        <v>3</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="177"/>
+        <v>2</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="177"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B95" s="1">
+        <f>B93+B94+C93+D93</f>
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" ref="C95:U95" si="178">C93+C94+D93+E93</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="178"/>
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="178"/>
+        <v>2</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="178"/>
+        <v>4</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="178"/>
+        <v>6</v>
+      </c>
+      <c r="K95" s="1">
+        <f t="shared" si="178"/>
+        <v>3</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" si="178"/>
+        <v>4</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="178"/>
+        <v>5</v>
+      </c>
+      <c r="N95" s="1">
+        <f t="shared" si="178"/>
+        <v>6</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" si="178"/>
+        <v>5</v>
+      </c>
+      <c r="P95" s="1">
+        <f t="shared" si="178"/>
+        <v>3</v>
+      </c>
+      <c r="Q95" s="1">
+        <f t="shared" si="178"/>
+        <v>1</v>
+      </c>
+      <c r="R95" s="1">
+        <f t="shared" si="178"/>
+        <v>4</v>
+      </c>
+      <c r="S95" s="1">
+        <f t="shared" si="178"/>
+        <v>3</v>
+      </c>
+      <c r="T95" s="1">
+        <f t="shared" si="178"/>
+        <v>2</v>
+      </c>
+      <c r="U95" s="1">
+        <f t="shared" si="178"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C59D560-346C-4209-8A37-9884390CE21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C1416-BB05-421C-B6A4-F2F93DE5986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="3">
   <si>
     <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1stage </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,12 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -403,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV95"/>
+  <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="V22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW28" sqref="AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>1</v>
       </c>
@@ -472,6 +478,12 @@
       <c r="U1">
         <v>19</v>
       </c>
+      <c r="AB1">
+        <v>18</v>
+      </c>
+      <c r="AC1">
+        <v>17</v>
+      </c>
       <c r="AD1">
         <v>16</v>
       </c>
@@ -524,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -540,56 +552,56 @@
       <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -599,52 +611,52 @@
       <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
         <v>13</v>
       </c>
       <c r="AE3">
@@ -696,116 +708,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="9">
+      <c r="G5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
         <v>7</v>
       </c>
       <c r="AD5">
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -817,134 +829,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AD6">
+      <c r="G6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f>AE3*9</f>
         <v>9</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>9</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
       <c r="AF7">
         <f>AF3*9</f>
         <v>9</v>
@@ -1006,170 +993,154 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="G9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -1186,62 +1157,59 @@
       <c r="AH10">
         <v>1</v>
       </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="5" t="s">
+      <c r="G11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AA11">
         <f t="shared" ref="AA11:AB11" si="1">AA7+AA10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <f t="shared" si="1"/>
@@ -1249,15 +1217,15 @@
       </c>
       <c r="AC11">
         <f>AC7+AC10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <f t="shared" ref="AC11:AH11" si="2">AD7+1+AD10</f>
-        <v>2</v>
+        <f>AD7+AD10</f>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" ref="AD11:AH11" si="2">AE7+1+AE10</f>
+        <v>11</v>
       </c>
       <c r="AF11">
         <f t="shared" si="2"/>
@@ -1276,7 +1244,7 @@
         <v>37</v>
       </c>
       <c r="AJ11">
-        <f t="shared" ref="AG11:AT11" si="3">AJ7+1</f>
+        <f t="shared" ref="AJ11:AT11" si="3">AJ7+1</f>
         <v>37</v>
       </c>
       <c r="AK11">
@@ -1320,94 +1288,94 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
+      <c r="H12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="5" t="s">
+      <c r="H13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Z13">
@@ -1473,55 +1441,55 @@
       <c r="AT13">
         <v>1</v>
       </c>
-      <c r="AU13">
-        <f>SUM(AE13:AT13)</f>
+      <c r="AY13">
+        <f>SUM(Z13:AT13)</f>
         <v>21</v>
       </c>
-      <c r="AV13">
+      <c r="AZ13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5" t="s">
+      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Z14">
@@ -1530,7 +1498,7 @@
       </c>
       <c r="AA14">
         <f t="shared" ref="AA14" si="5">AA11-AA13*15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <f t="shared" ref="AB14" si="6">AB11-AB13*15</f>
@@ -1538,15 +1506,15 @@
       </c>
       <c r="AC14">
         <f t="shared" ref="AC14:AD14" si="7">AC11-AC13*15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f>AE11-AE13*15</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AF14">
         <f t="shared" ref="AF14:AT14" si="8">AF11-AF13*15</f>
@@ -1609,91 +1577,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
+      <c r="H15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5" t="s">
+      <c r="H16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Z16">
@@ -1759,12 +1727,16 @@
       <c r="AT16">
         <v>0</v>
       </c>
-      <c r="AV16">
+      <c r="AY16">
+        <f>SUM(Z16:AT16)</f>
+        <v>2</v>
+      </c>
+      <c r="AZ16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="H17" t="s">
@@ -1773,34 +1745,34 @@
       <c r="I17" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5" t="s">
+      <c r="J17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R17" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U17" t="s">
@@ -1812,7 +1784,7 @@
       </c>
       <c r="AA17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <f t="shared" si="9"/>
@@ -1820,15 +1792,15 @@
       </c>
       <c r="AC17">
         <f>AC14-AC16*13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <f t="shared" ref="AD17:AT17" si="10">AD14-AD16*13</f>
-        <v>2</v>
+        <f t="shared" ref="AD17:AE17" si="10">AD14-AD16*13</f>
+        <v>1</v>
       </c>
       <c r="AE17">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AF17">
         <f t="shared" ref="AF17" si="11">AF14-AF16*13</f>
@@ -1891,8 +1863,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="H18" t="s">
@@ -1901,42 +1873,42 @@
       <c r="I18" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="J18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R18" t="s">
         <v>0</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="H19" t="s">
@@ -1945,34 +1917,34 @@
       <c r="I19" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5" t="s">
+      <c r="J19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R19" t="s">
         <v>0</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U19" t="s">
@@ -1994,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2036,17 +2008,21 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
       </c>
-      <c r="AV19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A20" s="3">
+      <c r="AY19">
+        <f>SUM(Z19:AT19)</f>
+        <v>2</v>
+      </c>
+      <c r="AZ19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="H20" t="s">
@@ -2055,46 +2031,46 @@
       <c r="I20" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="5" t="s">
+      <c r="J20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R20" t="s">
         <v>0</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U20" t="s">
         <v>0</v>
       </c>
       <c r="Z20">
-        <f>Z17-Z19*10</f>
+        <f>Z17-Z19*11</f>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f t="shared" ref="AA20:AT20" si="26">AA17-AA19*10</f>
-        <v>1</v>
+        <f t="shared" ref="AA20:AT20" si="26">AA17-AA19*11</f>
+        <v>0</v>
       </c>
       <c r="AB20">
         <f t="shared" si="26"/>
@@ -2102,19 +2078,19 @@
       </c>
       <c r="AC20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20">
         <f t="shared" si="26"/>
@@ -2166,80 +2142,80 @@
       </c>
       <c r="AS20">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT20">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A21" s="3">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="J21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A22">
         <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5" t="s">
+      <c r="J22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R22" s="2"/>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T22" s="2"/>
@@ -2272,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -2293,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -2302,211 +2278,212 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>0</v>
       </c>
-      <c r="AV22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AY22">
+        <f>SUM(Z22:AT22)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" ref="A23:A47" si="27">A22+1</f>
         <v>22</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5" t="s">
+      <c r="J23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R23" s="2"/>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T23" s="2"/>
-      <c r="U23" s="3"/>
       <c r="V23" s="2"/>
       <c r="Z23">
-        <f t="shared" ref="Z23:AB23" si="28">Z20-Z22*7</f>
+        <f>Z20-Z22*10</f>
         <v>0</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f t="shared" ref="AA23:AT23" si="28">AA20-AA22*10</f>
+        <v>0</v>
       </c>
       <c r="AB23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f>AC20-AC22*7</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23" si="29">AD20-AD22*7</f>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23" si="30">AE20-AE22*7</f>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23:AG23" si="31">AF20-AF22*7</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AH23">
-        <f t="shared" ref="AH23" si="32">AH20-AH22*7</f>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="AI23">
-        <f t="shared" ref="AI23" si="33">AI20-AI22*7</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>7</v>
       </c>
       <c r="AJ23">
-        <f t="shared" ref="AJ23:AK23" si="34">AJ20-AJ22*7</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>7</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>7</v>
       </c>
       <c r="AL23">
-        <f t="shared" ref="AL23" si="35">AL20-AL22*7</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>7</v>
       </c>
       <c r="AM23">
-        <f t="shared" ref="AM23" si="36">AM20-AM22*7</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>7</v>
       </c>
       <c r="AN23">
-        <f t="shared" ref="AN23:AO23" si="37">AN20-AN22*7</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AP23">
-        <f t="shared" ref="AP23" si="38">AP20-AP22*7</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>7</v>
       </c>
       <c r="AQ23">
-        <f t="shared" ref="AQ23" si="39">AQ20-AQ22*7</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AR23">
-        <f t="shared" ref="AR23:AS23" si="40">AR20-AR22*7</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23" si="41">AT20-AT22*7</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5" t="s">
+      <c r="J24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R24" s="2"/>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T24" s="2"/>
-      <c r="U24" s="3"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A25">
         <f t="shared" si="27"/>
         <v>24</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5" t="s">
+      <c r="J25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R25" s="2"/>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T25" s="2"/>
-      <c r="U25" s="3"/>
       <c r="V25" s="2"/>
       <c r="Z25">
         <v>0</v>
@@ -2533,22 +2510,22 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -2557,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -2571,201 +2548,204 @@
       <c r="AT25">
         <v>0</v>
       </c>
-      <c r="AV25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AY25">
+        <f>SUM(Z25:AT25)</f>
+        <v>6</v>
+      </c>
+      <c r="AZ25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5" t="s">
+      <c r="J26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R26" s="2"/>
-      <c r="S26" s="7" t="s">
+      <c r="S26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T26" s="2"/>
-      <c r="U26" s="3"/>
       <c r="V26" s="2"/>
       <c r="Z26">
-        <f>Z23-Z25*5</f>
+        <f>Z23-Z25*7</f>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f t="shared" ref="AA26:AT26" si="42">AA23-AA25*5</f>
-        <v>1</v>
+        <f t="shared" ref="AA26:AT26" si="29">AA23-AA25*7</f>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>5</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" si="27"/>
         <v>26</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="5" t="s">
+      <c r="J27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R27" s="2"/>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" si="27"/>
         <v>27</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="5" t="s">
+      <c r="J28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R28" s="2"/>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T28" s="2"/>
@@ -2792,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -2822,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -2831,408 +2811,697 @@
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>1</v>
-      </c>
-      <c r="AV28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <f>SUM(Z28:AT28)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5" t="s">
+      <c r="J29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R29" s="2"/>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T29" s="2"/>
       <c r="V29" s="2"/>
       <c r="Z29">
-        <f>Z26-Z28*4</f>
+        <f>Z26-Z28*5</f>
         <v>0</v>
       </c>
       <c r="AA29">
-        <f t="shared" ref="AA29:AT29" si="43">AA26-AA28*4</f>
-        <v>1</v>
+        <f t="shared" ref="AA29:AT29" si="30">AA26-AA28*5</f>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="43"/>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="43"/>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>4</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>4</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.45">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="J30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" si="27"/>
         <v>30</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="J31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AY31">
+        <f>SUM(Z31:AT31)</f>
+        <v>3</v>
+      </c>
+      <c r="AZ31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="J32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="Z32">
+        <f>Z29-Z31*4</f>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" ref="AA32:AT32" si="31">AA29-AA31*4</f>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A33">
         <f t="shared" si="27"/>
         <v>32</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="J33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A34">
         <f t="shared" si="27"/>
         <v>33</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="J34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="Z34" s="1">
+        <f>Z13+AA13+AB13+AC13+Z16+AA16+AB16+AC16+Z19+AA19+AB19+AC19+Z22+AA22+AB22+AC22+Z25+AA25+AB25+Z28+AA28+AB28+Z31+AA31+AB31</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <f t="shared" ref="AA34:AT34" si="32">AA13+AB13+AC13+AD13+AA16+AB16+AC16+AD16+AA19+AB19+AC19+AD19+AA22+AB22+AC22+AD22+AA25+AB25+AC25+AA28+AB28+AC28+AA31+AB31+AC31</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AC34" s="1">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="AD34" s="1">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AF34" s="1">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="AG34" s="1">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="AH34" s="1">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="AJ34" s="1">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="AK34" s="1">
+        <f t="shared" si="32"/>
+        <v>12</v>
+      </c>
+      <c r="AL34" s="1">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="AM34" s="1">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="AN34" s="1">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="AO34" s="1">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="AP34" s="1">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="AQ34" s="1">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AR34" s="1">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="AS34" s="1">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="AT34" s="1">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A35">
         <f t="shared" si="27"/>
         <v>34</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5" t="s">
+      <c r="J35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P35" s="2"/>
-      <c r="Q35" s="9" t="s">
+      <c r="Q35" s="7" t="s">
         <v>0</v>
       </c>
       <c r="R35" s="2"/>
       <c r="T35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A36">
         <f t="shared" si="27"/>
         <v>35</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="5" t="s">
+      <c r="J36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P36" s="2"/>
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="7" t="s">
         <v>0</v>
       </c>
       <c r="R36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A37">
         <f t="shared" si="27"/>
         <v>36</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="5" t="s">
+      <c r="J37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P37" s="2"/>
-      <c r="Q37" s="9" t="s">
+      <c r="Q37" s="7" t="s">
         <v>0</v>
       </c>
       <c r="R37" s="2"/>
@@ -3240,33 +3509,117 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z37">
+        <f>Z34-Z36*12</f>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ref="AA37:AT37" si="33">AA34-AA36*12</f>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A38">
         <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="5" t="s">
+      <c r="J38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P38" s="2"/>
-      <c r="Q38" s="9" t="s">
+      <c r="Q38" s="7" t="s">
         <v>0</v>
       </c>
       <c r="R38" s="2"/>
@@ -3275,7 +3628,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A39">
         <f t="shared" si="27"/>
         <v>38</v>
@@ -3285,7 +3638,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="6" t="s">
+      <c r="O39" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P39" s="2"/>
@@ -3295,8 +3648,74 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A40">
         <f t="shared" si="27"/>
         <v>39</v>
@@ -3307,7 +3726,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="6" t="s">
+      <c r="O40" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P40" s="2"/>
@@ -3317,8 +3736,92 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z40">
+        <f>Z37-Z39*11</f>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" ref="AA40:AT40" si="34">AA37-AA39*11</f>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="AS40">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="AT40">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A41">
         <f t="shared" si="27"/>
         <v>40</v>
@@ -3329,7 +3832,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="6" t="s">
+      <c r="O41" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P41" s="2"/>
@@ -3338,7 +3841,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A42">
         <f t="shared" si="27"/>
         <v>41</v>
@@ -3349,7 +3852,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="6" t="s">
+      <c r="O42" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P42" s="2"/>
@@ -3358,8 +3861,74 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A43">
         <f t="shared" si="27"/>
         <v>42</v>
@@ -3370,7 +3939,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="6" t="s">
+      <c r="O43" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P43" s="2"/>
@@ -3379,8 +3948,92 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z43">
+        <f>Z40-Z42*10</f>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" ref="AA43:AT43" si="35">AA40-AA42*10</f>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="AS43">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A44">
         <f t="shared" si="27"/>
         <v>43</v>
@@ -3391,7 +4044,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="6" t="s">
+      <c r="O44" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P44" s="2"/>
@@ -3401,7 +4054,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" si="27"/>
         <v>44</v>
@@ -3411,22 +4064,172 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="6" t="s">
+      <c r="O45" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A46">
         <f t="shared" si="27"/>
         <v>45</v>
       </c>
-      <c r="O46" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="O46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f>Z43-Z45*9</f>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" ref="AA46:AT46" si="36">AA43-AA45*9</f>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="AS46">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A47">
         <f t="shared" si="27"/>
         <v>46</v>
@@ -3443,7 +4246,7 @@
       </c>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.45">
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -3454,8 +4257,74 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="6:46" x14ac:dyDescent="0.45">
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -3466,8 +4335,92 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.45">
+      <c r="Z49">
+        <f>Z46-Z48*8</f>
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" ref="AA49:AT49" si="37">AA46-AA48*8</f>
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="AR49">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="AS49">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:46" x14ac:dyDescent="0.45">
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3479,7 +4432,7 @@
       <c r="P50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:46" x14ac:dyDescent="0.45">
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -3489,7 +4442,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:46" x14ac:dyDescent="0.45">
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3500,7 +4453,7 @@
       <c r="N53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:46" x14ac:dyDescent="0.45">
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3511,7 +4464,7 @@
       <c r="N54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:46" x14ac:dyDescent="0.45">
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3522,7 +4475,7 @@
       <c r="N55" s="2"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:46" x14ac:dyDescent="0.45">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -3541,7 +4494,7 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:46" x14ac:dyDescent="0.45">
       <c r="K59">
         <v>1</v>
       </c>
@@ -3614,79 +4567,79 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:T67" si="44">QUOTIENT(B66,3)</f>
+        <f t="shared" ref="B67:T67" si="38">QUOTIENT(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="L67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="M67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="N67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="O67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="P67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="R67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="S67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V67">
@@ -3700,79 +4653,79 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:T68" si="45">MOD(B66,3)</f>
+        <f t="shared" ref="B68:T68" si="39">MOD(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="H68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="M68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="N68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="R68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="T68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -3782,79 +4735,79 @@
         <v>0</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" ref="B69:T69" si="46">B67+B68+C67</f>
+        <f t="shared" ref="B69:T69" si="40">B67+B68+C67</f>
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
@@ -3864,79 +4817,79 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:T70" si="47">QUOTIENT(B69,3)</f>
+        <f t="shared" ref="B70:T70" si="41">QUOTIENT(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="L70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="M70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="N70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="P70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="R70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="V70">
@@ -3950,79 +4903,79 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:T71" si="48">MOD(B69,3)</f>
+        <f t="shared" ref="B71:T71" si="42">MOD(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="I71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="K71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="L71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="O71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="S71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="T71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
     </row>
@@ -4032,79 +4985,79 @@
         <v>0</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" ref="B72:T72" si="49">B70+B71+C70</f>
+        <f t="shared" ref="B72:T72" si="43">B70+B71+C70</f>
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
     </row>
@@ -4114,79 +5067,79 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:T73" si="50">QUOTIENT(B72,3)</f>
+        <f t="shared" ref="B73:T73" si="44">QUOTIENT(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="L73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="M73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="S73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T73">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V73">
@@ -4200,79 +5153,79 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:T74" si="51">MOD(B72,3)</f>
+        <f t="shared" ref="B74:T74" si="45">MOD(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="J74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="P74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="R74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="S74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="T74">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
     </row>
@@ -4282,79 +5235,79 @@
         <v>0</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ref="B75:T75" si="52">B73+B74+C73</f>
+        <f t="shared" ref="B75:T75" si="46">B73+B74+C73</f>
         <v>0</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -4364,79 +5317,79 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76" si="53">QUOTIENT(B75,3)</f>
+        <f t="shared" ref="B76" si="47">QUOTIENT(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76" si="54">QUOTIENT(C75,3)</f>
+        <f t="shared" ref="C76" si="48">QUOTIENT(C75,3)</f>
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" si="55">QUOTIENT(D75,3)</f>
+        <f t="shared" ref="D76" si="49">QUOTIENT(D75,3)</f>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76" si="56">QUOTIENT(E75,3)</f>
+        <f t="shared" ref="E76" si="50">QUOTIENT(E75,3)</f>
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76" si="57">QUOTIENT(F75,3)</f>
+        <f t="shared" ref="F76" si="51">QUOTIENT(F75,3)</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" ref="G76" si="58">QUOTIENT(G75,3)</f>
+        <f t="shared" ref="G76" si="52">QUOTIENT(G75,3)</f>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" ref="H76" si="59">QUOTIENT(H75,3)</f>
+        <f t="shared" ref="H76" si="53">QUOTIENT(H75,3)</f>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" ref="I76" si="60">QUOTIENT(I75,3)</f>
+        <f t="shared" ref="I76" si="54">QUOTIENT(I75,3)</f>
         <v>1</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76" si="61">QUOTIENT(J75,3)</f>
+        <f t="shared" ref="J76" si="55">QUOTIENT(J75,3)</f>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" ref="K76" si="62">QUOTIENT(K75,3)</f>
+        <f t="shared" ref="K76" si="56">QUOTIENT(K75,3)</f>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" ref="L76" si="63">QUOTIENT(L75,3)</f>
+        <f t="shared" ref="L76" si="57">QUOTIENT(L75,3)</f>
         <v>1</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76" si="64">QUOTIENT(M75,3)</f>
+        <f t="shared" ref="M76" si="58">QUOTIENT(M75,3)</f>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" ref="N76" si="65">QUOTIENT(N75,3)</f>
+        <f t="shared" ref="N76" si="59">QUOTIENT(N75,3)</f>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" ref="O76" si="66">QUOTIENT(O75,3)</f>
+        <f t="shared" ref="O76" si="60">QUOTIENT(O75,3)</f>
         <v>1</v>
       </c>
       <c r="P76">
-        <f t="shared" ref="P76" si="67">QUOTIENT(P75,3)</f>
+        <f t="shared" ref="P76" si="61">QUOTIENT(P75,3)</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f t="shared" ref="Q76" si="68">QUOTIENT(Q75,3)</f>
+        <f t="shared" ref="Q76" si="62">QUOTIENT(Q75,3)</f>
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" ref="R76" si="69">QUOTIENT(R75,3)</f>
+        <f t="shared" ref="R76" si="63">QUOTIENT(R75,3)</f>
         <v>0</v>
       </c>
       <c r="S76">
-        <f t="shared" ref="S76" si="70">QUOTIENT(S75,3)</f>
+        <f t="shared" ref="S76" si="64">QUOTIENT(S75,3)</f>
         <v>0</v>
       </c>
       <c r="T76">
-        <f t="shared" ref="T76" si="71">QUOTIENT(T75,3)</f>
+        <f t="shared" ref="T76" si="65">QUOTIENT(T75,3)</f>
         <v>0</v>
       </c>
       <c r="V76">
@@ -4450,79 +5403,79 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:T77" si="72">MOD(B75,3)</f>
+        <f t="shared" ref="B77:T77" si="66">MOD(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="L77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="M77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="O77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="R77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="S77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="T77">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
@@ -4532,79 +5485,79 @@
         <v>0</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" ref="B78" si="73">B76+B77+C76</f>
+        <f t="shared" ref="B78" si="67">B76+B77+C76</f>
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ref="C78" si="74">C76+C77+D76</f>
+        <f t="shared" ref="C78" si="68">C76+C77+D76</f>
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78" si="75">D76+D77+E76</f>
+        <f t="shared" ref="D78" si="69">D76+D77+E76</f>
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ref="E78" si="76">E76+E77+F76</f>
+        <f t="shared" ref="E78" si="70">E76+E77+F76</f>
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ref="F78" si="77">F76+F77+G76</f>
+        <f t="shared" ref="F78" si="71">F76+F77+G76</f>
         <v>2</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" ref="G78" si="78">G76+G77+H76</f>
+        <f t="shared" ref="G78" si="72">G76+G77+H76</f>
         <v>2</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78" si="79">H76+H77+I76</f>
+        <f t="shared" ref="H78" si="73">H76+H77+I76</f>
         <v>2</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ref="I78" si="80">I76+I77+J76</f>
+        <f t="shared" ref="I78" si="74">I76+I77+J76</f>
         <v>2</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" ref="J78" si="81">J76+J77+K76</f>
+        <f t="shared" ref="J78" si="75">J76+J77+K76</f>
         <v>1</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" ref="K78" si="82">K76+K77+L76</f>
+        <f t="shared" ref="K78" si="76">K76+K77+L76</f>
         <v>3</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" ref="L78" si="83">L76+L77+M76</f>
+        <f t="shared" ref="L78" si="77">L76+L77+M76</f>
         <v>2</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" ref="M78" si="84">M76+M77+N76</f>
+        <f t="shared" ref="M78" si="78">M76+M77+N76</f>
         <v>2</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" ref="N78" si="85">N76+N77+O76</f>
+        <f t="shared" ref="N78" si="79">N76+N77+O76</f>
         <v>3</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" ref="O78" si="86">O76+O77+P76</f>
+        <f t="shared" ref="O78" si="80">O76+O77+P76</f>
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" ref="P78" si="87">P76+P77+Q76</f>
+        <f t="shared" ref="P78" si="81">P76+P77+Q76</f>
         <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" ref="Q78" si="88">Q76+Q77+R76</f>
+        <f t="shared" ref="Q78" si="82">Q76+Q77+R76</f>
         <v>1</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R78" si="89">R76+R77+S76</f>
+        <f t="shared" ref="R78" si="83">R76+R77+S76</f>
         <v>1</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" ref="S78" si="90">S76+S77+T76</f>
+        <f t="shared" ref="S78" si="84">S76+S77+T76</f>
         <v>2</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" ref="T78" si="91">T76+T77+U76</f>
+        <f t="shared" ref="T78" si="85">T76+T77+U76</f>
         <v>1</v>
       </c>
     </row>
@@ -4614,79 +5567,79 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79" si="92">QUOTIENT(B78,3)</f>
+        <f t="shared" ref="B79" si="86">QUOTIENT(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79" si="93">QUOTIENT(C78,3)</f>
+        <f t="shared" ref="C79" si="87">QUOTIENT(C78,3)</f>
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="94">QUOTIENT(D78,3)</f>
+        <f t="shared" ref="D79" si="88">QUOTIENT(D78,3)</f>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79" si="95">QUOTIENT(E78,3)</f>
+        <f t="shared" ref="E79" si="89">QUOTIENT(E78,3)</f>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="96">QUOTIENT(F78,3)</f>
+        <f t="shared" ref="F79" si="90">QUOTIENT(F78,3)</f>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79" si="97">QUOTIENT(G78,3)</f>
+        <f t="shared" ref="G79" si="91">QUOTIENT(G78,3)</f>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79" si="98">QUOTIENT(H78,3)</f>
+        <f t="shared" ref="H79" si="92">QUOTIENT(H78,3)</f>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" ref="I79" si="99">QUOTIENT(I78,3)</f>
+        <f t="shared" ref="I79" si="93">QUOTIENT(I78,3)</f>
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J79" si="100">QUOTIENT(J78,3)</f>
+        <f t="shared" ref="J79" si="94">QUOTIENT(J78,3)</f>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" ref="K79" si="101">QUOTIENT(K78,3)</f>
+        <f t="shared" ref="K79" si="95">QUOTIENT(K78,3)</f>
         <v>1</v>
       </c>
       <c r="L79">
-        <f t="shared" ref="L79" si="102">QUOTIENT(L78,3)</f>
+        <f t="shared" ref="L79" si="96">QUOTIENT(L78,3)</f>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" ref="M79" si="103">QUOTIENT(M78,3)</f>
+        <f t="shared" ref="M79" si="97">QUOTIENT(M78,3)</f>
         <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" ref="N79" si="104">QUOTIENT(N78,3)</f>
+        <f t="shared" ref="N79" si="98">QUOTIENT(N78,3)</f>
         <v>1</v>
       </c>
       <c r="O79">
-        <f t="shared" ref="O79" si="105">QUOTIENT(O78,3)</f>
+        <f t="shared" ref="O79" si="99">QUOTIENT(O78,3)</f>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" ref="P79" si="106">QUOTIENT(P78,3)</f>
+        <f t="shared" ref="P79" si="100">QUOTIENT(P78,3)</f>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f t="shared" ref="Q79" si="107">QUOTIENT(Q78,3)</f>
+        <f t="shared" ref="Q79" si="101">QUOTIENT(Q78,3)</f>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" ref="R79" si="108">QUOTIENT(R78,3)</f>
+        <f t="shared" ref="R79" si="102">QUOTIENT(R78,3)</f>
         <v>0</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79" si="109">QUOTIENT(S78,3)</f>
+        <f t="shared" ref="S79" si="103">QUOTIENT(S78,3)</f>
         <v>0</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79" si="110">QUOTIENT(T78,3)</f>
+        <f t="shared" ref="T79" si="104">QUOTIENT(T78,3)</f>
         <v>0</v>
       </c>
       <c r="V79">
@@ -4700,79 +5653,79 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:T80" si="111">MOD(B78,3)</f>
+        <f t="shared" ref="B80:T80" si="105">MOD(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>2</v>
       </c>
       <c r="I80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>2</v>
       </c>
       <c r="N80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>1</v>
       </c>
       <c r="P80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>1</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>1</v>
       </c>
       <c r="R80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>1</v>
       </c>
       <c r="S80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>2</v>
       </c>
       <c r="T80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>1</v>
       </c>
     </row>
@@ -4782,79 +5735,79 @@
         <v>0</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" ref="B81" si="112">B79+B80+C79</f>
+        <f t="shared" ref="B81" si="106">B79+B80+C79</f>
         <v>0</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ref="C81" si="113">C79+C80+D79</f>
+        <f t="shared" ref="C81" si="107">C79+C80+D79</f>
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" ref="D81" si="114">D79+D80+E79</f>
+        <f t="shared" ref="D81" si="108">D79+D80+E79</f>
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" ref="E81" si="115">E79+E80+F79</f>
+        <f t="shared" ref="E81" si="109">E79+E80+F79</f>
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" ref="F81" si="116">F79+F80+G79</f>
+        <f t="shared" ref="F81" si="110">F79+F80+G79</f>
         <v>2</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81" si="117">G79+G80+H79</f>
+        <f t="shared" ref="G81" si="111">G79+G80+H79</f>
         <v>2</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ref="H81" si="118">H79+H80+I79</f>
+        <f t="shared" ref="H81" si="112">H79+H80+I79</f>
         <v>2</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" ref="I81" si="119">I79+I80+J79</f>
+        <f t="shared" ref="I81" si="113">I79+I80+J79</f>
         <v>2</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ref="J81" si="120">J79+J80+K79</f>
+        <f t="shared" ref="J81" si="114">J79+J80+K79</f>
         <v>2</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81" si="121">K79+K80+L79</f>
+        <f t="shared" ref="K81" si="115">K79+K80+L79</f>
         <v>1</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" ref="L81" si="122">L79+L80+M79</f>
+        <f t="shared" ref="L81" si="116">L79+L80+M79</f>
         <v>2</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" ref="M81" si="123">M79+M80+N79</f>
+        <f t="shared" ref="M81" si="117">M79+M80+N79</f>
         <v>3</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ref="N81" si="124">N79+N80+O79</f>
+        <f t="shared" ref="N81" si="118">N79+N80+O79</f>
         <v>1</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" ref="O81" si="125">O79+O80+P79</f>
+        <f t="shared" ref="O81" si="119">O79+O80+P79</f>
         <v>1</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" ref="P81" si="126">P79+P80+Q79</f>
+        <f t="shared" ref="P81" si="120">P79+P80+Q79</f>
         <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81" si="127">Q79+Q80+R79</f>
+        <f t="shared" ref="Q81" si="121">Q79+Q80+R79</f>
         <v>1</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" ref="R81" si="128">R79+R80+S79</f>
+        <f t="shared" ref="R81" si="122">R79+R80+S79</f>
         <v>1</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" ref="S81" si="129">S79+S80+T79</f>
+        <f t="shared" ref="S81" si="123">S79+S80+T79</f>
         <v>2</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" ref="T81" si="130">T79+T80+U79</f>
+        <f t="shared" ref="T81" si="124">T79+T80+U79</f>
         <v>1</v>
       </c>
     </row>
@@ -4864,79 +5817,79 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82" si="131">QUOTIENT(B81,3)</f>
+        <f t="shared" ref="B82" si="125">QUOTIENT(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82" si="132">QUOTIENT(C81,3)</f>
+        <f t="shared" ref="C82" si="126">QUOTIENT(C81,3)</f>
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82" si="133">QUOTIENT(D81,3)</f>
+        <f t="shared" ref="D82" si="127">QUOTIENT(D81,3)</f>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82" si="134">QUOTIENT(E81,3)</f>
+        <f t="shared" ref="E82" si="128">QUOTIENT(E81,3)</f>
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82" si="135">QUOTIENT(F81,3)</f>
+        <f t="shared" ref="F82" si="129">QUOTIENT(F81,3)</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82" si="136">QUOTIENT(G81,3)</f>
+        <f t="shared" ref="G82" si="130">QUOTIENT(G81,3)</f>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82" si="137">QUOTIENT(H81,3)</f>
+        <f t="shared" ref="H82" si="131">QUOTIENT(H81,3)</f>
         <v>0</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82" si="138">QUOTIENT(I81,3)</f>
+        <f t="shared" ref="I82" si="132">QUOTIENT(I81,3)</f>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82" si="139">QUOTIENT(J81,3)</f>
+        <f t="shared" ref="J82" si="133">QUOTIENT(J81,3)</f>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82" si="140">QUOTIENT(K81,3)</f>
+        <f t="shared" ref="K82" si="134">QUOTIENT(K81,3)</f>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" ref="L82" si="141">QUOTIENT(L81,3)</f>
+        <f t="shared" ref="L82" si="135">QUOTIENT(L81,3)</f>
         <v>0</v>
       </c>
       <c r="M82">
-        <f t="shared" ref="M82" si="142">QUOTIENT(M81,3)</f>
+        <f t="shared" ref="M82" si="136">QUOTIENT(M81,3)</f>
         <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" ref="N82" si="143">QUOTIENT(N81,3)</f>
+        <f t="shared" ref="N82" si="137">QUOTIENT(N81,3)</f>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" ref="O82" si="144">QUOTIENT(O81,3)</f>
+        <f t="shared" ref="O82" si="138">QUOTIENT(O81,3)</f>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" ref="P82" si="145">QUOTIENT(P81,3)</f>
+        <f t="shared" ref="P82" si="139">QUOTIENT(P81,3)</f>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" ref="Q82" si="146">QUOTIENT(Q81,3)</f>
+        <f t="shared" ref="Q82" si="140">QUOTIENT(Q81,3)</f>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" ref="R82" si="147">QUOTIENT(R81,3)</f>
+        <f t="shared" ref="R82" si="141">QUOTIENT(R81,3)</f>
         <v>0</v>
       </c>
       <c r="S82">
-        <f t="shared" ref="S82" si="148">QUOTIENT(S81,3)</f>
+        <f t="shared" ref="S82" si="142">QUOTIENT(S81,3)</f>
         <v>0</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82" si="149">QUOTIENT(T81,3)</f>
+        <f t="shared" ref="T82" si="143">QUOTIENT(T81,3)</f>
         <v>0</v>
       </c>
       <c r="V82">
@@ -4950,79 +5903,79 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:T83" si="150">MOD(B81,3)</f>
+        <f t="shared" ref="B83:T83" si="144">MOD(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
       <c r="H83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
       <c r="I83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="L83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
       <c r="M83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="N83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="O83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="P83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="R83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="S83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
       <c r="T83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
     </row>
@@ -5032,79 +5985,79 @@
         <v>0</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" ref="B84" si="151">B82+B83+C82</f>
+        <f t="shared" ref="B84" si="145">B82+B83+C82</f>
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" ref="C84" si="152">C82+C83+D82</f>
+        <f t="shared" ref="C84" si="146">C82+C83+D82</f>
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" ref="D84" si="153">D82+D83+E82</f>
+        <f t="shared" ref="D84" si="147">D82+D83+E82</f>
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ref="E84" si="154">E82+E83+F82</f>
+        <f t="shared" ref="E84" si="148">E82+E83+F82</f>
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" ref="F84" si="155">F82+F83+G82</f>
+        <f t="shared" ref="F84" si="149">F82+F83+G82</f>
         <v>2</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" ref="G84" si="156">G82+G83+H82</f>
+        <f t="shared" ref="G84" si="150">G82+G83+H82</f>
         <v>2</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" ref="H84" si="157">H82+H83+I82</f>
+        <f t="shared" ref="H84" si="151">H82+H83+I82</f>
         <v>2</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" ref="I84" si="158">I82+I83+J82</f>
+        <f t="shared" ref="I84" si="152">I82+I83+J82</f>
         <v>2</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" ref="J84" si="159">J82+J83+K82</f>
+        <f t="shared" ref="J84" si="153">J82+J83+K82</f>
         <v>2</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ref="K84" si="160">K82+K83+L82</f>
+        <f t="shared" ref="K84" si="154">K82+K83+L82</f>
         <v>1</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" ref="L84" si="161">L82+L83+M82</f>
+        <f t="shared" ref="L84" si="155">L82+L83+M82</f>
         <v>3</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" ref="M84" si="162">M82+M83+N82</f>
+        <f t="shared" ref="M84" si="156">M82+M83+N82</f>
         <v>1</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" ref="N84" si="163">N82+N83+O82</f>
+        <f t="shared" ref="N84" si="157">N82+N83+O82</f>
         <v>1</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" ref="O84" si="164">O82+O83+P82</f>
+        <f t="shared" ref="O84" si="158">O82+O83+P82</f>
         <v>1</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84" si="165">P82+P83+Q82</f>
+        <f t="shared" ref="P84" si="159">P82+P83+Q82</f>
         <v>1</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ref="Q84" si="166">Q82+Q83+R82</f>
+        <f t="shared" ref="Q84" si="160">Q82+Q83+R82</f>
         <v>1</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ref="R84" si="167">R82+R83+S82</f>
+        <f t="shared" ref="R84" si="161">R82+R83+S82</f>
         <v>1</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84" si="168">S82+S83+T82</f>
+        <f t="shared" ref="S84" si="162">S82+S83+T82</f>
         <v>2</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84" si="169">T82+T83+U82</f>
+        <f t="shared" ref="T84" si="163">T82+T83+U82</f>
         <v>1</v>
       </c>
     </row>
@@ -5114,79 +6067,79 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" ref="B85" si="170">QUOTIENT(B84,3)</f>
+        <f t="shared" ref="B85" si="164">QUOTIENT(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85" si="171">QUOTIENT(C84,3)</f>
+        <f t="shared" ref="C85" si="165">QUOTIENT(C84,3)</f>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="172">QUOTIENT(D84,3)</f>
+        <f t="shared" ref="D85" si="166">QUOTIENT(D84,3)</f>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85" si="173">QUOTIENT(E84,3)</f>
+        <f t="shared" ref="E85" si="167">QUOTIENT(E84,3)</f>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="174">QUOTIENT(F84,3)</f>
+        <f t="shared" ref="F85" si="168">QUOTIENT(F84,3)</f>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85" si="175">QUOTIENT(G84,3)</f>
+        <f t="shared" ref="G85" si="169">QUOTIENT(G84,3)</f>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H85" si="176">QUOTIENT(H84,3)</f>
+        <f t="shared" ref="H85" si="170">QUOTIENT(H84,3)</f>
         <v>0</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85" si="177">QUOTIENT(I84,3)</f>
+        <f t="shared" ref="I85" si="171">QUOTIENT(I84,3)</f>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85" si="178">QUOTIENT(J84,3)</f>
+        <f t="shared" ref="J85" si="172">QUOTIENT(J84,3)</f>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" ref="K85" si="179">QUOTIENT(K84,3)</f>
+        <f t="shared" ref="K85" si="173">QUOTIENT(K84,3)</f>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" ref="L85" si="180">QUOTIENT(L84,3)</f>
+        <f t="shared" ref="L85" si="174">QUOTIENT(L84,3)</f>
         <v>1</v>
       </c>
       <c r="M85">
-        <f t="shared" ref="M85" si="181">QUOTIENT(M84,3)</f>
+        <f t="shared" ref="M85" si="175">QUOTIENT(M84,3)</f>
         <v>0</v>
       </c>
       <c r="N85">
-        <f t="shared" ref="N85" si="182">QUOTIENT(N84,3)</f>
+        <f t="shared" ref="N85" si="176">QUOTIENT(N84,3)</f>
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" ref="O85" si="183">QUOTIENT(O84,3)</f>
+        <f t="shared" ref="O85" si="177">QUOTIENT(O84,3)</f>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" ref="P85" si="184">QUOTIENT(P84,3)</f>
+        <f t="shared" ref="P85" si="178">QUOTIENT(P84,3)</f>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" ref="Q85" si="185">QUOTIENT(Q84,3)</f>
+        <f t="shared" ref="Q85" si="179">QUOTIENT(Q84,3)</f>
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" ref="R85" si="186">QUOTIENT(R84,3)</f>
+        <f t="shared" ref="R85" si="180">QUOTIENT(R84,3)</f>
         <v>0</v>
       </c>
       <c r="S85">
-        <f t="shared" ref="S85" si="187">QUOTIENT(S84,3)</f>
+        <f t="shared" ref="S85" si="181">QUOTIENT(S84,3)</f>
         <v>0</v>
       </c>
       <c r="T85">
-        <f t="shared" ref="T85" si="188">QUOTIENT(T84,3)</f>
+        <f t="shared" ref="T85" si="182">QUOTIENT(T84,3)</f>
         <v>0</v>
       </c>
       <c r="V85">
@@ -5200,79 +6153,79 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" ref="B86:T86" si="189">MOD(B84,3)</f>
+        <f t="shared" ref="B86:T86" si="183">MOD(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>2</v>
       </c>
       <c r="H86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>1</v>
       </c>
       <c r="L86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>1</v>
       </c>
       <c r="N86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>1</v>
       </c>
       <c r="O86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>1</v>
       </c>
       <c r="P86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>1</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>1</v>
       </c>
       <c r="R86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>1</v>
       </c>
       <c r="S86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>2</v>
       </c>
       <c r="T86">
-        <f t="shared" si="189"/>
+        <f t="shared" si="183"/>
         <v>1</v>
       </c>
     </row>
@@ -5282,79 +6235,79 @@
         <v>0</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ref="B87" si="190">B85+B86+C85</f>
+        <f t="shared" ref="B87" si="184">B85+B86+C85</f>
         <v>0</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" ref="C87" si="191">C85+C86+D85</f>
+        <f t="shared" ref="C87" si="185">C85+C86+D85</f>
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" ref="D87" si="192">D85+D86+E85</f>
+        <f t="shared" ref="D87" si="186">D85+D86+E85</f>
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ref="E87" si="193">E85+E86+F85</f>
+        <f t="shared" ref="E87" si="187">E85+E86+F85</f>
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ref="F87" si="194">F85+F86+G85</f>
+        <f t="shared" ref="F87" si="188">F85+F86+G85</f>
         <v>2</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" ref="G87" si="195">G85+G86+H85</f>
+        <f t="shared" ref="G87" si="189">G85+G86+H85</f>
         <v>2</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87" si="196">H85+H86+I85</f>
+        <f t="shared" ref="H87" si="190">H85+H86+I85</f>
         <v>2</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" ref="I87" si="197">I85+I86+J85</f>
+        <f t="shared" ref="I87" si="191">I85+I86+J85</f>
         <v>2</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" ref="J87" si="198">J85+J86+K85</f>
+        <f t="shared" ref="J87" si="192">J85+J86+K85</f>
         <v>2</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ref="K87" si="199">K85+K86+L85</f>
+        <f t="shared" ref="K87" si="193">K85+K86+L85</f>
         <v>2</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" ref="L87" si="200">L85+L86+M85</f>
+        <f t="shared" ref="L87" si="194">L85+L86+M85</f>
         <v>1</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" ref="M87" si="201">M85+M86+N85</f>
+        <f t="shared" ref="M87" si="195">M85+M86+N85</f>
         <v>1</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ref="N87" si="202">N85+N86+O85</f>
+        <f t="shared" ref="N87" si="196">N85+N86+O85</f>
         <v>1</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" ref="O87" si="203">O85+O86+P85</f>
+        <f t="shared" ref="O87" si="197">O85+O86+P85</f>
         <v>1</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" ref="P87" si="204">P85+P86+Q85</f>
+        <f t="shared" ref="P87" si="198">P85+P86+Q85</f>
         <v>1</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" ref="Q87" si="205">Q85+Q86+R85</f>
+        <f t="shared" ref="Q87" si="199">Q85+Q86+R85</f>
         <v>1</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" ref="R87" si="206">R85+R86+S85</f>
+        <f t="shared" ref="R87" si="200">R85+R86+S85</f>
         <v>1</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" ref="S87" si="207">S85+S86+T85</f>
+        <f t="shared" ref="S87" si="201">S85+S86+T85</f>
         <v>2</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" ref="T87" si="208">T85+T86+U85</f>
+        <f t="shared" ref="T87" si="202">T85+T86+U85</f>
         <v>1</v>
       </c>
       <c r="V87" s="1">
@@ -5430,79 +6383,79 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:U93" si="209">QUOTIENT(C92,5)</f>
+        <f t="shared" ref="C93:U93" si="203">QUOTIENT(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="L93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="M93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="N93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="O93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="P93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="R93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="S93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="T93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="U93">
-        <f t="shared" si="209"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
     </row>
@@ -5512,79 +6465,79 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:U94" si="210">MOD(C92,5)</f>
+        <f t="shared" ref="C94:U94" si="204">MOD(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="I94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>4</v>
       </c>
       <c r="K94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="M94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="N94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>3</v>
       </c>
       <c r="O94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="P94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>4</v>
       </c>
       <c r="S94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>3</v>
       </c>
       <c r="T94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="U94">
-        <f t="shared" si="210"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
     </row>
@@ -5594,79 +6547,79 @@
         <v>0</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ref="C95:U95" si="211">C93+C94+D93+E93</f>
+        <f t="shared" ref="C95:U95" si="205">C93+C94+D93+E93</f>
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>1</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>2</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>4</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>6</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>3</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>4</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>5</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>6</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>5</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>3</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>1</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>4</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>3</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>2</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="205"/>
         <v>1</v>
       </c>
     </row>

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C1416-BB05-421C-B6A4-F2F93DE5986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0861DCC5-AC59-4F8B-AE96-F7E55954E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="3">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW28" sqref="AW28"/>
+    <sheetView tabSelected="1" topLeftCell="X19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -660,19 +660,19 @@
         <v>13</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>2</v>
       </c>
       <c r="AI3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -813,21 +813,6 @@
       <c r="W5" s="7">
         <v>7</v>
       </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A6">
@@ -930,7 +915,7 @@
       </c>
       <c r="AE7">
         <f>AE3*9</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <f>AF3*9</f>
@@ -938,7 +923,7 @@
       </c>
       <c r="AG7">
         <f t="shared" ref="AG7:AT7" si="0">AG3*9</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
@@ -946,7 +931,7 @@
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
@@ -1142,8 +1127,14 @@
       <c r="U10" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -1152,9 +1143,12 @@
         <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <v>1</v>
       </c>
     </row>
@@ -1213,7 +1207,7 @@
       </c>
       <c r="AB11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <f>AC7+AC10</f>
@@ -1221,11 +1215,11 @@
       </c>
       <c r="AD11">
         <f>AD7+AD10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" ref="AD11:AH11" si="2">AE7+1+AE10</f>
-        <v>11</v>
+        <f t="shared" ref="AE11:AH11" si="2">AE7+1+AE10</f>
+        <v>2</v>
       </c>
       <c r="AF11">
         <f t="shared" si="2"/>
@@ -1233,15 +1227,15 @@
       </c>
       <c r="AG11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AH11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11">
         <f>AI7+1+AI10</f>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="AJ11">
         <f t="shared" ref="AJ11:AT11" si="3">AJ7+1</f>
@@ -1400,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13">
         <v>1</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
         <v>2</v>
@@ -1443,7 +1437,7 @@
       </c>
       <c r="AY13">
         <f>SUM(Z13:AT13)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ13">
         <v>15</v>
@@ -1502,7 +1496,7 @@
       </c>
       <c r="AB14">
         <f t="shared" ref="AB14" si="6">AB11-AB13*15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <f t="shared" ref="AC14:AD14" si="7">AC11-AC13*15</f>
@@ -1510,11 +1504,11 @@
       </c>
       <c r="AD14">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <f>AE11-AE13*15</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AF14">
         <f t="shared" ref="AF14:AT14" si="8">AF11-AF13*15</f>
@@ -1522,15 +1516,15 @@
       </c>
       <c r="AG14">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AH14">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI14">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="8"/>
@@ -1788,7 +1782,7 @@
       </c>
       <c r="AB17">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <f>AC14-AC16*13</f>
@@ -1796,11 +1790,11 @@
       </c>
       <c r="AD17">
         <f t="shared" ref="AD17:AE17" si="10">AD14-AD16*13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AF17">
         <f t="shared" ref="AF17" si="11">AF14-AF16*13</f>
@@ -1808,15 +1802,15 @@
       </c>
       <c r="AG17">
         <f t="shared" ref="AG17" si="12">AG14-AG16*13</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AH17">
         <f t="shared" ref="AH17" si="13">AH14-AH16*13</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI17">
         <f t="shared" ref="AI17" si="14">AI14-AI16*13</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ17">
         <f t="shared" ref="AJ17" si="15">AJ14-AJ16*13</f>
@@ -1966,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -2074,7 +2068,7 @@
       </c>
       <c r="AB20">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <f t="shared" si="26"/>
@@ -2082,11 +2076,11 @@
       </c>
       <c r="AD20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF20">
         <f t="shared" si="26"/>
@@ -2094,15 +2088,15 @@
       </c>
       <c r="AG20">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI20">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="26"/>
@@ -2337,7 +2331,7 @@
       </c>
       <c r="AB23">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <f t="shared" si="28"/>
@@ -2345,11 +2339,11 @@
       </c>
       <c r="AD23">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF23">
         <f t="shared" si="28"/>
@@ -2357,15 +2351,15 @@
       </c>
       <c r="AG23">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI23">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="28"/>
@@ -2513,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
         <v>1</v>
@@ -2550,7 +2544,7 @@
       </c>
       <c r="AY25">
         <f>SUM(Z25:AT25)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ25">
         <v>7</v>
@@ -2602,7 +2596,7 @@
       </c>
       <c r="AB26">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <f t="shared" si="29"/>
@@ -2610,11 +2604,11 @@
       </c>
       <c r="AD26">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF26">
         <f t="shared" si="29"/>
@@ -2622,15 +2616,15 @@
       </c>
       <c r="AG26">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH26">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="29"/>
@@ -2775,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -2867,7 +2861,7 @@
       </c>
       <c r="AB29">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <f t="shared" si="30"/>
@@ -2875,11 +2869,11 @@
       </c>
       <c r="AD29">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF29">
         <f t="shared" si="30"/>
@@ -2887,11 +2881,11 @@
       </c>
       <c r="AG29">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH29">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI29">
         <f t="shared" si="30"/>
@@ -3027,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -3117,7 +3111,7 @@
       </c>
       <c r="AB32">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <f t="shared" si="31"/>
@@ -3125,11 +3119,11 @@
       </c>
       <c r="AD32">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF32">
         <f t="shared" si="31"/>
@@ -3223,6 +3217,63 @@
       <c r="R33" s="2"/>
       <c r="T33" s="2"/>
       <c r="V33" s="2"/>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A34">
@@ -3265,35 +3316,35 @@
       </c>
       <c r="AB34" s="1">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="1">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="32"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF34" s="1">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG34" s="1">
         <f t="shared" si="32"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH34" s="1">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI34" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ34" s="1">
         <f t="shared" si="32"/>
@@ -3377,6 +3428,82 @@
       <c r="R35" s="2"/>
       <c r="T35" s="2"/>
       <c r="V35" s="2"/>
+      <c r="AB35">
+        <f>AB34+AB33</f>
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" ref="AC35:AT35" si="33">AC34+AC33</f>
+        <v>2</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="33"/>
+        <v>13</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AS35">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A36">
@@ -3409,72 +3536,6 @@
       <c r="R36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AZ36">
-        <v>12</v>
-      </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A37">
@@ -3510,88 +3571,70 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="Z37">
-        <f>Z34-Z36*12</f>
         <v>0</v>
       </c>
       <c r="AA37">
-        <f t="shared" ref="AA37:AT37" si="33">AA34-AA36*12</f>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="33"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="33"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="33"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="33"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="33"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="33"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="33"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="33"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37">
-        <f t="shared" si="33"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <f t="shared" si="33"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <f t="shared" si="33"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="33"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="33"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
-        <f t="shared" si="33"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR37">
-        <f t="shared" si="33"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <f t="shared" si="33"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="33"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.45">
@@ -3627,6 +3670,90 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
+      <c r="Z38">
+        <f>Z35-Z37*13</f>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ref="AA38:AT38" si="34">AA35-AA37*13</f>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="AS38">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="AT38">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A39">
@@ -3648,72 +3775,6 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AJ39">
-        <v>1</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>1</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AZ39">
-        <v>11</v>
-      </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A40">
@@ -3737,88 +3798,70 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="Z40">
-        <f>Z37-Z39*11</f>
         <v>0</v>
       </c>
       <c r="AA40">
-        <f t="shared" ref="AA40:AT40" si="34">AA37-AA39*11</f>
         <v>0</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="34"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="34"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="34"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="34"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="34"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="34"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AL40">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40">
-        <f t="shared" si="34"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN40">
-        <f t="shared" si="34"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <f t="shared" si="34"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <f t="shared" si="34"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
-        <f t="shared" si="34"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR40">
-        <f t="shared" si="34"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <f t="shared" si="34"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT40">
-        <f t="shared" si="34"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.45">
@@ -3840,6 +3883,90 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
+      <c r="Z41">
+        <f>Z38-Z40*12</f>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" ref="AA41:AT41" si="35">AA38-AA40*12</f>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="AS41">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="AT41">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A42">
@@ -3861,72 +3988,6 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>1</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
-        <v>0</v>
-      </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AZ42">
-        <v>10</v>
-      </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A43">
@@ -3949,88 +4010,70 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="Z43">
-        <f>Z40-Z42*10</f>
         <v>0</v>
       </c>
       <c r="AA43">
-        <f t="shared" ref="AA43:AT43" si="35">AA40-AA42*10</f>
         <v>0</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="35"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="35"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="35"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="35"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="35"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AK43">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AL43">
-        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AM43">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43">
-        <f t="shared" si="35"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO43">
-        <f t="shared" si="35"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <f t="shared" si="35"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
-        <f t="shared" si="35"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR43">
-        <f t="shared" si="35"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS43">
-        <f t="shared" si="35"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT43">
-        <f t="shared" si="35"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.45">
@@ -4053,6 +4096,90 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
+      <c r="Z44">
+        <f>Z41-Z43*11</f>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" ref="AA44:AT44" si="36">AA41-AA43*11</f>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="36"/>
+        <v>9</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="AS44">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A45">
@@ -4069,72 +4196,6 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>1</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45">
-        <v>0</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
-      <c r="AT45">
-        <v>0</v>
-      </c>
-      <c r="AZ45">
-        <v>9</v>
-      </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A46">
@@ -4145,88 +4206,70 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <f>Z43-Z45*9</f>
         <v>0</v>
       </c>
       <c r="AA46">
-        <f t="shared" ref="AA46:AT46" si="36">AA43-AA45*9</f>
         <v>0</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="36"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="36"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="36"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AK46">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL46">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AM46">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AN46">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="36"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ46">
-        <f t="shared" si="36"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR46">
-        <f t="shared" si="36"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS46">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="36"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.45">
@@ -4245,6 +4288,90 @@
         <v>0</v>
       </c>
       <c r="V47" s="2"/>
+      <c r="Z47">
+        <f>Z44-Z46*10</f>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" ref="AA47:AT47" si="37">AA44-AA46*10</f>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="37"/>
+        <v>-2</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="AR47">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="AS47">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="AT47">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.45">
       <c r="H48" s="2"/>
@@ -4257,74 +4384,8 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AZ48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="6:46" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="6:52" x14ac:dyDescent="0.45">
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -4336,91 +4397,73 @@
       <c r="P49" s="2"/>
       <c r="V49" s="2"/>
       <c r="Z49">
-        <f>Z46-Z48*8</f>
         <v>0</v>
       </c>
       <c r="AA49">
-        <f t="shared" ref="AA49:AT49" si="37">AA46-AA48*8</f>
         <v>0</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="37"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="37"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AK49">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AL49">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AM49">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AN49">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AO49">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AQ49">
-        <f t="shared" si="37"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR49">
-        <f t="shared" si="37"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS49">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="6:46" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="6:52" x14ac:dyDescent="0.45">
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -4431,8 +4474,92 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="6:46" x14ac:dyDescent="0.45">
+      <c r="Z50">
+        <f>Z47-Z49*9</f>
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" ref="AA50:AT50" si="38">AA47-AA49*9</f>
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="38"/>
+        <v>-2</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="AQ50">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AR50">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="AS50">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:52" x14ac:dyDescent="0.45">
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -4442,7 +4569,75 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="53" spans="6:46" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:52" x14ac:dyDescent="0.45">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="6:52" x14ac:dyDescent="0.45">
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -4452,8 +4647,92 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="6:46" x14ac:dyDescent="0.45">
+      <c r="Z53">
+        <f>Z50-Z52*8</f>
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" ref="AA53:AT53" si="39">AA50-AA52*8</f>
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="39"/>
+        <v>-2</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="39"/>
+        <v>-2</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="AR53">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="AS53">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="AT53">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="6:52" x14ac:dyDescent="0.45">
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -4464,7 +4743,7 @@
       <c r="N54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="6:46" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:52" x14ac:dyDescent="0.45">
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4474,8 +4753,160 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="V55" s="2"/>
-    </row>
-    <row r="57" spans="6:46" x14ac:dyDescent="0.45">
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="6:52" x14ac:dyDescent="0.45">
+      <c r="Z56">
+        <f>Z53-Z55*7</f>
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" ref="AA56:AT56" si="40">AA53-AA55*7</f>
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="AR56">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="AS56">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="AT56">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="6:52" x14ac:dyDescent="0.45">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -4494,12 +4925,472 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="59" spans="6:46" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:52" x14ac:dyDescent="0.45">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="6:52" x14ac:dyDescent="0.45">
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="Z59">
+        <f>Z56-Z58*6</f>
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" ref="AA59:AT59" si="41">AA56-AA58*6</f>
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="41"/>
+        <v>-2</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="AS59">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="6:52" x14ac:dyDescent="0.45">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>1</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AZ61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="6:52" x14ac:dyDescent="0.45">
+      <c r="Z62">
+        <f>Z59-Z61*5</f>
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" ref="AA62:AT62" si="42">AA59-AA61*5</f>
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="AT62">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="6:52" x14ac:dyDescent="0.45">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="Z65">
+        <f>Z62-Z64*4</f>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" ref="AA65:AT65" si="43">AA62-AA64*4</f>
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="43"/>
+        <v>-2</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="43"/>
+        <v>-2</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="43"/>
+        <v>-2</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="AT65">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -4561,835 +5452,1225 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A67">
         <f>QUOTIENT(A66,3)</f>
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:T67" si="38">QUOTIENT(B66,3)</f>
+        <f t="shared" ref="B67:T67" si="44">QUOTIENT(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="L67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="N67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="O67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="P67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="R67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="S67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V67">
         <f>SUM(B67:U67)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A68">
         <f>MOD(A66,3)</f>
         <v>0</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:T68" si="39">MOD(B66,3)</f>
+        <f t="shared" ref="B68:T68" si="45">MOD(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="H68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="M68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="N68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="O68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="R68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="T68">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <f>Z65-Z67*3</f>
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" ref="AA68:AT68" si="46">AA65-AA67*3</f>
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="46"/>
+        <v>-1</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="46"/>
+        <v>-1</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="46"/>
+        <v>-2</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="46"/>
+        <v>-2</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="46"/>
+        <v>-2</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="46"/>
+        <v>-1</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="46"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <f>A67+A68+B67</f>
         <v>0</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" ref="B69:T69" si="40">B67+B68+C67</f>
+        <f t="shared" ref="B69:T69" si="47">B67+B68+C67</f>
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A70">
         <f>QUOTIENT(A69,3)</f>
         <v>0</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:T70" si="41">QUOTIENT(B69,3)</f>
+        <f t="shared" ref="B70:T70" si="48">QUOTIENT(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="L70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="M70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="N70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="P70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="R70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="V70">
         <f>SUM(B70:U70)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>1</v>
+      </c>
+      <c r="AZ70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A71">
         <f>MOD(A69,3)</f>
         <v>0</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:T71" si="42">MOD(B69,3)</f>
+        <f t="shared" ref="B71:T71" si="49">MOD(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="I71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="K71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="L71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="M71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="O71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="S71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="T71">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <f>Z68-Z70*2</f>
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" ref="AA71:AT71" si="50">AA68-AA70*2</f>
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="50"/>
+        <v>-1</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="50"/>
+        <v>-1</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="50"/>
+        <v>-1</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="50"/>
+        <v>-2</v>
+      </c>
+      <c r="AF71">
+        <f t="shared" si="50"/>
+        <v>-2</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" si="50"/>
+        <v>-2</v>
+      </c>
+      <c r="AH71">
+        <f t="shared" si="50"/>
+        <v>-1</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" si="50"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <f>A70+A71+B70</f>
         <v>0</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" ref="B72:T72" si="43">B70+B71+C70</f>
+        <f t="shared" ref="B72:T72" si="51">B70+B71+C70</f>
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="43"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A73">
         <f>QUOTIENT(A72,3)</f>
         <v>0</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:T73" si="44">QUOTIENT(B72,3)</f>
+        <f t="shared" ref="B73:T73" si="52">QUOTIENT(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="L73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="M73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="S73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T73">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V73">
         <f>SUM(B73:U73)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="Z73" s="1">
+        <f>Z70+AA70+Z67+AA67+Z61+AA61+AB61+Z58+AA58+AB58+Z55+AA55+AB55+Z52+AA52+AB52+AC52+Z49+AA49+AB49+AC49+Z46+AA46+AB46+AC46+Z43+AA43+AB43+AC43+Z40+AA40+AB40+AC40+Z37+AA37+AB37+AC37++Z64+AA64+AB64</f>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1">
+        <f t="shared" ref="AA73:AT73" si="53">AA70+AB70+AA67+AB67+AA61+AB61+AC61+AA58+AB58+AC58+AA55+AB55+AC55+AA52+AB52+AC52+AD52+AA49+AB49+AC49+AD49+AA46+AB46+AC46+AD46+AA43+AB43+AC43+AD43+AA40+AB40+AC40+AD40+AA37+AB37+AC37+AD37++AA64+AB64+AC64</f>
+        <v>1</v>
+      </c>
+      <c r="AB73" s="1">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="AC73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AD73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AE73" s="1">
+        <f>AE70+AF70+AE67+AF67+AE61+AF61+AG61+AE58+AF58+AG58+AE55+AF55+AG55+AE52+AF52+AG52+AH52+AE49+AF49+AG49+AH49+AE46+AF46+AG46+AH46+AE43+AF43+AG43+AH43+AE40+AF40+AG40+AH40+AE37+AF37+AG37+AH37++AE64+AF64+AG64</f>
+        <v>4</v>
+      </c>
+      <c r="AF73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AG73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AH73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AI73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AJ73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AK73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AL73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AM73" s="1">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AN73" s="1">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="AO73" s="1">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="AP73" s="1">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="AQ73" s="1">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="AR73" s="1">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="AS73" s="1">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="AT73" s="1">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A74">
         <f>MOD(A72,3)</f>
         <v>0</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:T74" si="45">MOD(B72,3)</f>
+        <f t="shared" ref="B74:T74" si="54">MOD(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="J74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="P74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="R74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="S74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="T74">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <f>A73+A74+B73</f>
         <v>0</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ref="B75:T75" si="46">B73+B74+C73</f>
+        <f t="shared" ref="B75:T75" si="55">B73+B74+C73</f>
         <v>0</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>3</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>3</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>4</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>3</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A76">
         <f>QUOTIENT(A75,3)</f>
         <v>0</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76" si="47">QUOTIENT(B75,3)</f>
+        <f t="shared" ref="B76" si="56">QUOTIENT(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76" si="48">QUOTIENT(C75,3)</f>
+        <f t="shared" ref="C76" si="57">QUOTIENT(C75,3)</f>
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" si="49">QUOTIENT(D75,3)</f>
+        <f t="shared" ref="D76" si="58">QUOTIENT(D75,3)</f>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76" si="50">QUOTIENT(E75,3)</f>
+        <f t="shared" ref="E76" si="59">QUOTIENT(E75,3)</f>
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76" si="51">QUOTIENT(F75,3)</f>
+        <f t="shared" ref="F76" si="60">QUOTIENT(F75,3)</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" ref="G76" si="52">QUOTIENT(G75,3)</f>
+        <f t="shared" ref="G76" si="61">QUOTIENT(G75,3)</f>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" ref="H76" si="53">QUOTIENT(H75,3)</f>
+        <f t="shared" ref="H76" si="62">QUOTIENT(H75,3)</f>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" ref="I76" si="54">QUOTIENT(I75,3)</f>
+        <f t="shared" ref="I76" si="63">QUOTIENT(I75,3)</f>
         <v>1</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76" si="55">QUOTIENT(J75,3)</f>
+        <f t="shared" ref="J76" si="64">QUOTIENT(J75,3)</f>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" ref="K76" si="56">QUOTIENT(K75,3)</f>
+        <f t="shared" ref="K76" si="65">QUOTIENT(K75,3)</f>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" ref="L76" si="57">QUOTIENT(L75,3)</f>
+        <f t="shared" ref="L76" si="66">QUOTIENT(L75,3)</f>
         <v>1</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76" si="58">QUOTIENT(M75,3)</f>
+        <f t="shared" ref="M76" si="67">QUOTIENT(M75,3)</f>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" ref="N76" si="59">QUOTIENT(N75,3)</f>
+        <f t="shared" ref="N76" si="68">QUOTIENT(N75,3)</f>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" ref="O76" si="60">QUOTIENT(O75,3)</f>
+        <f t="shared" ref="O76" si="69">QUOTIENT(O75,3)</f>
         <v>1</v>
       </c>
       <c r="P76">
-        <f t="shared" ref="P76" si="61">QUOTIENT(P75,3)</f>
+        <f t="shared" ref="P76" si="70">QUOTIENT(P75,3)</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f t="shared" ref="Q76" si="62">QUOTIENT(Q75,3)</f>
+        <f t="shared" ref="Q76" si="71">QUOTIENT(Q75,3)</f>
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" ref="R76" si="63">QUOTIENT(R75,3)</f>
+        <f t="shared" ref="R76" si="72">QUOTIENT(R75,3)</f>
         <v>0</v>
       </c>
       <c r="S76">
-        <f t="shared" ref="S76" si="64">QUOTIENT(S75,3)</f>
+        <f t="shared" ref="S76" si="73">QUOTIENT(S75,3)</f>
         <v>0</v>
       </c>
       <c r="T76">
-        <f t="shared" ref="T76" si="65">QUOTIENT(T75,3)</f>
+        <f t="shared" ref="T76" si="74">QUOTIENT(T75,3)</f>
         <v>0</v>
       </c>
       <c r="V76">
@@ -5397,249 +6678,249 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A77">
         <f>MOD(A75,3)</f>
         <v>0</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:T77" si="66">MOD(B75,3)</f>
+        <f t="shared" ref="B77:T77" si="75">MOD(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="L77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="M77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="O77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="R77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="S77">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="T77">
-        <f t="shared" si="66"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <f>A76+A77+B76</f>
         <v>0</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" ref="B78" si="67">B76+B77+C76</f>
+        <f t="shared" ref="B78" si="76">B76+B77+C76</f>
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ref="C78" si="68">C76+C77+D76</f>
+        <f t="shared" ref="C78" si="77">C76+C77+D76</f>
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78" si="69">D76+D77+E76</f>
+        <f t="shared" ref="D78" si="78">D76+D77+E76</f>
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ref="E78" si="70">E76+E77+F76</f>
+        <f t="shared" ref="E78" si="79">E76+E77+F76</f>
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ref="F78" si="71">F76+F77+G76</f>
+        <f t="shared" ref="F78" si="80">F76+F77+G76</f>
         <v>2</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" ref="G78" si="72">G76+G77+H76</f>
+        <f t="shared" ref="G78" si="81">G76+G77+H76</f>
         <v>2</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78" si="73">H76+H77+I76</f>
+        <f t="shared" ref="H78" si="82">H76+H77+I76</f>
         <v>2</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ref="I78" si="74">I76+I77+J76</f>
+        <f t="shared" ref="I78" si="83">I76+I77+J76</f>
         <v>2</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" ref="J78" si="75">J76+J77+K76</f>
+        <f t="shared" ref="J78" si="84">J76+J77+K76</f>
         <v>1</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" ref="K78" si="76">K76+K77+L76</f>
+        <f t="shared" ref="K78" si="85">K76+K77+L76</f>
         <v>3</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" ref="L78" si="77">L76+L77+M76</f>
+        <f t="shared" ref="L78" si="86">L76+L77+M76</f>
         <v>2</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" ref="M78" si="78">M76+M77+N76</f>
+        <f t="shared" ref="M78" si="87">M76+M77+N76</f>
         <v>2</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" ref="N78" si="79">N76+N77+O76</f>
+        <f t="shared" ref="N78" si="88">N76+N77+O76</f>
         <v>3</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" ref="O78" si="80">O76+O77+P76</f>
+        <f t="shared" ref="O78" si="89">O76+O77+P76</f>
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" ref="P78" si="81">P76+P77+Q76</f>
+        <f t="shared" ref="P78" si="90">P76+P77+Q76</f>
         <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" ref="Q78" si="82">Q76+Q77+R76</f>
+        <f t="shared" ref="Q78" si="91">Q76+Q77+R76</f>
         <v>1</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R78" si="83">R76+R77+S76</f>
+        <f t="shared" ref="R78" si="92">R76+R77+S76</f>
         <v>1</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" ref="S78" si="84">S76+S77+T76</f>
+        <f t="shared" ref="S78" si="93">S76+S77+T76</f>
         <v>2</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" ref="T78" si="85">T76+T77+U76</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" ref="T78" si="94">T76+T77+U76</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A79">
         <f>QUOTIENT(A78,3)</f>
         <v>0</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79" si="86">QUOTIENT(B78,3)</f>
+        <f t="shared" ref="B79" si="95">QUOTIENT(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79" si="87">QUOTIENT(C78,3)</f>
+        <f t="shared" ref="C79" si="96">QUOTIENT(C78,3)</f>
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="88">QUOTIENT(D78,3)</f>
+        <f t="shared" ref="D79" si="97">QUOTIENT(D78,3)</f>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79" si="89">QUOTIENT(E78,3)</f>
+        <f t="shared" ref="E79" si="98">QUOTIENT(E78,3)</f>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="90">QUOTIENT(F78,3)</f>
+        <f t="shared" ref="F79" si="99">QUOTIENT(F78,3)</f>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79" si="91">QUOTIENT(G78,3)</f>
+        <f t="shared" ref="G79" si="100">QUOTIENT(G78,3)</f>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79" si="92">QUOTIENT(H78,3)</f>
+        <f t="shared" ref="H79" si="101">QUOTIENT(H78,3)</f>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" ref="I79" si="93">QUOTIENT(I78,3)</f>
+        <f t="shared" ref="I79" si="102">QUOTIENT(I78,3)</f>
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J79" si="94">QUOTIENT(J78,3)</f>
+        <f t="shared" ref="J79" si="103">QUOTIENT(J78,3)</f>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" ref="K79" si="95">QUOTIENT(K78,3)</f>
+        <f t="shared" ref="K79" si="104">QUOTIENT(K78,3)</f>
         <v>1</v>
       </c>
       <c r="L79">
-        <f t="shared" ref="L79" si="96">QUOTIENT(L78,3)</f>
+        <f t="shared" ref="L79" si="105">QUOTIENT(L78,3)</f>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" ref="M79" si="97">QUOTIENT(M78,3)</f>
+        <f t="shared" ref="M79" si="106">QUOTIENT(M78,3)</f>
         <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" ref="N79" si="98">QUOTIENT(N78,3)</f>
+        <f t="shared" ref="N79" si="107">QUOTIENT(N78,3)</f>
         <v>1</v>
       </c>
       <c r="O79">
-        <f t="shared" ref="O79" si="99">QUOTIENT(O78,3)</f>
+        <f t="shared" ref="O79" si="108">QUOTIENT(O78,3)</f>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" ref="P79" si="100">QUOTIENT(P78,3)</f>
+        <f t="shared" ref="P79" si="109">QUOTIENT(P78,3)</f>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f t="shared" ref="Q79" si="101">QUOTIENT(Q78,3)</f>
+        <f t="shared" ref="Q79" si="110">QUOTIENT(Q78,3)</f>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" ref="R79" si="102">QUOTIENT(R78,3)</f>
+        <f t="shared" ref="R79" si="111">QUOTIENT(R78,3)</f>
         <v>0</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79" si="103">QUOTIENT(S78,3)</f>
+        <f t="shared" ref="S79" si="112">QUOTIENT(S78,3)</f>
         <v>0</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79" si="104">QUOTIENT(T78,3)</f>
+        <f t="shared" ref="T79" si="113">QUOTIENT(T78,3)</f>
         <v>0</v>
       </c>
       <c r="V79">
@@ -5647,85 +6928,85 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A80">
         <f>MOD(A78,3)</f>
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:T80" si="105">MOD(B78,3)</f>
+        <f t="shared" ref="B80:T80" si="114">MOD(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="I80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="N80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="P80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="R80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="S80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="T80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
     </row>
@@ -5735,79 +7016,79 @@
         <v>0</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" ref="B81" si="106">B79+B80+C79</f>
+        <f t="shared" ref="B81" si="115">B79+B80+C79</f>
         <v>0</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ref="C81" si="107">C79+C80+D79</f>
+        <f t="shared" ref="C81" si="116">C79+C80+D79</f>
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" ref="D81" si="108">D79+D80+E79</f>
+        <f t="shared" ref="D81" si="117">D79+D80+E79</f>
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" ref="E81" si="109">E79+E80+F79</f>
+        <f t="shared" ref="E81" si="118">E79+E80+F79</f>
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" ref="F81" si="110">F79+F80+G79</f>
+        <f t="shared" ref="F81" si="119">F79+F80+G79</f>
         <v>2</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81" si="111">G79+G80+H79</f>
+        <f t="shared" ref="G81" si="120">G79+G80+H79</f>
         <v>2</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ref="H81" si="112">H79+H80+I79</f>
+        <f t="shared" ref="H81" si="121">H79+H80+I79</f>
         <v>2</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" ref="I81" si="113">I79+I80+J79</f>
+        <f t="shared" ref="I81" si="122">I79+I80+J79</f>
         <v>2</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ref="J81" si="114">J79+J80+K79</f>
+        <f t="shared" ref="J81" si="123">J79+J80+K79</f>
         <v>2</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81" si="115">K79+K80+L79</f>
+        <f t="shared" ref="K81" si="124">K79+K80+L79</f>
         <v>1</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" ref="L81" si="116">L79+L80+M79</f>
+        <f t="shared" ref="L81" si="125">L79+L80+M79</f>
         <v>2</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" ref="M81" si="117">M79+M80+N79</f>
+        <f t="shared" ref="M81" si="126">M79+M80+N79</f>
         <v>3</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ref="N81" si="118">N79+N80+O79</f>
+        <f t="shared" ref="N81" si="127">N79+N80+O79</f>
         <v>1</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" ref="O81" si="119">O79+O80+P79</f>
+        <f t="shared" ref="O81" si="128">O79+O80+P79</f>
         <v>1</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" ref="P81" si="120">P79+P80+Q79</f>
+        <f t="shared" ref="P81" si="129">P79+P80+Q79</f>
         <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81" si="121">Q79+Q80+R79</f>
+        <f t="shared" ref="Q81" si="130">Q79+Q80+R79</f>
         <v>1</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" ref="R81" si="122">R79+R80+S79</f>
+        <f t="shared" ref="R81" si="131">R79+R80+S79</f>
         <v>1</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" ref="S81" si="123">S79+S80+T79</f>
+        <f t="shared" ref="S81" si="132">S79+S80+T79</f>
         <v>2</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" ref="T81" si="124">T79+T80+U79</f>
+        <f t="shared" ref="T81" si="133">T79+T80+U79</f>
         <v>1</v>
       </c>
     </row>
@@ -5817,79 +7098,79 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82" si="125">QUOTIENT(B81,3)</f>
+        <f t="shared" ref="B82" si="134">QUOTIENT(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82" si="126">QUOTIENT(C81,3)</f>
+        <f t="shared" ref="C82" si="135">QUOTIENT(C81,3)</f>
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82" si="127">QUOTIENT(D81,3)</f>
+        <f t="shared" ref="D82" si="136">QUOTIENT(D81,3)</f>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82" si="128">QUOTIENT(E81,3)</f>
+        <f t="shared" ref="E82" si="137">QUOTIENT(E81,3)</f>
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82" si="129">QUOTIENT(F81,3)</f>
+        <f t="shared" ref="F82" si="138">QUOTIENT(F81,3)</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82" si="130">QUOTIENT(G81,3)</f>
+        <f t="shared" ref="G82" si="139">QUOTIENT(G81,3)</f>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82" si="131">QUOTIENT(H81,3)</f>
+        <f t="shared" ref="H82" si="140">QUOTIENT(H81,3)</f>
         <v>0</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82" si="132">QUOTIENT(I81,3)</f>
+        <f t="shared" ref="I82" si="141">QUOTIENT(I81,3)</f>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82" si="133">QUOTIENT(J81,3)</f>
+        <f t="shared" ref="J82" si="142">QUOTIENT(J81,3)</f>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82" si="134">QUOTIENT(K81,3)</f>
+        <f t="shared" ref="K82" si="143">QUOTIENT(K81,3)</f>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" ref="L82" si="135">QUOTIENT(L81,3)</f>
+        <f t="shared" ref="L82" si="144">QUOTIENT(L81,3)</f>
         <v>0</v>
       </c>
       <c r="M82">
-        <f t="shared" ref="M82" si="136">QUOTIENT(M81,3)</f>
+        <f t="shared" ref="M82" si="145">QUOTIENT(M81,3)</f>
         <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" ref="N82" si="137">QUOTIENT(N81,3)</f>
+        <f t="shared" ref="N82" si="146">QUOTIENT(N81,3)</f>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" ref="O82" si="138">QUOTIENT(O81,3)</f>
+        <f t="shared" ref="O82" si="147">QUOTIENT(O81,3)</f>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" ref="P82" si="139">QUOTIENT(P81,3)</f>
+        <f t="shared" ref="P82" si="148">QUOTIENT(P81,3)</f>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" ref="Q82" si="140">QUOTIENT(Q81,3)</f>
+        <f t="shared" ref="Q82" si="149">QUOTIENT(Q81,3)</f>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" ref="R82" si="141">QUOTIENT(R81,3)</f>
+        <f t="shared" ref="R82" si="150">QUOTIENT(R81,3)</f>
         <v>0</v>
       </c>
       <c r="S82">
-        <f t="shared" ref="S82" si="142">QUOTIENT(S81,3)</f>
+        <f t="shared" ref="S82" si="151">QUOTIENT(S81,3)</f>
         <v>0</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82" si="143">QUOTIENT(T81,3)</f>
+        <f t="shared" ref="T82" si="152">QUOTIENT(T81,3)</f>
         <v>0</v>
       </c>
       <c r="V82">
@@ -5903,79 +7184,79 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:T83" si="144">MOD(B81,3)</f>
+        <f t="shared" ref="B83:T83" si="153">MOD(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>2</v>
       </c>
       <c r="H83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>2</v>
       </c>
       <c r="I83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>1</v>
       </c>
       <c r="L83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>2</v>
       </c>
       <c r="M83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="N83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>1</v>
       </c>
       <c r="O83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>1</v>
       </c>
       <c r="P83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>1</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>1</v>
       </c>
       <c r="R83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>1</v>
       </c>
       <c r="S83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>2</v>
       </c>
       <c r="T83">
-        <f t="shared" si="144"/>
+        <f t="shared" si="153"/>
         <v>1</v>
       </c>
     </row>
@@ -5985,79 +7266,79 @@
         <v>0</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" ref="B84" si="145">B82+B83+C82</f>
+        <f t="shared" ref="B84" si="154">B82+B83+C82</f>
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" ref="C84" si="146">C82+C83+D82</f>
+        <f t="shared" ref="C84" si="155">C82+C83+D82</f>
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" ref="D84" si="147">D82+D83+E82</f>
+        <f t="shared" ref="D84" si="156">D82+D83+E82</f>
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ref="E84" si="148">E82+E83+F82</f>
+        <f t="shared" ref="E84" si="157">E82+E83+F82</f>
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" ref="F84" si="149">F82+F83+G82</f>
+        <f t="shared" ref="F84" si="158">F82+F83+G82</f>
         <v>2</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" ref="G84" si="150">G82+G83+H82</f>
+        <f t="shared" ref="G84" si="159">G82+G83+H82</f>
         <v>2</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" ref="H84" si="151">H82+H83+I82</f>
+        <f t="shared" ref="H84" si="160">H82+H83+I82</f>
         <v>2</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" ref="I84" si="152">I82+I83+J82</f>
+        <f t="shared" ref="I84" si="161">I82+I83+J82</f>
         <v>2</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" ref="J84" si="153">J82+J83+K82</f>
+        <f t="shared" ref="J84" si="162">J82+J83+K82</f>
         <v>2</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ref="K84" si="154">K82+K83+L82</f>
+        <f t="shared" ref="K84" si="163">K82+K83+L82</f>
         <v>1</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" ref="L84" si="155">L82+L83+M82</f>
+        <f t="shared" ref="L84" si="164">L82+L83+M82</f>
         <v>3</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" ref="M84" si="156">M82+M83+N82</f>
+        <f t="shared" ref="M84" si="165">M82+M83+N82</f>
         <v>1</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" ref="N84" si="157">N82+N83+O82</f>
+        <f t="shared" ref="N84" si="166">N82+N83+O82</f>
         <v>1</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" ref="O84" si="158">O82+O83+P82</f>
+        <f t="shared" ref="O84" si="167">O82+O83+P82</f>
         <v>1</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84" si="159">P82+P83+Q82</f>
+        <f t="shared" ref="P84" si="168">P82+P83+Q82</f>
         <v>1</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ref="Q84" si="160">Q82+Q83+R82</f>
+        <f t="shared" ref="Q84" si="169">Q82+Q83+R82</f>
         <v>1</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ref="R84" si="161">R82+R83+S82</f>
+        <f t="shared" ref="R84" si="170">R82+R83+S82</f>
         <v>1</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84" si="162">S82+S83+T82</f>
+        <f t="shared" ref="S84" si="171">S82+S83+T82</f>
         <v>2</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84" si="163">T82+T83+U82</f>
+        <f t="shared" ref="T84" si="172">T82+T83+U82</f>
         <v>1</v>
       </c>
     </row>
@@ -6067,79 +7348,79 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" ref="B85" si="164">QUOTIENT(B84,3)</f>
+        <f t="shared" ref="B85" si="173">QUOTIENT(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85" si="165">QUOTIENT(C84,3)</f>
+        <f t="shared" ref="C85" si="174">QUOTIENT(C84,3)</f>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="166">QUOTIENT(D84,3)</f>
+        <f t="shared" ref="D85" si="175">QUOTIENT(D84,3)</f>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85" si="167">QUOTIENT(E84,3)</f>
+        <f t="shared" ref="E85" si="176">QUOTIENT(E84,3)</f>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="168">QUOTIENT(F84,3)</f>
+        <f t="shared" ref="F85" si="177">QUOTIENT(F84,3)</f>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85" si="169">QUOTIENT(G84,3)</f>
+        <f t="shared" ref="G85" si="178">QUOTIENT(G84,3)</f>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H85" si="170">QUOTIENT(H84,3)</f>
+        <f t="shared" ref="H85" si="179">QUOTIENT(H84,3)</f>
         <v>0</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85" si="171">QUOTIENT(I84,3)</f>
+        <f t="shared" ref="I85" si="180">QUOTIENT(I84,3)</f>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85" si="172">QUOTIENT(J84,3)</f>
+        <f t="shared" ref="J85" si="181">QUOTIENT(J84,3)</f>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" ref="K85" si="173">QUOTIENT(K84,3)</f>
+        <f t="shared" ref="K85" si="182">QUOTIENT(K84,3)</f>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" ref="L85" si="174">QUOTIENT(L84,3)</f>
+        <f t="shared" ref="L85" si="183">QUOTIENT(L84,3)</f>
         <v>1</v>
       </c>
       <c r="M85">
-        <f t="shared" ref="M85" si="175">QUOTIENT(M84,3)</f>
+        <f t="shared" ref="M85" si="184">QUOTIENT(M84,3)</f>
         <v>0</v>
       </c>
       <c r="N85">
-        <f t="shared" ref="N85" si="176">QUOTIENT(N84,3)</f>
+        <f t="shared" ref="N85" si="185">QUOTIENT(N84,3)</f>
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" ref="O85" si="177">QUOTIENT(O84,3)</f>
+        <f t="shared" ref="O85" si="186">QUOTIENT(O84,3)</f>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" ref="P85" si="178">QUOTIENT(P84,3)</f>
+        <f t="shared" ref="P85" si="187">QUOTIENT(P84,3)</f>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" ref="Q85" si="179">QUOTIENT(Q84,3)</f>
+        <f t="shared" ref="Q85" si="188">QUOTIENT(Q84,3)</f>
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" ref="R85" si="180">QUOTIENT(R84,3)</f>
+        <f t="shared" ref="R85" si="189">QUOTIENT(R84,3)</f>
         <v>0</v>
       </c>
       <c r="S85">
-        <f t="shared" ref="S85" si="181">QUOTIENT(S84,3)</f>
+        <f t="shared" ref="S85" si="190">QUOTIENT(S84,3)</f>
         <v>0</v>
       </c>
       <c r="T85">
-        <f t="shared" ref="T85" si="182">QUOTIENT(T84,3)</f>
+        <f t="shared" ref="T85" si="191">QUOTIENT(T84,3)</f>
         <v>0</v>
       </c>
       <c r="V85">
@@ -6153,79 +7434,79 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" ref="B86:T86" si="183">MOD(B84,3)</f>
+        <f t="shared" ref="B86:T86" si="192">MOD(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>2</v>
       </c>
       <c r="H86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>1</v>
       </c>
       <c r="L86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>1</v>
       </c>
       <c r="N86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>1</v>
       </c>
       <c r="O86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>1</v>
       </c>
       <c r="P86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>1</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>1</v>
       </c>
       <c r="R86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>1</v>
       </c>
       <c r="S86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>2</v>
       </c>
       <c r="T86">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>1</v>
       </c>
     </row>
@@ -6235,79 +7516,79 @@
         <v>0</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ref="B87" si="184">B85+B86+C85</f>
+        <f t="shared" ref="B87" si="193">B85+B86+C85</f>
         <v>0</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" ref="C87" si="185">C85+C86+D85</f>
+        <f t="shared" ref="C87" si="194">C85+C86+D85</f>
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" ref="D87" si="186">D85+D86+E85</f>
+        <f t="shared" ref="D87" si="195">D85+D86+E85</f>
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ref="E87" si="187">E85+E86+F85</f>
+        <f t="shared" ref="E87" si="196">E85+E86+F85</f>
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ref="F87" si="188">F85+F86+G85</f>
+        <f t="shared" ref="F87" si="197">F85+F86+G85</f>
         <v>2</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" ref="G87" si="189">G85+G86+H85</f>
+        <f t="shared" ref="G87" si="198">G85+G86+H85</f>
         <v>2</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87" si="190">H85+H86+I85</f>
+        <f t="shared" ref="H87" si="199">H85+H86+I85</f>
         <v>2</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" ref="I87" si="191">I85+I86+J85</f>
+        <f t="shared" ref="I87" si="200">I85+I86+J85</f>
         <v>2</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" ref="J87" si="192">J85+J86+K85</f>
+        <f t="shared" ref="J87" si="201">J85+J86+K85</f>
         <v>2</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ref="K87" si="193">K85+K86+L85</f>
+        <f t="shared" ref="K87" si="202">K85+K86+L85</f>
         <v>2</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" ref="L87" si="194">L85+L86+M85</f>
+        <f t="shared" ref="L87" si="203">L85+L86+M85</f>
         <v>1</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" ref="M87" si="195">M85+M86+N85</f>
+        <f t="shared" ref="M87" si="204">M85+M86+N85</f>
         <v>1</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ref="N87" si="196">N85+N86+O85</f>
+        <f t="shared" ref="N87" si="205">N85+N86+O85</f>
         <v>1</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" ref="O87" si="197">O85+O86+P85</f>
+        <f t="shared" ref="O87" si="206">O85+O86+P85</f>
         <v>1</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" ref="P87" si="198">P85+P86+Q85</f>
+        <f t="shared" ref="P87" si="207">P85+P86+Q85</f>
         <v>1</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" ref="Q87" si="199">Q85+Q86+R85</f>
+        <f t="shared" ref="Q87" si="208">Q85+Q86+R85</f>
         <v>1</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" ref="R87" si="200">R85+R86+S85</f>
+        <f t="shared" ref="R87" si="209">R85+R86+S85</f>
         <v>1</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" ref="S87" si="201">S85+S86+T85</f>
+        <f t="shared" ref="S87" si="210">S85+S86+T85</f>
         <v>2</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" ref="T87" si="202">T85+T86+U85</f>
+        <f t="shared" ref="T87" si="211">T85+T86+U85</f>
         <v>1</v>
       </c>
       <c r="V87" s="1">
@@ -6383,79 +7664,79 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:U93" si="203">QUOTIENT(C92,5)</f>
+        <f t="shared" ref="C93:U93" si="212">QUOTIENT(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="L93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="M93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="N93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="O93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="P93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="R93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="S93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="T93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="U93">
-        <f t="shared" si="203"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
     </row>
@@ -6465,79 +7746,79 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:U94" si="204">MOD(C92,5)</f>
+        <f t="shared" ref="C94:U94" si="213">MOD(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>2</v>
       </c>
       <c r="I94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>4</v>
       </c>
       <c r="K94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>1</v>
       </c>
       <c r="M94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>2</v>
       </c>
       <c r="N94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>3</v>
       </c>
       <c r="O94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>2</v>
       </c>
       <c r="P94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>1</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>4</v>
       </c>
       <c r="S94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>3</v>
       </c>
       <c r="T94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>2</v>
       </c>
       <c r="U94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v>1</v>
       </c>
     </row>
@@ -6547,79 +7828,79 @@
         <v>0</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ref="C95:U95" si="205">C93+C94+D93+E93</f>
+        <f t="shared" ref="C95:U95" si="214">C93+C94+D93+E93</f>
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>1</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>2</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>4</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>6</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>3</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>4</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>5</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>6</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>5</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>3</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>1</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>4</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>3</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>2</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v>1</v>
       </c>
     </row>

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0861DCC5-AC59-4F8B-AE96-F7E55954E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166EBEA-802E-450E-99D9-393928B8B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="12">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,41 @@
   </si>
   <si>
     <t xml:space="preserve">1stage </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square root carry select adder</t>
+  </si>
+  <si>
+    <t>srcsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay 5 * 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area 5 * 13 * 2?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +142,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -120,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -129,6 +188,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -411,24 +474,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW26" sqref="AW26"/>
+    <sheetView tabSelected="1" topLeftCell="Y4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.45">
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -437,13 +500,13 @@
         <v>11</v>
       </c>
       <c r="H1">
+        <v>11</v>
+      </c>
+      <c r="I1">
         <v>19</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>20</v>
-      </c>
-      <c r="J1">
-        <v>37</v>
       </c>
       <c r="K1">
         <v>37</v>
@@ -478,6 +541,9 @@
       <c r="U1">
         <v>19</v>
       </c>
+      <c r="AA1">
+        <v>19</v>
+      </c>
       <c r="AB1">
         <v>18</v>
       </c>
@@ -540,13 +606,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -555,7 +615,7 @@
       <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -591,7 +651,7 @@
       <c r="S2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -605,16 +665,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -650,7 +707,7 @@
       <c r="S3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="3" t="s">
@@ -715,7 +772,7 @@
       <c r="G4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -751,14 +808,14 @@
       <c r="S4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="W4" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.45">
@@ -768,7 +825,7 @@
       <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -804,14 +861,14 @@
       <c r="S5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="7">
-        <v>7</v>
+      <c r="W5" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.45">
@@ -821,7 +878,7 @@
       <c r="G6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -857,11 +914,14 @@
       <c r="S6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.45">
@@ -871,7 +931,7 @@
       <c r="G7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -907,11 +967,14 @@
       <c r="S7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>5</v>
       </c>
       <c r="AE7">
         <f>AE3*9</f>
@@ -985,7 +1048,7 @@
       <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1021,11 +1084,14 @@
       <c r="S8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.45">
@@ -1035,7 +1101,7 @@
       <c r="G9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1071,7 +1137,7 @@
       <c r="S9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
@@ -1085,7 +1151,7 @@
       <c r="G10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1121,7 +1187,7 @@
       <c r="S10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
@@ -1159,7 +1225,7 @@
       <c r="G11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1195,7 +1261,7 @@
       <c r="S11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="3" t="s">
@@ -1286,10 +1352,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -1333,9 +1399,6 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="I13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1447,9 +1510,6 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1575,9 +1635,6 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1619,9 +1676,6 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="I16" s="3" t="s">
         <v>0</v>
       </c>
@@ -1733,13 +1787,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -1763,13 +1814,13 @@
       <c r="Q17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="10" t="s">
         <v>0</v>
       </c>
       <c r="S17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="10" t="s">
         <v>0</v>
       </c>
       <c r="Z17">
@@ -1861,13 +1912,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -1891,13 +1939,13 @@
       <c r="Q18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="10" t="s">
         <v>0</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1905,13 +1953,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="H19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -1935,13 +1980,13 @@
       <c r="Q19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="10" t="s">
         <v>0</v>
       </c>
       <c r="S19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="10" t="s">
         <v>0</v>
       </c>
       <c r="Z19">
@@ -2019,13 +2064,10 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -2049,13 +2091,13 @@
       <c r="Q20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="10" t="s">
         <v>0</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="10" t="s">
         <v>0</v>
       </c>
       <c r="Z20">
@@ -2147,10 +2189,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -2184,9 +2224,6 @@
         <v>21</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>0</v>
       </c>
@@ -2291,9 +2328,6 @@
         <v>22</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>0</v>
       </c>
@@ -2412,9 +2446,6 @@
         <v>23</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>0</v>
       </c>
@@ -2449,9 +2480,6 @@
         <v>24</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K25" s="3" t="s">
         <v>0</v>
       </c>
@@ -2556,9 +2584,6 @@
         <v>25</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>0</v>
       </c>
@@ -2677,9 +2702,6 @@
         <v>26</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>0</v>
       </c>
@@ -2714,9 +2736,6 @@
         <v>27</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K28" s="3" t="s">
         <v>0</v>
       </c>
@@ -2821,9 +2840,6 @@
         <v>28</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2942,9 +2958,6 @@
         <v>29</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K30" s="3" t="s">
         <v>0</v>
       </c>
@@ -2974,9 +2987,6 @@
         <v>30</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="K31" s="3" t="s">
         <v>0</v>
       </c>
@@ -3060,11 +3070,11 @@
         <v>0</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31">
         <f>SUM(Z31:AT31)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ31">
         <v>4</v>
@@ -3076,9 +3086,6 @@
         <v>31</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="K32" s="7" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3190,7 @@
       </c>
       <c r="AT32">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.45">
@@ -3192,9 +3199,6 @@
         <v>32</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="K33" s="7" t="s">
         <v>0</v>
       </c>
@@ -3217,6 +3221,12 @@
       <c r="R33" s="2"/>
       <c r="T33" s="2"/>
       <c r="V33" s="2"/>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
       <c r="AB33">
         <v>1</v>
       </c>
@@ -3281,9 +3291,6 @@
         <v>33</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="K34" s="7" t="s">
         <v>0</v>
       </c>
@@ -3307,16 +3314,16 @@
       <c r="T34" s="2"/>
       <c r="V34" s="2"/>
       <c r="Z34" s="1">
-        <f>Z13+AA13+AB13+AC13+Z16+AA16+AB16+AC16+Z19+AA19+AB19+AC19+Z22+AA22+AB22+AC22+Z25+AA25+AB25+Z28+AA28+AB28+Z31+AA31+AB31</f>
+        <f>Z13+AA13+AB13+AC13+Z16+AA16+AB16+AC16+Z19+AA19+AB19+AC19+Z22+AA22+AB22+AC22+Z25+AA25+AB25+Z28+AA28+AB28+Z31+AA31+AB31+Z32</f>
         <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" ref="AA34:AT34" si="32">AA13+AB13+AC13+AD13+AA16+AB16+AC16+AD16+AA19+AB19+AC19+AD19+AA22+AB22+AC22+AD22+AA25+AB25+AC25+AA28+AB28+AC28+AA31+AB31+AC31</f>
+        <f t="shared" ref="AA34:AT34" si="32">AA13+AB13+AC13+AD13+AA16+AB16+AC16+AD16+AA19+AB19+AC19+AD19+AA22+AB22+AC22+AD22+AA25+AB25+AC25+AA28+AB28+AC28+AA31+AB31+AC31+AA32</f>
         <v>0</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="1">
         <f t="shared" si="32"/>
@@ -3328,7 +3335,7 @@
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="32"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF34" s="1">
         <f t="shared" si="32"/>
@@ -3339,7 +3346,7 @@
         <v>7</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="32"/>
+        <f>AH13+AI13+AJ13+AK13+AH16+AI16+AJ16+AK16+AH19+AI19+AJ19+AK19+AH22+AI22+AJ22+AK22+AH25+AI25+AJ25+AH28+AI28+AJ28+AH31+AI31+AJ31+AH32</f>
         <v>9</v>
       </c>
       <c r="AI34" s="1">
@@ -3364,7 +3371,7 @@
       </c>
       <c r="AN34" s="1">
         <f t="shared" si="32"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" si="32"/>
@@ -3380,15 +3387,15 @@
       </c>
       <c r="AR34" s="1">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS34" s="1">
         <f t="shared" si="32"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT34" s="1">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV34" t="s">
         <v>2</v>
@@ -3403,9 +3410,6 @@
         <v>34</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="K35" s="7" t="s">
         <v>0</v>
       </c>
@@ -3428,81 +3432,89 @@
       <c r="R35" s="2"/>
       <c r="T35" s="2"/>
       <c r="V35" s="2"/>
+      <c r="Z35">
+        <f t="shared" ref="Z35:AA35" si="33">Z34+Z33</f>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
       <c r="AB35">
         <f>AB34+AB33</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC35">
-        <f t="shared" ref="AC35:AT35" si="33">AC34+AC33</f>
+        <f t="shared" ref="AC35:AT35" si="34">AC34+AC33</f>
         <v>2</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="34"/>
+        <v>13</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="AR35" s="7">
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="AF35">
-        <f t="shared" si="33"/>
-        <v>6</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="33"/>
-        <v>10</v>
-      </c>
-      <c r="AI35">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="AJ35">
-        <f t="shared" si="33"/>
-        <v>12</v>
-      </c>
-      <c r="AK35">
-        <f t="shared" si="33"/>
-        <v>13</v>
-      </c>
-      <c r="AL35">
-        <f t="shared" si="33"/>
-        <v>12</v>
-      </c>
-      <c r="AM35">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="AN35">
-        <f t="shared" si="33"/>
-        <v>10</v>
-      </c>
-      <c r="AO35">
-        <f t="shared" si="33"/>
-        <v>9</v>
-      </c>
-      <c r="AP35">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-      <c r="AQ35">
-        <f t="shared" si="33"/>
-        <v>6</v>
-      </c>
-      <c r="AR35">
-        <f t="shared" si="33"/>
+      <c r="AS35" s="7">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AT35" s="7">
+        <f t="shared" si="34"/>
         <v>5</v>
-      </c>
-      <c r="AS35">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="AT35">
-        <f t="shared" si="33"/>
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.45">
@@ -3511,9 +3523,6 @@
         <v>35</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="K36" s="7" t="s">
         <v>0</v>
       </c>
@@ -3536,6 +3545,51 @@
       <c r="R36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
+      <c r="AA36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>4</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>3</v>
+      </c>
+      <c r="AK36" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A37">
@@ -3543,9 +3597,6 @@
         <v>36</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="K37" s="7" t="s">
         <v>0</v>
       </c>
@@ -3624,14 +3675,18 @@
       <c r="AQ37">
         <v>0</v>
       </c>
-      <c r="AR37">
-        <v>0</v>
-      </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AT37">
-        <v>0</v>
+      <c r="AR37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <f>SUM(Z37:AT37)</f>
+        <v>1</v>
       </c>
       <c r="AZ37">
         <v>13</v>
@@ -3643,9 +3698,6 @@
         <v>37</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="K38" s="7" t="s">
         <v>0</v>
       </c>
@@ -3675,84 +3727,84 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <f t="shared" ref="AA38:AT38" si="34">AA35-AA37*13</f>
+        <f t="shared" ref="AA38:AT38" si="35">AA35-AA37*13</f>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>2</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="35"/>
+        <v>12</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="35"/>
+        <v>12</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="AR38" s="7">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="AF38">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="AG38">
-        <f t="shared" si="34"/>
-        <v>8</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="AI38">
-        <f t="shared" si="34"/>
-        <v>11</v>
-      </c>
-      <c r="AJ38">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="AK38">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="AM38">
-        <f t="shared" si="34"/>
-        <v>11</v>
-      </c>
-      <c r="AN38">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="AO38">
-        <f t="shared" si="34"/>
-        <v>9</v>
-      </c>
-      <c r="AP38">
-        <f t="shared" si="34"/>
-        <v>8</v>
-      </c>
-      <c r="AQ38">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="AR38">
-        <f t="shared" si="34"/>
+      <c r="AS38" s="7">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="AT38" s="7">
+        <f t="shared" si="35"/>
         <v>5</v>
-      </c>
-      <c r="AS38">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="AT38">
-        <f t="shared" si="34"/>
-        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.45">
@@ -3775,6 +3827,9 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A40">
@@ -3825,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
         <v>1</v>
@@ -3851,14 +3906,18 @@
       <c r="AQ40">
         <v>0</v>
       </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
+      <c r="AR40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <f>SUM(Z40:AT40)</f>
+        <v>2</v>
       </c>
       <c r="AZ40">
         <v>12</v>
@@ -3888,84 +3947,84 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <f t="shared" ref="AA41:AT41" si="35">AA38-AA40*12</f>
+        <f t="shared" ref="AA41:AT41" si="36">AA38-AA40*12</f>
         <v>0</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="36"/>
+        <v>11</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="36"/>
+        <v>11</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="36"/>
+        <v>11</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="36"/>
+        <v>9</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="AR41" s="7">
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
-      <c r="AF41">
-        <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="AG41">
-        <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="AH41">
-        <f t="shared" si="35"/>
-        <v>10</v>
-      </c>
-      <c r="AI41">
-        <f t="shared" si="35"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ41">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <f t="shared" si="35"/>
-        <v>11</v>
-      </c>
-      <c r="AN41">
-        <f t="shared" si="35"/>
-        <v>10</v>
-      </c>
-      <c r="AO41">
-        <f t="shared" si="35"/>
-        <v>9</v>
-      </c>
-      <c r="AP41">
-        <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="AQ41">
-        <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="AR41">
-        <f t="shared" si="35"/>
+      <c r="AS41" s="7">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="AT41" s="7">
+        <f t="shared" si="36"/>
         <v>5</v>
-      </c>
-      <c r="AS41">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="AT41">
-        <f t="shared" si="35"/>
-        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.45">
@@ -3988,6 +4047,9 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A43">
@@ -4034,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43">
         <v>0</v>
@@ -4052,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO43">
         <v>0</v>
@@ -4063,14 +4125,18 @@
       <c r="AQ43">
         <v>0</v>
       </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AT43">
-        <v>0</v>
+      <c r="AR43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <f>SUM(Z43:AT43)</f>
+        <v>3</v>
       </c>
       <c r="AZ43">
         <v>11</v>
@@ -4101,84 +4167,84 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" ref="AA44:AT44" si="36">AA41-AA43*11</f>
+        <f t="shared" ref="AA44:AT44" si="37">AA41-AA43*11</f>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="AR44" s="7">
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="AF44">
-        <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="AG44">
-        <f t="shared" si="36"/>
-        <v>8</v>
-      </c>
-      <c r="AH44">
-        <f t="shared" si="36"/>
-        <v>-1</v>
-      </c>
-      <c r="AI44">
-        <f t="shared" si="36"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AK44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <f t="shared" si="36"/>
-        <v>10</v>
-      </c>
-      <c r="AO44">
-        <f t="shared" si="36"/>
-        <v>9</v>
-      </c>
-      <c r="AP44">
-        <f t="shared" si="36"/>
-        <v>8</v>
-      </c>
-      <c r="AQ44">
-        <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="AR44">
-        <f t="shared" si="36"/>
+      <c r="AS44" s="7">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AT44" s="7">
+        <f t="shared" si="37"/>
         <v>5</v>
-      </c>
-      <c r="AS44">
-        <f t="shared" si="36"/>
-        <v>3</v>
-      </c>
-      <c r="AT44">
-        <f t="shared" si="36"/>
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.45">
@@ -4196,6 +4262,9 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A46">
@@ -4227,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="AG46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46">
         <v>0</v>
@@ -4248,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -4259,14 +4328,18 @@
       <c r="AQ46">
         <v>0</v>
       </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
+      <c r="AR46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <f>SUM(Z46:AT46)</f>
+        <v>1</v>
       </c>
       <c r="AZ46">
         <v>10</v>
@@ -4293,84 +4366,84 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <f t="shared" ref="AA47:AT47" si="37">AA44-AA46*10</f>
+        <f t="shared" ref="AA47:AT47" si="38">AA44-AA46*10</f>
         <v>0</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="37"/>
-        <v>1</v>
+        <f t="shared" si="38"/>
+        <v>2</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AR47" s="7">
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="AF47">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="AG47">
-        <f t="shared" si="37"/>
-        <v>-2</v>
-      </c>
-      <c r="AH47">
-        <f t="shared" si="37"/>
-        <v>-1</v>
-      </c>
-      <c r="AI47">
-        <f t="shared" si="37"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <f t="shared" si="37"/>
-        <v>9</v>
-      </c>
-      <c r="AP47">
-        <f t="shared" si="37"/>
-        <v>8</v>
-      </c>
-      <c r="AQ47">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="AR47">
-        <f t="shared" si="37"/>
+      <c r="AS47" s="7">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AT47" s="7">
+        <f t="shared" si="38"/>
         <v>5</v>
-      </c>
-      <c r="AS47">
-        <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="AT47">
-        <f t="shared" si="37"/>
-        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.45">
@@ -4384,6 +4457,9 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="V48" s="2"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7"/>
     </row>
     <row r="49" spans="6:52" x14ac:dyDescent="0.45">
       <c r="H49" s="2"/>
@@ -4450,14 +4526,18 @@
       <c r="AQ49">
         <v>0</v>
       </c>
-      <c r="AR49">
-        <v>0</v>
-      </c>
-      <c r="AS49">
-        <v>0</v>
-      </c>
-      <c r="AT49">
-        <v>0</v>
+      <c r="AR49" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <f>SUM(Z49:AT49)</f>
+        <v>1</v>
       </c>
       <c r="AZ49">
         <v>9</v>
@@ -4479,84 +4559,84 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="shared" ref="AA50:AT50" si="38">AA47-AA49*9</f>
+        <f t="shared" ref="AA50:AT50" si="39">AA47-AA49*9</f>
         <v>0</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="38"/>
-        <v>1</v>
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="AQ50">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="AR50" s="7">
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="AF50">
-        <f t="shared" si="38"/>
-        <v>6</v>
-      </c>
-      <c r="AG50">
-        <f t="shared" si="38"/>
-        <v>-2</v>
-      </c>
-      <c r="AH50">
-        <f t="shared" si="38"/>
-        <v>-1</v>
-      </c>
-      <c r="AI50">
-        <f t="shared" si="38"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <f t="shared" si="38"/>
-        <v>8</v>
-      </c>
-      <c r="AQ50">
-        <f t="shared" si="38"/>
-        <v>6</v>
-      </c>
-      <c r="AR50">
-        <f t="shared" si="38"/>
+      <c r="AS50" s="7">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="AT50" s="7">
+        <f t="shared" si="39"/>
         <v>5</v>
-      </c>
-      <c r="AS50">
-        <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="AT50">
-        <f t="shared" si="38"/>
-        <v>2</v>
       </c>
     </row>
     <row r="51" spans="6:52" x14ac:dyDescent="0.45">
@@ -4568,6 +4648,9 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7"/>
+      <c r="AT51" s="7"/>
     </row>
     <row r="52" spans="6:52" x14ac:dyDescent="0.45">
       <c r="Z52">
@@ -4589,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH52">
         <v>0</v>
@@ -4624,14 +4707,18 @@
       <c r="AQ52">
         <v>0</v>
       </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AS52">
-        <v>0</v>
-      </c>
-      <c r="AT52">
-        <v>0</v>
+      <c r="AR52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <f>SUM(Z52:AT52)</f>
+        <v>2</v>
       </c>
       <c r="AZ52">
         <v>8</v>
@@ -4652,84 +4739,84 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <f t="shared" ref="AA53:AT53" si="39">AA50-AA52*8</f>
+        <f t="shared" ref="AA53:AT53" si="40">AA50-AA52*8</f>
         <v>0</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="39"/>
-        <v>1</v>
+        <f t="shared" si="40"/>
+        <v>2</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="AR53" s="7">
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="AF53">
-        <f t="shared" si="39"/>
-        <v>-2</v>
-      </c>
-      <c r="AG53">
-        <f t="shared" si="39"/>
-        <v>-2</v>
-      </c>
-      <c r="AH53">
-        <f t="shared" si="39"/>
-        <v>-1</v>
-      </c>
-      <c r="AI53">
-        <f t="shared" si="39"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <f t="shared" si="39"/>
-        <v>6</v>
-      </c>
-      <c r="AR53">
-        <f t="shared" si="39"/>
+      <c r="AS53" s="7">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AT53" s="7">
+        <f t="shared" si="40"/>
         <v>5</v>
-      </c>
-      <c r="AS53">
-        <f t="shared" si="39"/>
-        <v>3</v>
-      </c>
-      <c r="AT53">
-        <f t="shared" si="39"/>
-        <v>2</v>
       </c>
     </row>
     <row r="54" spans="6:52" x14ac:dyDescent="0.45">
@@ -4742,6 +4829,9 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="V54" s="2"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7"/>
     </row>
     <row r="55" spans="6:52" x14ac:dyDescent="0.45">
       <c r="G55" s="2"/>
@@ -4807,13 +4897,17 @@
       <c r="AQ55">
         <v>0</v>
       </c>
-      <c r="AR55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AT55">
+      <c r="AR55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <f>SUM(Z55:AT55)</f>
         <v>0</v>
       </c>
       <c r="AZ55">
@@ -4826,84 +4920,84 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <f t="shared" ref="AA56:AT56" si="40">AA53-AA55*7</f>
+        <f t="shared" ref="AA56:AT56" si="41">AA53-AA55*7</f>
         <v>0</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" si="41"/>
+        <v>2</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="AR56" s="7">
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="AF56">
-        <f t="shared" si="40"/>
-        <v>-2</v>
-      </c>
-      <c r="AG56">
-        <f t="shared" si="40"/>
-        <v>-2</v>
-      </c>
-      <c r="AH56">
-        <f t="shared" si="40"/>
-        <v>-1</v>
-      </c>
-      <c r="AI56">
-        <f t="shared" si="40"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AK56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AN56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <f t="shared" si="40"/>
-        <v>6</v>
-      </c>
-      <c r="AR56">
-        <f t="shared" si="40"/>
+      <c r="AS56" s="7">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="AT56" s="7">
+        <f t="shared" si="41"/>
         <v>5</v>
-      </c>
-      <c r="AS56">
-        <f t="shared" si="40"/>
-        <v>3</v>
-      </c>
-      <c r="AT56">
-        <f t="shared" si="40"/>
-        <v>2</v>
       </c>
     </row>
     <row r="57" spans="6:52" x14ac:dyDescent="0.45">
@@ -4924,6 +5018,9 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="7"/>
     </row>
     <row r="58" spans="6:52" x14ac:dyDescent="0.45">
       <c r="Z58">
@@ -4945,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -4980,14 +5077,18 @@
       <c r="AQ58">
         <v>1</v>
       </c>
-      <c r="AR58">
-        <v>0</v>
-      </c>
-      <c r="AS58">
-        <v>0</v>
-      </c>
-      <c r="AT58">
-        <v>0</v>
+      <c r="AR58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <f>SUM(Z58:AT58)</f>
+        <v>3</v>
       </c>
       <c r="AZ58">
         <v>6</v>
@@ -5002,85 +5103,90 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <f t="shared" ref="AA59:AT59" si="41">AA56-AA58*6</f>
+        <f t="shared" ref="AA59:AT59" si="42">AA56-AA58*6</f>
         <v>0</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f t="shared" si="42"/>
+        <v>2</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="41"/>
-        <v>-2</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="AF59">
-        <f t="shared" si="41"/>
-        <v>-2</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="AG59">
-        <f t="shared" si="41"/>
-        <v>-2</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="41"/>
-        <v>-1</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="41"/>
-        <v>-1</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="AJ59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AK59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AL59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AM59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AP59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AQ59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AR59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AR59" s="7">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AS59" s="7">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AT59" s="7">
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
-      <c r="AS59">
-        <f t="shared" si="41"/>
-        <v>3</v>
-      </c>
-      <c r="AT59">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
+    </row>
+    <row r="60" spans="6:52" x14ac:dyDescent="0.45">
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="7"/>
+      <c r="AT60" s="7"/>
     </row>
     <row r="61" spans="6:52" x14ac:dyDescent="0.45">
       <c r="Z61">
@@ -5137,13 +5243,17 @@
       <c r="AQ61">
         <v>0</v>
       </c>
-      <c r="AR61">
-        <v>1</v>
-      </c>
-      <c r="AS61">
-        <v>0</v>
-      </c>
-      <c r="AT61">
+      <c r="AR61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY61">
+        <f>SUM(Z61:AT61)</f>
         <v>0</v>
       </c>
       <c r="AZ61">
@@ -5156,85 +5266,90 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <f t="shared" ref="AA62:AT62" si="42">AA59-AA61*5</f>
+        <f t="shared" ref="AA62:AT62" si="43">AA59-AA61*5</f>
         <v>0</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <f t="shared" si="43"/>
+        <v>2</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="AE62">
-        <f t="shared" si="42"/>
-        <v>-2</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AF62">
-        <f t="shared" si="42"/>
-        <v>-2</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AG62">
-        <f t="shared" si="42"/>
-        <v>-2</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="42"/>
-        <v>-1</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AI62">
-        <f t="shared" si="42"/>
-        <v>-1</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AJ62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AK62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AL62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AP62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AQ62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AR62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AS62">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="AT62">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AR62" s="7">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="AS62" s="7">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="AT62" s="7">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="6:52" x14ac:dyDescent="0.45">
+      <c r="AR63" s="7"/>
+      <c r="AS63" s="7"/>
+      <c r="AT63" s="7"/>
     </row>
     <row r="64" spans="6:52" x14ac:dyDescent="0.45">
       <c r="Z64">
@@ -5250,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="AD64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64">
         <v>0</v>
@@ -5291,13 +5406,17 @@
       <c r="AQ64">
         <v>0</v>
       </c>
-      <c r="AR64">
-        <v>0</v>
-      </c>
-      <c r="AS64">
-        <v>0</v>
-      </c>
-      <c r="AT64">
+      <c r="AR64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <f>SUM(Z64:AT64)</f>
         <v>0</v>
       </c>
       <c r="AZ64">
@@ -5310,84 +5429,84 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <f t="shared" ref="AA65:AT65" si="43">AA62-AA64*4</f>
+        <f t="shared" ref="AA65:AT65" si="44">AA62-AA64*4</f>
         <v>0</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <f t="shared" si="44"/>
+        <v>2</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="AD65">
-        <f t="shared" si="43"/>
-        <v>-1</v>
+        <f t="shared" si="44"/>
+        <v>3</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="43"/>
-        <v>-2</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="AF65">
-        <f t="shared" si="43"/>
-        <v>-2</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="AG65">
-        <f t="shared" si="43"/>
-        <v>-2</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="AH65">
-        <f t="shared" si="43"/>
-        <v>-1</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="AI65">
-        <f t="shared" si="43"/>
-        <v>-1</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="AJ65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AK65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AL65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AM65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AO65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AP65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AQ65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AR65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AS65">
-        <f t="shared" si="43"/>
-        <v>3</v>
-      </c>
-      <c r="AT65">
-        <f t="shared" si="43"/>
-        <v>2</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AR65" s="7">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="AS65" s="7">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AT65" s="7">
+        <f t="shared" si="44"/>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.45">
@@ -5451,6 +5570,9 @@
       <c r="T66" s="1">
         <v>1</v>
       </c>
+      <c r="AR66" s="7"/>
+      <c r="AS66" s="7"/>
+      <c r="AT66" s="7"/>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A67">
@@ -5458,79 +5580,79 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:T67" si="44">QUOTIENT(B66,3)</f>
+        <f t="shared" ref="B67:T67" si="45">QUOTIENT(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="L67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="N67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="O67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="P67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="R67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="S67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V67">
@@ -5547,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE67">
         <v>0</v>
@@ -5591,14 +5713,18 @@
       <c r="AQ67">
         <v>0</v>
       </c>
-      <c r="AR67">
-        <v>0</v>
-      </c>
-      <c r="AS67">
-        <v>1</v>
-      </c>
-      <c r="AT67">
-        <v>0</v>
+      <c r="AR67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <f>SUM(Z67:AT67)</f>
+        <v>1</v>
       </c>
       <c r="AZ67">
         <v>3</v>
@@ -5610,79 +5736,79 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:T68" si="45">MOD(B66,3)</f>
+        <f t="shared" ref="B68:T68" si="46">MOD(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="H68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="M68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="N68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="O68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="R68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="T68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="Z68">
@@ -5690,84 +5816,84 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <f t="shared" ref="AA68:AT68" si="46">AA65-AA67*3</f>
+        <f t="shared" ref="AA68:AT68" si="47">AA65-AA67*3</f>
         <v>0</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>2</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="47"/>
+        <v>2</v>
       </c>
       <c r="AD68">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AE68">
-        <f t="shared" si="46"/>
-        <v>-2</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AF68">
-        <f t="shared" si="46"/>
-        <v>-2</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AG68">
-        <f t="shared" si="46"/>
-        <v>-2</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AH68">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AI68">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AJ68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AK68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AL68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AM68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AN68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AP68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AQ68">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AR68">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AS68">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AT68">
-        <f t="shared" si="46"/>
-        <v>2</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AR68" s="7">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="AS68" s="7">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="AT68" s="7">
+        <f t="shared" si="47"/>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.45">
@@ -5776,81 +5902,84 @@
         <v>0</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" ref="B69:T69" si="47">B67+B68+C67</f>
+        <f t="shared" ref="B69:T69" si="48">B67+B68+C67</f>
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="AR69" s="7"/>
+      <c r="AS69" s="7"/>
+      <c r="AT69" s="7"/>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A70">
@@ -5858,79 +5987,79 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:T70" si="48">QUOTIENT(B69,3)</f>
+        <f t="shared" ref="B70:T70" si="49">QUOTIENT(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="L70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="M70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="N70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="P70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="R70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V70">
@@ -5944,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -5991,14 +6120,18 @@
       <c r="AQ70">
         <v>0</v>
       </c>
-      <c r="AR70">
-        <v>0</v>
-      </c>
-      <c r="AS70">
-        <v>0</v>
-      </c>
-      <c r="AT70">
-        <v>1</v>
+      <c r="AR70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY70">
+        <f>SUM(Z70:AT70)</f>
+        <v>0</v>
       </c>
       <c r="AZ70">
         <v>2</v>
@@ -6010,79 +6143,79 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:T71" si="49">MOD(B69,3)</f>
+        <f t="shared" ref="B71:T71" si="50">MOD(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="I71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="K71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="L71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="O71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="S71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="T71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="Z71">
@@ -6090,84 +6223,84 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <f t="shared" ref="AA71:AT71" si="50">AA68-AA70*2</f>
+        <f t="shared" ref="AA71:AT71" si="51">AA68-AA70*2</f>
         <v>0</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="50"/>
-        <v>-1</v>
+        <f t="shared" si="51"/>
+        <v>2</v>
       </c>
       <c r="AC71">
-        <f t="shared" si="50"/>
-        <v>-1</v>
+        <f t="shared" si="51"/>
+        <v>2</v>
       </c>
       <c r="AD71">
-        <f t="shared" si="50"/>
-        <v>-1</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="50"/>
-        <v>-2</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AF71">
-        <f t="shared" si="50"/>
-        <v>-2</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AG71">
-        <f t="shared" si="50"/>
-        <v>-2</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AH71">
-        <f t="shared" si="50"/>
-        <v>-1</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AI71">
-        <f t="shared" si="50"/>
-        <v>-1</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AJ71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AK71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AL71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AM71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AN71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AO71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AP71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AQ71">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AR71">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AS71">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AT71">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AR71" s="7">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="AS71" s="7">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="AT71" s="7">
+        <f t="shared" si="51"/>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.45">
@@ -6176,81 +6309,84 @@
         <v>0</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" ref="B72:T72" si="51">B70+B71+C70</f>
+        <f t="shared" ref="B72:T72" si="52">B70+B71+C70</f>
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="AR72" s="7"/>
+      <c r="AS72" s="7"/>
+      <c r="AT72" s="7"/>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A73">
@@ -6258,79 +6394,79 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:T73" si="52">QUOTIENT(B72,3)</f>
+        <f t="shared" ref="B73:T73" si="53">QUOTIENT(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="L73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="M73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V73">
@@ -6338,88 +6474,88 @@
         <v>7</v>
       </c>
       <c r="Z73" s="1">
-        <f>Z70+AA70+Z67+AA67+Z61+AA61+AB61+Z58+AA58+AB58+Z55+AA55+AB55+Z52+AA52+AB52+AC52+Z49+AA49+AB49+AC49+Z46+AA46+AB46+AC46+Z43+AA43+AB43+AC43+Z40+AA40+AB40+AC40+Z37+AA37+AB37+AC37++Z64+AA64+AB64</f>
+        <f>Z70+AA70+Z67+AA67+Z61+AA61+AB61+Z58+AA58+AB58+Z55+AA55+AB55+Z52+AA52+AB52+AC52+Z49+AA49+AB49+AC49+Z46+AA46+AB46+AC46+Z43+AA43+AB43+AC43+Z40+AA40+AB40+AC40+Z37+AA37+AB37+AC37++Z64+AA64+AB64+Z71</f>
         <v>0</v>
       </c>
       <c r="AA73" s="1">
-        <f t="shared" ref="AA73:AT73" si="53">AA70+AB70+AA67+AB67+AA61+AB61+AC61+AA58+AB58+AC58+AA55+AB55+AC55+AA52+AB52+AC52+AD52+AA49+AB49+AC49+AD49+AA46+AB46+AC46+AD46+AA43+AB43+AC43+AD43+AA40+AB40+AC40+AD40+AA37+AB37+AC37+AD37++AA64+AB64+AC64</f>
-        <v>1</v>
+        <f t="shared" ref="AA73:AE73" si="54">AA70+AB70+AA67+AB67+AA61+AB61+AC61+AA58+AB58+AC58+AA55+AB55+AC55+AA52+AB52+AC52+AD52+AA49+AB49+AC49+AD49+AA46+AB46+AC46+AD46+AA43+AB43+AC43+AD43+AA40+AB40+AC40+AD40+AA37+AB37+AC37+AD37++AA64+AB64+AC64+AA71</f>
+        <v>0</v>
       </c>
       <c r="AB73" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AC73" s="1">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="AD73" s="1">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="AE73" s="1">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="AF73" s="1">
+        <f t="shared" ref="AF73" si="55">AF70+AG70+AF67+AG67+AF61+AG61+AH61+AF58+AG58+AH58+AF55+AG55+AH55+AF52+AG52+AH52+AI52+AF49+AG49+AH49+AI49+AF46+AG46+AH46+AI46+AF43+AG43+AH43+AI43+AF40+AG40+AH40+AI40+AF37+AG37+AH37+AI37++AF64+AG64+AH64+AF71</f>
+        <v>4</v>
+      </c>
+      <c r="AG73" s="1">
+        <f t="shared" ref="AG73" si="56">AG70+AH70+AG67+AH67+AG61+AH61+AI61+AG58+AH58+AI58+AG55+AH55+AI55+AG52+AH52+AI52+AJ52+AG49+AH49+AI49+AJ49+AG46+AH46+AI46+AJ46+AG43+AH43+AI43+AJ43+AG40+AH40+AI40+AJ40+AG37+AH37+AI37+AJ37++AG64+AH64+AI64+AG71</f>
+        <v>4</v>
+      </c>
+      <c r="AH73" s="1">
+        <f t="shared" ref="AH73" si="57">AH70+AI70+AH67+AI67+AH61+AI61+AJ61+AH58+AI58+AJ58+AH55+AI55+AJ55+AH52+AI52+AJ52+AK52+AH49+AI49+AJ49+AK49+AH46+AI46+AJ46+AK46+AH43+AI43+AJ43+AK43+AH40+AI40+AJ40+AK40+AH37+AI37+AJ37+AK37++AH64+AI64+AJ64+AH71</f>
+        <v>4</v>
+      </c>
+      <c r="AI73" s="1">
+        <f t="shared" ref="AI73:AJ73" si="58">AI70+AJ70+AI67+AJ67+AI61+AJ61+AK61+AI58+AJ58+AK58+AI55+AJ55+AK55+AI52+AJ52+AK52+AL52+AI49+AJ49+AK49+AL49+AI46+AJ46+AK46+AL46+AI43+AJ43+AK43+AL43+AI40+AJ40+AK40+AL40+AI37+AJ37+AK37+AL37++AI64+AJ64+AK64+AI71</f>
+        <v>4</v>
+      </c>
+      <c r="AJ73" s="1">
+        <f t="shared" si="58"/>
+        <v>4</v>
+      </c>
+      <c r="AK73" s="1">
+        <f t="shared" ref="AK73" si="59">AK70+AL70+AK67+AL67+AK61+AL61+AM61+AK58+AL58+AM58+AK55+AL55+AM55+AK52+AL52+AM52+AN52+AK49+AL49+AM49+AN49+AK46+AL46+AM46+AN46+AK43+AL43+AM43+AN43+AK40+AL40+AM40+AN40+AK37+AL37+AM37+AN37++AK64+AL64+AM64+AK71</f>
+        <v>4</v>
+      </c>
+      <c r="AL73" s="1">
+        <f t="shared" ref="AL73" si="60">AL70+AM70+AL67+AM67+AL61+AM61+AN61+AL58+AM58+AN58+AL55+AM55+AN55+AL52+AM52+AN52+AO52+AL49+AM49+AN49+AO49+AL46+AM46+AN46+AO46+AL43+AM43+AN43+AO43+AL40+AM40+AN40+AO40+AL37+AM37+AN37+AO37++AL64+AM64+AN64+AL71</f>
+        <v>4</v>
+      </c>
+      <c r="AM73" s="1">
+        <f t="shared" ref="AM73" si="61">AM70+AN70+AM67+AN67+AM61+AN61+AO61+AM58+AN58+AO58+AM55+AN55+AO55+AM52+AN52+AO52+AP52+AM49+AN49+AO49+AP49+AM46+AN46+AO46+AP46+AM43+AN43+AO43+AP43+AM40+AN40+AO40+AP40+AM37+AN37+AO37+AP37++AM64+AN64+AO64+AM71</f>
+        <v>4</v>
+      </c>
+      <c r="AN73" s="1">
+        <f t="shared" ref="AN73:AO73" si="62">AN70+AO70+AN67+AO67+AN61+AO61+AP61+AN58+AO58+AP58+AN55+AO55+AP55+AN52+AO52+AP52+AQ52+AN49+AO49+AP49+AQ49+AN46+AO46+AP46+AQ46+AN43+AO43+AP43+AQ43+AN40+AO40+AP40+AQ40+AN37+AO37+AP37+AQ37++AN64+AO64+AP64+AN71</f>
         <v>3</v>
       </c>
-      <c r="AC73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AD73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AE73" s="1">
-        <f>AE70+AF70+AE67+AF67+AE61+AF61+AG61+AE58+AF58+AG58+AE55+AF55+AG55+AE52+AF52+AG52+AH52+AE49+AF49+AG49+AH49+AE46+AF46+AG46+AH46+AE43+AF43+AG43+AH43+AE40+AF40+AG40+AH40+AE37+AF37+AG37+AH37++AE64+AF64+AG64</f>
-        <v>4</v>
-      </c>
-      <c r="AF73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AG73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AH73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AI73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AJ73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AK73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AL73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AM73" s="1">
-        <f t="shared" si="53"/>
-        <v>4</v>
-      </c>
-      <c r="AN73" s="1">
-        <f t="shared" si="53"/>
+      <c r="AO73" s="1">
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
-      <c r="AO73" s="1">
-        <f t="shared" si="53"/>
-        <v>3</v>
-      </c>
       <c r="AP73" s="1">
-        <f t="shared" si="53"/>
-        <v>3</v>
+        <f t="shared" ref="AP73" si="63">AP70+AQ70+AP67+AQ67+AP61+AQ61+AR61+AP58+AQ58+AR58+AP55+AQ55+AR55+AP52+AQ52+AR52+AS52+AP49+AQ49+AR49+AS49+AP46+AQ46+AR46+AS46+AP43+AQ43+AR43+AS43+AP40+AQ40+AR40+AS40+AP37+AQ37+AR37+AS37++AP64+AQ64+AR64+AP71</f>
+        <v>2</v>
       </c>
       <c r="AQ73" s="1">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="AR73" s="1">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="AS73" s="1">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="AT73" s="1">
-        <f t="shared" si="53"/>
-        <v>1</v>
+        <f t="shared" ref="AQ73" si="64">AQ70+AR70+AQ67+AR67+AQ61+AR61+AS61+AQ58+AR58+AS58+AQ55+AR55+AS55+AQ52+AR52+AS52+AT52+AQ49+AR49+AS49+AT49+AQ46+AR46+AS46+AT46+AQ43+AR43+AS43+AT43+AQ40+AR40+AS40+AT40+AQ37+AR37+AS37+AT37++AQ64+AR64+AS64+AQ71</f>
+        <v>1</v>
+      </c>
+      <c r="AR73" s="7">
+        <f t="shared" ref="AR73:AT73" si="65">AR70+AS70+AR67+AS67+AR61+AS61+AT61+AR58+AS58+AT58+AR55+AS55+AT55+AR52+AS52+AT52+AU52+AR49+AS49+AT49+AU49+AR46+AS46+AT46+AU46+AR43+AS43+AT43+AU43+AR40+AS40+AT40+AU40+AR37+AS37+AT37+AU37++AR64+AS64+AT64</f>
+        <v>0</v>
+      </c>
+      <c r="AS73" s="7">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AT73" s="7">
+        <f t="shared" si="65"/>
+        <v>0</v>
       </c>
       <c r="AV73" t="s">
         <v>2</v>
@@ -6434,79 +6570,79 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:T74" si="54">MOD(B72,3)</f>
+        <f t="shared" ref="B74:T74" si="66">MOD(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="J74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="P74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="R74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="S74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="T74">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
@@ -6516,79 +6652,79 @@
         <v>0</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ref="B75:T75" si="55">B73+B74+C73</f>
+        <f t="shared" ref="B75:T75" si="67">B73+B74+C73</f>
         <v>0</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
     </row>
@@ -6598,79 +6734,79 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76" si="56">QUOTIENT(B75,3)</f>
+        <f t="shared" ref="B76" si="68">QUOTIENT(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76" si="57">QUOTIENT(C75,3)</f>
+        <f t="shared" ref="C76" si="69">QUOTIENT(C75,3)</f>
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" si="58">QUOTIENT(D75,3)</f>
+        <f t="shared" ref="D76" si="70">QUOTIENT(D75,3)</f>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76" si="59">QUOTIENT(E75,3)</f>
+        <f t="shared" ref="E76" si="71">QUOTIENT(E75,3)</f>
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76" si="60">QUOTIENT(F75,3)</f>
+        <f t="shared" ref="F76" si="72">QUOTIENT(F75,3)</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" ref="G76" si="61">QUOTIENT(G75,3)</f>
+        <f t="shared" ref="G76" si="73">QUOTIENT(G75,3)</f>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" ref="H76" si="62">QUOTIENT(H75,3)</f>
+        <f t="shared" ref="H76" si="74">QUOTIENT(H75,3)</f>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" ref="I76" si="63">QUOTIENT(I75,3)</f>
+        <f t="shared" ref="I76" si="75">QUOTIENT(I75,3)</f>
         <v>1</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76" si="64">QUOTIENT(J75,3)</f>
+        <f t="shared" ref="J76" si="76">QUOTIENT(J75,3)</f>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" ref="K76" si="65">QUOTIENT(K75,3)</f>
+        <f t="shared" ref="K76" si="77">QUOTIENT(K75,3)</f>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" ref="L76" si="66">QUOTIENT(L75,3)</f>
+        <f t="shared" ref="L76" si="78">QUOTIENT(L75,3)</f>
         <v>1</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76" si="67">QUOTIENT(M75,3)</f>
+        <f t="shared" ref="M76" si="79">QUOTIENT(M75,3)</f>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" ref="N76" si="68">QUOTIENT(N75,3)</f>
+        <f t="shared" ref="N76" si="80">QUOTIENT(N75,3)</f>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" ref="O76" si="69">QUOTIENT(O75,3)</f>
+        <f t="shared" ref="O76" si="81">QUOTIENT(O75,3)</f>
         <v>1</v>
       </c>
       <c r="P76">
-        <f t="shared" ref="P76" si="70">QUOTIENT(P75,3)</f>
+        <f t="shared" ref="P76" si="82">QUOTIENT(P75,3)</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f t="shared" ref="Q76" si="71">QUOTIENT(Q75,3)</f>
+        <f t="shared" ref="Q76" si="83">QUOTIENT(Q75,3)</f>
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" ref="R76" si="72">QUOTIENT(R75,3)</f>
+        <f t="shared" ref="R76" si="84">QUOTIENT(R75,3)</f>
         <v>0</v>
       </c>
       <c r="S76">
-        <f t="shared" ref="S76" si="73">QUOTIENT(S75,3)</f>
+        <f t="shared" ref="S76" si="85">QUOTIENT(S75,3)</f>
         <v>0</v>
       </c>
       <c r="T76">
-        <f t="shared" ref="T76" si="74">QUOTIENT(T75,3)</f>
+        <f t="shared" ref="T76" si="86">QUOTIENT(T75,3)</f>
         <v>0</v>
       </c>
       <c r="V76">
@@ -6684,79 +6820,79 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:T77" si="75">MOD(B75,3)</f>
+        <f t="shared" ref="B77:T77" si="87">MOD(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="L77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="M77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="O77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="R77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="S77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="T77">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
     </row>
@@ -6766,79 +6902,79 @@
         <v>0</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" ref="B78" si="76">B76+B77+C76</f>
+        <f t="shared" ref="B78" si="88">B76+B77+C76</f>
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ref="C78" si="77">C76+C77+D76</f>
+        <f t="shared" ref="C78" si="89">C76+C77+D76</f>
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78" si="78">D76+D77+E76</f>
+        <f t="shared" ref="D78" si="90">D76+D77+E76</f>
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ref="E78" si="79">E76+E77+F76</f>
+        <f t="shared" ref="E78" si="91">E76+E77+F76</f>
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ref="F78" si="80">F76+F77+G76</f>
+        <f t="shared" ref="F78" si="92">F76+F77+G76</f>
         <v>2</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" ref="G78" si="81">G76+G77+H76</f>
+        <f t="shared" ref="G78" si="93">G76+G77+H76</f>
         <v>2</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78" si="82">H76+H77+I76</f>
+        <f t="shared" ref="H78" si="94">H76+H77+I76</f>
         <v>2</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ref="I78" si="83">I76+I77+J76</f>
+        <f t="shared" ref="I78" si="95">I76+I77+J76</f>
         <v>2</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" ref="J78" si="84">J76+J77+K76</f>
+        <f t="shared" ref="J78" si="96">J76+J77+K76</f>
         <v>1</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" ref="K78" si="85">K76+K77+L76</f>
+        <f t="shared" ref="K78" si="97">K76+K77+L76</f>
         <v>3</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" ref="L78" si="86">L76+L77+M76</f>
+        <f t="shared" ref="L78" si="98">L76+L77+M76</f>
         <v>2</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" ref="M78" si="87">M76+M77+N76</f>
+        <f t="shared" ref="M78" si="99">M76+M77+N76</f>
         <v>2</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" ref="N78" si="88">N76+N77+O76</f>
+        <f t="shared" ref="N78" si="100">N76+N77+O76</f>
         <v>3</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" ref="O78" si="89">O76+O77+P76</f>
+        <f t="shared" ref="O78" si="101">O76+O77+P76</f>
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" ref="P78" si="90">P76+P77+Q76</f>
+        <f t="shared" ref="P78" si="102">P76+P77+Q76</f>
         <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" ref="Q78" si="91">Q76+Q77+R76</f>
+        <f t="shared" ref="Q78" si="103">Q76+Q77+R76</f>
         <v>1</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R78" si="92">R76+R77+S76</f>
+        <f t="shared" ref="R78" si="104">R76+R77+S76</f>
         <v>1</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" ref="S78" si="93">S76+S77+T76</f>
+        <f t="shared" ref="S78" si="105">S76+S77+T76</f>
         <v>2</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" ref="T78" si="94">T76+T77+U76</f>
+        <f t="shared" ref="T78" si="106">T76+T77+U76</f>
         <v>1</v>
       </c>
     </row>
@@ -6848,79 +6984,79 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79" si="95">QUOTIENT(B78,3)</f>
+        <f t="shared" ref="B79" si="107">QUOTIENT(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79" si="96">QUOTIENT(C78,3)</f>
+        <f t="shared" ref="C79" si="108">QUOTIENT(C78,3)</f>
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="97">QUOTIENT(D78,3)</f>
+        <f t="shared" ref="D79" si="109">QUOTIENT(D78,3)</f>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79" si="98">QUOTIENT(E78,3)</f>
+        <f t="shared" ref="E79" si="110">QUOTIENT(E78,3)</f>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="99">QUOTIENT(F78,3)</f>
+        <f t="shared" ref="F79" si="111">QUOTIENT(F78,3)</f>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79" si="100">QUOTIENT(G78,3)</f>
+        <f t="shared" ref="G79" si="112">QUOTIENT(G78,3)</f>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79" si="101">QUOTIENT(H78,3)</f>
+        <f t="shared" ref="H79" si="113">QUOTIENT(H78,3)</f>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" ref="I79" si="102">QUOTIENT(I78,3)</f>
+        <f t="shared" ref="I79" si="114">QUOTIENT(I78,3)</f>
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J79" si="103">QUOTIENT(J78,3)</f>
+        <f t="shared" ref="J79" si="115">QUOTIENT(J78,3)</f>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" ref="K79" si="104">QUOTIENT(K78,3)</f>
+        <f t="shared" ref="K79" si="116">QUOTIENT(K78,3)</f>
         <v>1</v>
       </c>
       <c r="L79">
-        <f t="shared" ref="L79" si="105">QUOTIENT(L78,3)</f>
+        <f t="shared" ref="L79" si="117">QUOTIENT(L78,3)</f>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" ref="M79" si="106">QUOTIENT(M78,3)</f>
+        <f t="shared" ref="M79" si="118">QUOTIENT(M78,3)</f>
         <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" ref="N79" si="107">QUOTIENT(N78,3)</f>
+        <f t="shared" ref="N79" si="119">QUOTIENT(N78,3)</f>
         <v>1</v>
       </c>
       <c r="O79">
-        <f t="shared" ref="O79" si="108">QUOTIENT(O78,3)</f>
+        <f t="shared" ref="O79" si="120">QUOTIENT(O78,3)</f>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" ref="P79" si="109">QUOTIENT(P78,3)</f>
+        <f t="shared" ref="P79" si="121">QUOTIENT(P78,3)</f>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f t="shared" ref="Q79" si="110">QUOTIENT(Q78,3)</f>
+        <f t="shared" ref="Q79" si="122">QUOTIENT(Q78,3)</f>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" ref="R79" si="111">QUOTIENT(R78,3)</f>
+        <f t="shared" ref="R79" si="123">QUOTIENT(R78,3)</f>
         <v>0</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79" si="112">QUOTIENT(S78,3)</f>
+        <f t="shared" ref="S79" si="124">QUOTIENT(S78,3)</f>
         <v>0</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79" si="113">QUOTIENT(T78,3)</f>
+        <f t="shared" ref="T79" si="125">QUOTIENT(T78,3)</f>
         <v>0</v>
       </c>
       <c r="V79">
@@ -6934,493 +7070,559 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:T80" si="114">MOD(B78,3)</f>
+        <f t="shared" ref="B80:T80" si="126">MOD(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>2</v>
       </c>
       <c r="I80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>2</v>
       </c>
       <c r="N80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="P80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="R80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="S80">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>2</v>
       </c>
       <c r="T80">
-        <f t="shared" si="114"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <f>A79+A80+B79</f>
         <v>0</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" ref="B81" si="115">B79+B80+C79</f>
+        <f t="shared" ref="B81" si="127">B79+B80+C79</f>
         <v>0</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ref="C81" si="116">C79+C80+D79</f>
+        <f t="shared" ref="C81" si="128">C79+C80+D79</f>
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" ref="D81" si="117">D79+D80+E79</f>
+        <f t="shared" ref="D81" si="129">D79+D80+E79</f>
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" ref="E81" si="118">E79+E80+F79</f>
+        <f t="shared" ref="E81" si="130">E79+E80+F79</f>
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" ref="F81" si="119">F79+F80+G79</f>
+        <f t="shared" ref="F81" si="131">F79+F80+G79</f>
         <v>2</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81" si="120">G79+G80+H79</f>
+        <f t="shared" ref="G81" si="132">G79+G80+H79</f>
         <v>2</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ref="H81" si="121">H79+H80+I79</f>
+        <f t="shared" ref="H81" si="133">H79+H80+I79</f>
         <v>2</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" ref="I81" si="122">I79+I80+J79</f>
+        <f t="shared" ref="I81" si="134">I79+I80+J79</f>
         <v>2</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ref="J81" si="123">J79+J80+K79</f>
+        <f t="shared" ref="J81" si="135">J79+J80+K79</f>
         <v>2</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81" si="124">K79+K80+L79</f>
+        <f t="shared" ref="K81" si="136">K79+K80+L79</f>
         <v>1</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" ref="L81" si="125">L79+L80+M79</f>
+        <f t="shared" ref="L81" si="137">L79+L80+M79</f>
         <v>2</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" ref="M81" si="126">M79+M80+N79</f>
+        <f t="shared" ref="M81" si="138">M79+M80+N79</f>
         <v>3</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ref="N81" si="127">N79+N80+O79</f>
+        <f t="shared" ref="N81" si="139">N79+N80+O79</f>
         <v>1</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" ref="O81" si="128">O79+O80+P79</f>
+        <f t="shared" ref="O81" si="140">O79+O80+P79</f>
         <v>1</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" ref="P81" si="129">P79+P80+Q79</f>
+        <f t="shared" ref="P81" si="141">P79+P80+Q79</f>
         <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81" si="130">Q79+Q80+R79</f>
+        <f t="shared" ref="Q81" si="142">Q79+Q80+R79</f>
         <v>1</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" ref="R81" si="131">R79+R80+S79</f>
+        <f t="shared" ref="R81" si="143">R79+R80+S79</f>
         <v>1</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" ref="S81" si="132">S79+S80+T79</f>
+        <f t="shared" ref="S81" si="144">S79+S80+T79</f>
         <v>2</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" ref="T81" si="133">T79+T80+U79</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" ref="T81" si="145">T79+T80+U79</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A82">
         <f>QUOTIENT(A81,3)</f>
         <v>0</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82" si="134">QUOTIENT(B81,3)</f>
+        <f t="shared" ref="B82" si="146">QUOTIENT(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82" si="135">QUOTIENT(C81,3)</f>
+        <f t="shared" ref="C82" si="147">QUOTIENT(C81,3)</f>
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82" si="136">QUOTIENT(D81,3)</f>
+        <f t="shared" ref="D82" si="148">QUOTIENT(D81,3)</f>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82" si="137">QUOTIENT(E81,3)</f>
+        <f t="shared" ref="E82" si="149">QUOTIENT(E81,3)</f>
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82" si="138">QUOTIENT(F81,3)</f>
+        <f t="shared" ref="F82" si="150">QUOTIENT(F81,3)</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82" si="139">QUOTIENT(G81,3)</f>
+        <f t="shared" ref="G82" si="151">QUOTIENT(G81,3)</f>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82" si="140">QUOTIENT(H81,3)</f>
+        <f t="shared" ref="H82" si="152">QUOTIENT(H81,3)</f>
         <v>0</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82" si="141">QUOTIENT(I81,3)</f>
+        <f t="shared" ref="I82" si="153">QUOTIENT(I81,3)</f>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82" si="142">QUOTIENT(J81,3)</f>
+        <f t="shared" ref="J82" si="154">QUOTIENT(J81,3)</f>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82" si="143">QUOTIENT(K81,3)</f>
+        <f t="shared" ref="K82" si="155">QUOTIENT(K81,3)</f>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" ref="L82" si="144">QUOTIENT(L81,3)</f>
+        <f t="shared" ref="L82" si="156">QUOTIENT(L81,3)</f>
         <v>0</v>
       </c>
       <c r="M82">
-        <f t="shared" ref="M82" si="145">QUOTIENT(M81,3)</f>
+        <f t="shared" ref="M82" si="157">QUOTIENT(M81,3)</f>
         <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" ref="N82" si="146">QUOTIENT(N81,3)</f>
+        <f t="shared" ref="N82" si="158">QUOTIENT(N81,3)</f>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" ref="O82" si="147">QUOTIENT(O81,3)</f>
+        <f t="shared" ref="O82" si="159">QUOTIENT(O81,3)</f>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" ref="P82" si="148">QUOTIENT(P81,3)</f>
+        <f t="shared" ref="P82" si="160">QUOTIENT(P81,3)</f>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" ref="Q82" si="149">QUOTIENT(Q81,3)</f>
+        <f t="shared" ref="Q82" si="161">QUOTIENT(Q81,3)</f>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" ref="R82" si="150">QUOTIENT(R81,3)</f>
+        <f t="shared" ref="R82" si="162">QUOTIENT(R81,3)</f>
         <v>0</v>
       </c>
       <c r="S82">
-        <f t="shared" ref="S82" si="151">QUOTIENT(S81,3)</f>
+        <f t="shared" ref="S82" si="163">QUOTIENT(S81,3)</f>
         <v>0</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82" si="152">QUOTIENT(T81,3)</f>
+        <f t="shared" ref="T82" si="164">QUOTIENT(T81,3)</f>
         <v>0</v>
       </c>
       <c r="V82">
         <f>SUM(B82:U82)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="Z82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM82" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN82" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO82" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP82" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ82" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV82" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A83">
         <f>MOD(A81,3)</f>
         <v>0</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:T83" si="153">MOD(B81,3)</f>
+        <f t="shared" ref="B83:T83" si="165">MOD(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>2</v>
       </c>
       <c r="H83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>2</v>
       </c>
       <c r="I83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>1</v>
       </c>
       <c r="L83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>2</v>
       </c>
       <c r="M83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="N83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>1</v>
       </c>
       <c r="O83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>1</v>
       </c>
       <c r="P83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>1</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>1</v>
       </c>
       <c r="R83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>1</v>
       </c>
       <c r="S83">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>2</v>
       </c>
       <c r="T83">
-        <f t="shared" si="153"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="165"/>
+        <v>1</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <f>A82+A83+B82</f>
         <v>0</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" ref="B84" si="154">B82+B83+C82</f>
+        <f t="shared" ref="B84" si="166">B82+B83+C82</f>
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" ref="C84" si="155">C82+C83+D82</f>
+        <f t="shared" ref="C84" si="167">C82+C83+D82</f>
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" ref="D84" si="156">D82+D83+E82</f>
+        <f t="shared" ref="D84" si="168">D82+D83+E82</f>
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ref="E84" si="157">E82+E83+F82</f>
+        <f t="shared" ref="E84" si="169">E82+E83+F82</f>
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" ref="F84" si="158">F82+F83+G82</f>
+        <f t="shared" ref="F84" si="170">F82+F83+G82</f>
         <v>2</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" ref="G84" si="159">G82+G83+H82</f>
+        <f t="shared" ref="G84" si="171">G82+G83+H82</f>
         <v>2</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" ref="H84" si="160">H82+H83+I82</f>
+        <f t="shared" ref="H84" si="172">H82+H83+I82</f>
         <v>2</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" ref="I84" si="161">I82+I83+J82</f>
+        <f t="shared" ref="I84" si="173">I82+I83+J82</f>
         <v>2</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" ref="J84" si="162">J82+J83+K82</f>
+        <f t="shared" ref="J84" si="174">J82+J83+K82</f>
         <v>2</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ref="K84" si="163">K82+K83+L82</f>
+        <f t="shared" ref="K84" si="175">K82+K83+L82</f>
         <v>1</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" ref="L84" si="164">L82+L83+M82</f>
+        <f t="shared" ref="L84" si="176">L82+L83+M82</f>
         <v>3</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" ref="M84" si="165">M82+M83+N82</f>
+        <f t="shared" ref="M84" si="177">M82+M83+N82</f>
         <v>1</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" ref="N84" si="166">N82+N83+O82</f>
+        <f t="shared" ref="N84" si="178">N82+N83+O82</f>
         <v>1</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" ref="O84" si="167">O82+O83+P82</f>
+        <f t="shared" ref="O84" si="179">O82+O83+P82</f>
         <v>1</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84" si="168">P82+P83+Q82</f>
+        <f t="shared" ref="P84" si="180">P82+P83+Q82</f>
         <v>1</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ref="Q84" si="169">Q82+Q83+R82</f>
+        <f t="shared" ref="Q84" si="181">Q82+Q83+R82</f>
         <v>1</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ref="R84" si="170">R82+R83+S82</f>
+        <f t="shared" ref="R84" si="182">R82+R83+S82</f>
         <v>1</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84" si="171">S82+S83+T82</f>
+        <f t="shared" ref="S84" si="183">S82+S83+T82</f>
         <v>2</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84" si="172">T82+T83+U82</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" ref="T84" si="184">T82+T83+U82</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A85">
         <f>QUOTIENT(A84,3)</f>
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" ref="B85" si="173">QUOTIENT(B84,3)</f>
+        <f t="shared" ref="B85" si="185">QUOTIENT(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85" si="174">QUOTIENT(C84,3)</f>
+        <f t="shared" ref="C85" si="186">QUOTIENT(C84,3)</f>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="175">QUOTIENT(D84,3)</f>
+        <f t="shared" ref="D85" si="187">QUOTIENT(D84,3)</f>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85" si="176">QUOTIENT(E84,3)</f>
+        <f t="shared" ref="E85" si="188">QUOTIENT(E84,3)</f>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="177">QUOTIENT(F84,3)</f>
+        <f t="shared" ref="F85" si="189">QUOTIENT(F84,3)</f>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85" si="178">QUOTIENT(G84,3)</f>
+        <f t="shared" ref="G85" si="190">QUOTIENT(G84,3)</f>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H85" si="179">QUOTIENT(H84,3)</f>
+        <f t="shared" ref="H85" si="191">QUOTIENT(H84,3)</f>
         <v>0</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85" si="180">QUOTIENT(I84,3)</f>
+        <f t="shared" ref="I85" si="192">QUOTIENT(I84,3)</f>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85" si="181">QUOTIENT(J84,3)</f>
+        <f t="shared" ref="J85" si="193">QUOTIENT(J84,3)</f>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" ref="K85" si="182">QUOTIENT(K84,3)</f>
+        <f t="shared" ref="K85" si="194">QUOTIENT(K84,3)</f>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" ref="L85" si="183">QUOTIENT(L84,3)</f>
+        <f t="shared" ref="L85" si="195">QUOTIENT(L84,3)</f>
         <v>1</v>
       </c>
       <c r="M85">
-        <f t="shared" ref="M85" si="184">QUOTIENT(M84,3)</f>
+        <f t="shared" ref="M85" si="196">QUOTIENT(M84,3)</f>
         <v>0</v>
       </c>
       <c r="N85">
-        <f t="shared" ref="N85" si="185">QUOTIENT(N84,3)</f>
+        <f t="shared" ref="N85" si="197">QUOTIENT(N84,3)</f>
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" ref="O85" si="186">QUOTIENT(O84,3)</f>
+        <f t="shared" ref="O85" si="198">QUOTIENT(O84,3)</f>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" ref="P85" si="187">QUOTIENT(P84,3)</f>
+        <f t="shared" ref="P85" si="199">QUOTIENT(P84,3)</f>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" ref="Q85" si="188">QUOTIENT(Q84,3)</f>
+        <f t="shared" ref="Q85" si="200">QUOTIENT(Q84,3)</f>
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" ref="R85" si="189">QUOTIENT(R84,3)</f>
+        <f t="shared" ref="R85" si="201">QUOTIENT(R84,3)</f>
         <v>0</v>
       </c>
       <c r="S85">
-        <f t="shared" ref="S85" si="190">QUOTIENT(S84,3)</f>
+        <f t="shared" ref="S85" si="202">QUOTIENT(S84,3)</f>
         <v>0</v>
       </c>
       <c r="T85">
-        <f t="shared" ref="T85" si="191">QUOTIENT(T84,3)</f>
+        <f t="shared" ref="T85" si="203">QUOTIENT(T84,3)</f>
         <v>0</v>
       </c>
       <c r="V85">
@@ -7428,167 +7630,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A86">
         <f>MOD(A84,3)</f>
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" ref="B86:T86" si="192">MOD(B84,3)</f>
+        <f t="shared" ref="B86:T86" si="204">MOD(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="H86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="L86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="N86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="O86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="P86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="R86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>1</v>
       </c>
       <c r="S86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="T86">
-        <f t="shared" si="192"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="204"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <f>A85+A86+B85</f>
         <v>0</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ref="B87" si="193">B85+B86+C85</f>
+        <f t="shared" ref="B87" si="205">B85+B86+C85</f>
         <v>0</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" ref="C87" si="194">C85+C86+D85</f>
+        <f t="shared" ref="C87" si="206">C85+C86+D85</f>
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" ref="D87" si="195">D85+D86+E85</f>
+        <f t="shared" ref="D87" si="207">D85+D86+E85</f>
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ref="E87" si="196">E85+E86+F85</f>
+        <f t="shared" ref="E87" si="208">E85+E86+F85</f>
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ref="F87" si="197">F85+F86+G85</f>
+        <f t="shared" ref="F87" si="209">F85+F86+G85</f>
         <v>2</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" ref="G87" si="198">G85+G86+H85</f>
+        <f t="shared" ref="G87" si="210">G85+G86+H85</f>
         <v>2</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87" si="199">H85+H86+I85</f>
+        <f t="shared" ref="H87" si="211">H85+H86+I85</f>
         <v>2</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" ref="I87" si="200">I85+I86+J85</f>
+        <f t="shared" ref="I87" si="212">I85+I86+J85</f>
         <v>2</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" ref="J87" si="201">J85+J86+K85</f>
+        <f t="shared" ref="J87" si="213">J85+J86+K85</f>
         <v>2</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ref="K87" si="202">K85+K86+L85</f>
+        <f t="shared" ref="K87" si="214">K85+K86+L85</f>
         <v>2</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" ref="L87" si="203">L85+L86+M85</f>
+        <f t="shared" ref="L87" si="215">L85+L86+M85</f>
         <v>1</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" ref="M87" si="204">M85+M86+N85</f>
+        <f t="shared" ref="M87" si="216">M85+M86+N85</f>
         <v>1</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ref="N87" si="205">N85+N86+O85</f>
+        <f t="shared" ref="N87" si="217">N85+N86+O85</f>
         <v>1</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" ref="O87" si="206">O85+O86+P85</f>
+        <f t="shared" ref="O87" si="218">O85+O86+P85</f>
         <v>1</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" ref="P87" si="207">P85+P86+Q85</f>
+        <f t="shared" ref="P87" si="219">P85+P86+Q85</f>
         <v>1</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" ref="Q87" si="208">Q85+Q86+R85</f>
+        <f t="shared" ref="Q87" si="220">Q85+Q86+R85</f>
         <v>1</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" ref="R87" si="209">R85+R86+S85</f>
+        <f t="shared" ref="R87" si="221">R85+R86+S85</f>
         <v>1</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" ref="S87" si="210">S85+S86+T85</f>
+        <f t="shared" ref="S87" si="222">S85+S86+T85</f>
         <v>2</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" ref="T87" si="211">T85+T86+U85</f>
+        <f t="shared" ref="T87" si="223">T85+T86+U85</f>
         <v>1</v>
       </c>
       <c r="V87" s="1">
@@ -7596,7 +7798,214 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>1</v>
+      </c>
+      <c r="AD88">
+        <v>1</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
+      </c>
+      <c r="AF88">
+        <v>1</v>
+      </c>
+      <c r="AG88">
+        <v>1</v>
+      </c>
+      <c r="AH88">
+        <v>1</v>
+      </c>
+      <c r="AI88">
+        <v>1</v>
+      </c>
+      <c r="AJ88">
+        <v>1</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
+        <v>1</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="Z89">
+        <f>Z73-Z88*4</f>
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" ref="AA89:AQ89" si="224">AA73-AA88*4</f>
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="224"/>
+        <v>2</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <f t="shared" si="224"/>
+        <v>3</v>
+      </c>
+      <c r="AO89">
+        <f t="shared" si="224"/>
+        <v>3</v>
+      </c>
+      <c r="AP89">
+        <f t="shared" si="224"/>
+        <v>2</v>
+      </c>
+      <c r="AQ89">
+        <f t="shared" si="224"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="Z91">
+        <f>Z89+Z88+AA88+AB88</f>
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" ref="AA91:AQ91" si="225">AA89+AA88+AB88+AC88</f>
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <f t="shared" si="225"/>
+        <v>4</v>
+      </c>
+      <c r="AC91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AH91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AI91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AJ91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AK91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AL91">
+        <f t="shared" si="225"/>
+        <v>2</v>
+      </c>
+      <c r="AM91">
+        <f t="shared" si="225"/>
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AO91">
+        <f t="shared" si="225"/>
+        <v>3</v>
+      </c>
+      <c r="AP91">
+        <f t="shared" si="225"/>
+        <v>2</v>
+      </c>
+      <c r="AQ91">
+        <f t="shared" si="225"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52" x14ac:dyDescent="0.45">
       <c r="B92" s="1">
         <v>0</v>
       </c>
@@ -7657,251 +8066,287 @@
       <c r="U92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="AM92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52" x14ac:dyDescent="0.45">
       <c r="B93">
         <f>QUOTIENT(B92,5)</f>
         <v>0</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:U93" si="212">QUOTIENT(C92,5)</f>
+        <f t="shared" ref="C93:U93" si="226">QUOTIENT(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="L93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="M93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="N93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="O93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="P93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="R93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="S93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="T93">
-        <f t="shared" si="212"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="U93">
-        <f t="shared" si="212"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="226"/>
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>3</v>
+      </c>
+      <c r="AO93">
+        <v>3</v>
+      </c>
+      <c r="AP93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52" x14ac:dyDescent="0.45">
       <c r="B94">
         <f>MOD(B92,5)</f>
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:U94" si="213">MOD(C92,5)</f>
+        <f t="shared" ref="C94:U94" si="227">MOD(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>2</v>
       </c>
       <c r="I94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>4</v>
       </c>
       <c r="K94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>1</v>
       </c>
       <c r="M94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>2</v>
       </c>
       <c r="N94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>3</v>
       </c>
       <c r="O94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>2</v>
       </c>
       <c r="P94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>1</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>4</v>
       </c>
       <c r="S94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>3</v>
       </c>
       <c r="T94">
-        <f t="shared" si="213"/>
+        <f t="shared" si="227"/>
         <v>2</v>
       </c>
       <c r="U94">
-        <f t="shared" si="213"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" si="227"/>
+        <v>1</v>
+      </c>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8"/>
+      <c r="AB94" s="8"/>
+      <c r="AC94" s="8"/>
+      <c r="AD94" s="8"/>
+      <c r="AE94" s="8"/>
+      <c r="AF94" s="8"/>
+      <c r="AG94" s="8"/>
+      <c r="AH94" s="8"/>
+      <c r="AI94" s="8"/>
+      <c r="AJ94" s="8"/>
+      <c r="AK94" s="8"/>
+      <c r="AL94" s="8"/>
+      <c r="AM94" s="8"/>
+      <c r="AN94" s="8"/>
+      <c r="AO94" s="8"/>
+      <c r="AP94" s="8"/>
+      <c r="AQ94" s="8"/>
+    </row>
+    <row r="95" spans="1:52" x14ac:dyDescent="0.45">
       <c r="B95" s="1">
         <f>B93+B94+C93+D93</f>
         <v>0</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ref="C95:U95" si="214">C93+C94+D93+E93</f>
+        <f t="shared" ref="C95:U95" si="228">C93+C94+D93+E93</f>
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>1</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>2</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>4</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>6</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>4</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>5</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>6</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>5</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>1</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>4</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>3</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>2</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="214"/>
-        <v>1</v>
+        <f t="shared" si="228"/>
+        <v>1</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166EBEA-802E-450E-99D9-393928B8B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B977BB0-54EA-4FCA-8403-28331815353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="13">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>area 5 * 13 * 2?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2stage </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34:AT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6558,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="AV73" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AW73" t="s">
         <v>1</v>

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B977BB0-54EA-4FCA-8403-28331815353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB2ED1-E990-4B8B-8614-11BA634B7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34:AT34"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1272,35 +1272,35 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <f t="shared" ref="AA11:AB11" si="1">AA7+AA10</f>
-        <v>0</v>
+        <f>AA7+AA10+1</f>
+        <v>1</v>
       </c>
       <c r="AB11">
+        <f>AB7+AB10</f>
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <f>AC7+AC10+1</f>
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <f>AD7+AD10+1</f>
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <f>AE7+1+AE10</f>
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" ref="AE11:AH11" si="1">AF7+1+AF10</f>
+        <v>11</v>
+      </c>
+      <c r="AG11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <f>AC7+AC10</f>
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <f>AD7+AD10</f>
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" ref="AE11:AH11" si="2">AE7+1+AE10</f>
-        <v>2</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AI11">
@@ -1308,47 +1308,47 @@
         <v>20</v>
       </c>
       <c r="AJ11">
-        <f t="shared" ref="AJ11:AT11" si="3">AJ7+1</f>
+        <f t="shared" ref="AJ11:AT11" si="2">AJ7+1</f>
         <v>37</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -1551,87 +1551,87 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" ref="Z14" si="4">Z11-Z13*15</f>
+        <f t="shared" ref="Z14" si="3">Z11-Z13*15</f>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" ref="AA14" si="5">AA11-AA13*15</f>
-        <v>0</v>
+        <f t="shared" ref="AA14" si="4">AA11-AA13*15</f>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <f t="shared" ref="AB14" si="6">AB11-AB13*15</f>
+        <f t="shared" ref="AB14" si="5">AB11-AB13*15</f>
         <v>1</v>
       </c>
       <c r="AC14">
-        <f t="shared" ref="AC14:AD14" si="7">AC11-AC13*15</f>
-        <v>0</v>
+        <f t="shared" ref="AC14:AD14" si="6">AC11-AC13*15</f>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f>AE11-AE13*15</f>
         <v>2</v>
       </c>
       <c r="AF14">
-        <f t="shared" ref="AF14:AT14" si="8">AF11-AF13*15</f>
+        <f t="shared" ref="AF14:AT14" si="7">AF11-AF13*15</f>
         <v>11</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -1828,87 +1828,87 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" ref="Z17:AB17" si="9">Z14-Z16*13</f>
+        <f t="shared" ref="Z17:AB17" si="8">Z14-Z16*13</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AC17">
         <f>AC14-AC16*13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <f t="shared" ref="AD17:AE17" si="10">AD14-AD16*13</f>
-        <v>0</v>
+        <f t="shared" ref="AD17:AE17" si="9">AD14-AD16*13</f>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AF17">
-        <f t="shared" ref="AF17" si="11">AF14-AF16*13</f>
+        <f t="shared" ref="AF17" si="10">AF14-AF16*13</f>
         <v>11</v>
       </c>
       <c r="AG17">
-        <f t="shared" ref="AG17" si="12">AG14-AG16*13</f>
+        <f t="shared" ref="AG17" si="11">AG14-AG16*13</f>
         <v>11</v>
       </c>
       <c r="AH17">
-        <f t="shared" ref="AH17" si="13">AH14-AH16*13</f>
+        <f t="shared" ref="AH17" si="12">AH14-AH16*13</f>
         <v>4</v>
       </c>
       <c r="AI17">
-        <f t="shared" ref="AI17" si="14">AI14-AI16*13</f>
+        <f t="shared" ref="AI17" si="13">AI14-AI16*13</f>
         <v>5</v>
       </c>
       <c r="AJ17">
-        <f t="shared" ref="AJ17" si="15">AJ14-AJ16*13</f>
+        <f t="shared" ref="AJ17" si="14">AJ14-AJ16*13</f>
         <v>7</v>
       </c>
       <c r="AK17">
-        <f t="shared" ref="AK17" si="16">AK14-AK16*13</f>
+        <f t="shared" ref="AK17" si="15">AK14-AK16*13</f>
         <v>7</v>
       </c>
       <c r="AL17">
-        <f t="shared" ref="AL17" si="17">AL14-AL16*13</f>
+        <f t="shared" ref="AL17" si="16">AL14-AL16*13</f>
         <v>7</v>
       </c>
       <c r="AM17">
-        <f t="shared" ref="AM17" si="18">AM14-AM16*13</f>
+        <f t="shared" ref="AM17" si="17">AM14-AM16*13</f>
         <v>7</v>
       </c>
       <c r="AN17">
-        <f t="shared" ref="AN17" si="19">AN14-AN16*13</f>
+        <f t="shared" ref="AN17" si="18">AN14-AN16*13</f>
         <v>1</v>
       </c>
       <c r="AO17">
-        <f t="shared" ref="AO17" si="20">AO14-AO16*13</f>
+        <f t="shared" ref="AO17" si="19">AO14-AO16*13</f>
         <v>0</v>
       </c>
       <c r="AP17">
-        <f t="shared" ref="AP17" si="21">AP14-AP16*13</f>
+        <f t="shared" ref="AP17" si="20">AP14-AP16*13</f>
         <v>7</v>
       </c>
       <c r="AQ17">
-        <f t="shared" ref="AQ17" si="22">AQ14-AQ16*13</f>
+        <f t="shared" ref="AQ17" si="21">AQ14-AQ16*13</f>
         <v>4</v>
       </c>
       <c r="AR17">
-        <f t="shared" ref="AR17" si="23">AR14-AR16*13</f>
+        <f t="shared" ref="AR17" si="22">AR14-AR16*13</f>
         <v>0</v>
       </c>
       <c r="AS17">
-        <f t="shared" ref="AS17" si="24">AS14-AS16*13</f>
+        <f t="shared" ref="AS17" si="23">AS14-AS16*13</f>
         <v>10</v>
       </c>
       <c r="AT17">
-        <f t="shared" ref="AT17" si="25">AT14-AT16*13</f>
+        <f t="shared" ref="AT17" si="24">AT14-AT16*13</f>
         <v>4</v>
       </c>
     </row>
@@ -2109,83 +2109,83 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <f t="shared" ref="AA20:AT20" si="26">AA17-AA19*11</f>
-        <v>0</v>
+        <f t="shared" ref="AA20:AT20" si="25">AA17-AA19*11</f>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AS20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A23">
-        <f t="shared" ref="A23:A47" si="27">A22+1</f>
+        <f t="shared" ref="A23:A47" si="26">A22+1</f>
         <v>22</v>
       </c>
       <c r="I23" s="2"/>
@@ -2364,89 +2364,89 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <f t="shared" ref="AA23:AT23" si="28">AA20-AA22*10</f>
-        <v>0</v>
+        <f t="shared" ref="AA23:AT23" si="27">AA20-AA22*10</f>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="I24" s="2"/>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="I25" s="2"/>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="I26" s="2"/>
@@ -2620,89 +2620,89 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <f t="shared" ref="AA26:AT26" si="29">AA23-AA25*7</f>
-        <v>0</v>
+        <f t="shared" ref="AA26:AT26" si="28">AA23-AA25*7</f>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>26</v>
       </c>
       <c r="I27" s="2"/>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>27</v>
       </c>
       <c r="I28" s="2"/>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="I29" s="2"/>
@@ -2876,89 +2876,89 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <f t="shared" ref="AA29:AT29" si="30">AA26-AA28*5</f>
-        <v>0</v>
+        <f t="shared" ref="AA29:AT29" si="29">AA26-AA28*5</f>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AS29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>29</v>
       </c>
       <c r="I30" s="2"/>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="I31" s="2"/>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="I32" s="2"/>
@@ -3117,89 +3117,89 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <f t="shared" ref="AA32:AT32" si="31">AA29-AA31*4</f>
-        <v>0</v>
+        <f t="shared" ref="AA32:AT32" si="30">AA29-AA31*4</f>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AR32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>32</v>
       </c>
       <c r="I33" s="2"/>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>33</v>
       </c>
       <c r="I34" s="2"/>
@@ -3322,31 +3322,31 @@
         <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" ref="AA34:AT34" si="32">AA13+AB13+AC13+AD13+AA16+AB16+AC16+AD16+AA19+AB19+AC19+AD19+AA22+AB22+AC22+AD22+AA25+AB25+AC25+AA28+AB28+AC28+AA31+AB31+AC31+AA32</f>
-        <v>0</v>
+        <f t="shared" ref="AA34:AT34" si="31">AA13+AB13+AC13+AD13+AA16+AB16+AC16+AD16+AA19+AB19+AC19+AD19+AA22+AB22+AC22+AD22+AA25+AB25+AC25+AA28+AB28+AC28+AA31+AB31+AC31+AA32</f>
+        <v>1</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" si="32"/>
-        <v>2</v>
+        <f t="shared" si="31"/>
+        <v>3</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="AH34" s="1">
@@ -3354,51 +3354,51 @@
         <v>9</v>
       </c>
       <c r="AI34" s="1">
-        <f t="shared" si="32"/>
+        <f>AI13+AJ13+AK13+AL13+AI16+AJ16+AK16+AL16+AI19+AJ19+AK19+AL19+AI22+AJ22+AK22+AL22+AI25+AJ25+AK25+AI28+AJ28+AK28+AI31+AJ31+AK31+AI32</f>
         <v>10</v>
       </c>
       <c r="AJ34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="AK34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="AL34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="AM34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="AN34" s="1">
-        <f t="shared" si="32"/>
+        <f>AN13+AO13+AP13+AQ13+AN16+AO16+AP16+AQ16+AN19+AO19+AP19+AQ19+AN22+AO22+AP22+AQ22+AN25+AO25+AP25+AN28+AO28+AP28+AN31+AO31+AP31+AN32</f>
         <v>10</v>
       </c>
       <c r="AO34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="AP34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="AQ34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="AR34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AS34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AT34" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AV34" t="s">
@@ -3410,7 +3410,7 @@
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>34</v>
       </c>
       <c r="I35" s="2"/>
@@ -3437,93 +3437,93 @@
       <c r="T35" s="2"/>
       <c r="V35" s="2"/>
       <c r="Z35">
-        <f t="shared" ref="Z35:AA35" si="33">Z34+Z33</f>
+        <f t="shared" ref="Z35:AA35" si="32">Z34+Z33</f>
         <v>0</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="AB35">
         <f>AB34+AB33</f>
         <v>2</v>
       </c>
       <c r="AC35">
-        <f t="shared" ref="AC35:AT35" si="34">AC34+AC33</f>
-        <v>2</v>
+        <f t="shared" ref="AC35:AT35" si="33">AC34+AC33</f>
+        <v>3</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="34"/>
-        <v>3</v>
+        <f t="shared" si="33"/>
+        <v>4</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="AJ35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="AK35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="AL35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="AM35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="AN35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="AO35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="AP35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="AQ35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="AR35" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="AS35" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="AT35" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>35</v>
       </c>
       <c r="I36" s="2"/>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>36</v>
       </c>
       <c r="I37" s="2"/>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>37</v>
       </c>
       <c r="I38" s="2"/>
@@ -3731,89 +3731,89 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <f t="shared" ref="AA38:AT38" si="35">AA35-AA37*13</f>
-        <v>0</v>
+        <f t="shared" ref="AA38:AT38" si="34">AA35-AA37*13</f>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="35"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="35"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="AK38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AL38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="AM38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="AN38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="AO38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="AQ38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="AR38" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="AS38" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AT38" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>38</v>
       </c>
       <c r="I39" s="2"/>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="I40" s="2"/>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>40</v>
       </c>
       <c r="I41" s="2"/>
@@ -3951,89 +3951,89 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <f t="shared" ref="AA41:AT41" si="36">AA38-AA40*12</f>
-        <v>0</v>
+        <f t="shared" ref="AA41:AT41" si="35">AA38-AA40*12</f>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="36"/>
-        <v>2</v>
+        <f t="shared" si="35"/>
+        <v>3</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <f t="shared" si="35"/>
+        <v>4</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="AJ41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AK41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AL41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AM41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="AN41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="AO41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="AP41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="AQ41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="AR41" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="AS41" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="AT41" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>41</v>
       </c>
       <c r="I42" s="2"/>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>42</v>
       </c>
       <c r="I43" s="2"/>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>43</v>
       </c>
       <c r="I44" s="2"/>
@@ -4171,89 +4171,89 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" ref="AA44:AT44" si="37">AA41-AA43*11</f>
-        <v>0</v>
+        <f t="shared" ref="AA44:AT44" si="36">AA41-AA43*11</f>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <f t="shared" si="36"/>
+        <v>4</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AK44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AM44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AN44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AO44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AP44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="AQ44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="AR44" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="AS44" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AT44" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>44</v>
       </c>
       <c r="J45" s="2"/>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A46">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>45</v>
       </c>
       <c r="O46" s="4" t="s">
@@ -4351,7 +4351,7 @@
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>46</v>
       </c>
       <c r="H47" s="2"/>
@@ -4370,83 +4370,83 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <f t="shared" ref="AA47:AT47" si="38">AA44-AA46*10</f>
-        <v>0</v>
+        <f t="shared" ref="AA47:AT47" si="37">AA44-AA46*10</f>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="38"/>
-        <v>2</v>
+        <f t="shared" si="37"/>
+        <v>3</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="38"/>
-        <v>3</v>
+        <f t="shared" si="37"/>
+        <v>4</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AK47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AL47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AM47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AN47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AO47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AQ47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="AR47" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="AS47" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="AT47" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
     </row>
@@ -4563,83 +4563,83 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="shared" ref="AA50:AT50" si="39">AA47-AA49*9</f>
-        <v>0</v>
+        <f t="shared" ref="AA50:AT50" si="38">AA47-AA49*9</f>
+        <v>1</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="39"/>
-        <v>2</v>
+        <f t="shared" si="38"/>
+        <v>3</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="39"/>
-        <v>3</v>
+        <f t="shared" si="38"/>
+        <v>4</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AJ50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AL50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AM50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AP50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="AQ50">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="AR50" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="AS50" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="AT50" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
     </row>
@@ -4743,83 +4743,83 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <f t="shared" ref="AA53:AT53" si="40">AA50-AA52*8</f>
-        <v>0</v>
+        <f t="shared" ref="AA53:AT53" si="39">AA50-AA52*8</f>
+        <v>1</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="40"/>
-        <v>2</v>
+        <f t="shared" si="39"/>
+        <v>3</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="40"/>
-        <v>3</v>
+        <f t="shared" si="39"/>
+        <v>4</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AK53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AM53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AN53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AO53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="AR53" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="AS53" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AT53" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
     </row>
@@ -4924,83 +4924,83 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <f t="shared" ref="AA56:AT56" si="41">AA53-AA55*7</f>
-        <v>0</v>
+        <f t="shared" ref="AA56:AT56" si="40">AA53-AA55*7</f>
+        <v>1</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="41"/>
-        <v>2</v>
+        <f t="shared" si="40"/>
+        <v>3</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="41"/>
-        <v>3</v>
+        <f t="shared" si="40"/>
+        <v>4</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="AF56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="AG56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AI56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AJ56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AK56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AL56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AM56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AN56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AO56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AP56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AQ56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="AR56" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="AS56" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AT56" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
     </row>
@@ -5107,83 +5107,83 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <f t="shared" ref="AA59:AT59" si="42">AA56-AA58*6</f>
-        <v>0</v>
+        <f t="shared" ref="AA59:AT59" si="41">AA56-AA58*6</f>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <f t="shared" si="41"/>
+        <v>3</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="42"/>
-        <v>3</v>
+        <f t="shared" si="41"/>
+        <v>4</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AF59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AG59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AJ59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AK59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AL59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AM59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AN59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AO59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AP59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AQ59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AR59" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="AS59" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="AT59" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
     </row>
@@ -5270,83 +5270,83 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <f t="shared" ref="AA62:AT62" si="43">AA59-AA61*5</f>
-        <v>0</v>
+        <f t="shared" ref="AA62:AT62" si="42">AA59-AA61*5</f>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="43"/>
-        <v>2</v>
+        <f t="shared" si="42"/>
+        <v>3</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="43"/>
-        <v>3</v>
+        <f t="shared" si="42"/>
+        <v>4</v>
       </c>
       <c r="AE62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AF62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AG62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AI62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AJ62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AK62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AL62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AM62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AP62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AQ62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AR62" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="AS62" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="AT62" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
     </row>
@@ -5433,83 +5433,83 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <f t="shared" ref="AA65:AT65" si="44">AA62-AA64*4</f>
-        <v>0</v>
+        <f t="shared" ref="AA65:AT65" si="43">AA62-AA64*4</f>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="44"/>
-        <v>2</v>
+        <f t="shared" si="43"/>
+        <v>3</v>
       </c>
       <c r="AD65">
-        <f t="shared" si="44"/>
-        <v>3</v>
+        <f t="shared" si="43"/>
+        <v>4</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AF65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AJ65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AK65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AL65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AO65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AP65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AQ65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AR65" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="AS65" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="AT65" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
     </row>
@@ -5584,79 +5584,79 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:T67" si="45">QUOTIENT(B66,3)</f>
+        <f t="shared" ref="B67:T67" si="44">QUOTIENT(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="L67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="N67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="O67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="P67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="R67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="S67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V67">
@@ -5740,79 +5740,79 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:T68" si="46">MOD(B66,3)</f>
+        <f t="shared" ref="B68:T68" si="45">MOD(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="H68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="M68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="N68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="O68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="R68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="T68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="Z68">
@@ -5820,83 +5820,83 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <f t="shared" ref="AA68:AT68" si="47">AA65-AA67*3</f>
-        <v>0</v>
+        <f t="shared" ref="AA68:AT68" si="46">AA65-AA67*3</f>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="47"/>
-        <v>2</v>
+        <f t="shared" si="46"/>
+        <v>3</v>
       </c>
       <c r="AD68">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1</v>
       </c>
       <c r="AE68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AG68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AH68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AI68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AJ68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AK68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AL68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AM68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AN68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AP68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AQ68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AR68" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="AS68" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="AT68" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
     </row>
@@ -5906,79 +5906,79 @@
         <v>0</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" ref="B69:T69" si="48">B67+B68+C67</f>
+        <f t="shared" ref="B69:T69" si="47">B67+B68+C67</f>
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AR69" s="7"/>
@@ -5991,79 +5991,79 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:T70" si="49">QUOTIENT(B69,3)</f>
+        <f t="shared" ref="B70:T70" si="48">QUOTIENT(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="L70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="M70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="N70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="P70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="R70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="V70">
@@ -6147,79 +6147,79 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:T71" si="50">MOD(B69,3)</f>
+        <f t="shared" ref="B71:T71" si="49">MOD(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="I71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="K71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="L71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="M71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="O71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="S71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="T71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="Z71">
@@ -6227,83 +6227,83 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <f t="shared" ref="AA71:AT71" si="51">AA68-AA70*2</f>
-        <v>0</v>
+        <f t="shared" ref="AA71:AT71" si="50">AA68-AA70*2</f>
+        <v>1</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="AC71">
-        <f t="shared" si="51"/>
-        <v>2</v>
+        <f t="shared" si="50"/>
+        <v>3</v>
       </c>
       <c r="AD71">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>1</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AF71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AG71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AH71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AI71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AJ71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AK71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AL71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AM71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AN71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AO71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AP71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AQ71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AR71" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>4</v>
       </c>
       <c r="AS71" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="AT71" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
     </row>
@@ -6313,79 +6313,79 @@
         <v>0</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" ref="B72:T72" si="52">B70+B71+C70</f>
+        <f t="shared" ref="B72:T72" si="51">B70+B71+C70</f>
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="AR72" s="7"/>
@@ -6398,79 +6398,79 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:T73" si="53">QUOTIENT(B72,3)</f>
+        <f t="shared" ref="B73:T73" si="52">QUOTIENT(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="L73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="M73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="S73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V73">
@@ -6482,83 +6482,83 @@
         <v>0</v>
       </c>
       <c r="AA73" s="1">
-        <f t="shared" ref="AA73:AE73" si="54">AA70+AB70+AA67+AB67+AA61+AB61+AC61+AA58+AB58+AC58+AA55+AB55+AC55+AA52+AB52+AC52+AD52+AA49+AB49+AC49+AD49+AA46+AB46+AC46+AD46+AA43+AB43+AC43+AD43+AA40+AB40+AC40+AD40+AA37+AB37+AC37+AD37++AA64+AB64+AC64+AA71</f>
-        <v>0</v>
+        <f t="shared" ref="AA73:AE73" si="53">AA70+AB70+AA67+AB67+AA61+AB61+AC61+AA58+AB58+AC58+AA55+AB55+AC55+AA52+AB52+AC52+AD52+AA49+AB49+AC49+AD49+AA46+AB46+AC46+AD46+AA43+AB43+AC43+AD43+AA40+AB40+AC40+AD40+AA37+AB37+AC37+AD37++AA64+AB64+AC64+AA71</f>
+        <v>1</v>
       </c>
       <c r="AB73" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="AC73" s="1">
-        <f t="shared" si="54"/>
-        <v>4</v>
+        <f t="shared" si="53"/>
+        <v>5</v>
       </c>
       <c r="AD73" s="1">
-        <f t="shared" si="54"/>
-        <v>4</v>
+        <f t="shared" si="53"/>
+        <v>5</v>
       </c>
       <c r="AE73" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="AF73" s="1">
-        <f t="shared" ref="AF73" si="55">AF70+AG70+AF67+AG67+AF61+AG61+AH61+AF58+AG58+AH58+AF55+AG55+AH55+AF52+AG52+AH52+AI52+AF49+AG49+AH49+AI49+AF46+AG46+AH46+AI46+AF43+AG43+AH43+AI43+AF40+AG40+AH40+AI40+AF37+AG37+AH37+AI37++AF64+AG64+AH64+AF71</f>
+        <f t="shared" ref="AF73" si="54">AF70+AG70+AF67+AG67+AF61+AG61+AH61+AF58+AG58+AH58+AF55+AG55+AH55+AF52+AG52+AH52+AI52+AF49+AG49+AH49+AI49+AF46+AG46+AH46+AI46+AF43+AG43+AH43+AI43+AF40+AG40+AH40+AI40+AF37+AG37+AH37+AI37++AF64+AG64+AH64+AF71</f>
         <v>4</v>
       </c>
       <c r="AG73" s="1">
-        <f t="shared" ref="AG73" si="56">AG70+AH70+AG67+AH67+AG61+AH61+AI61+AG58+AH58+AI58+AG55+AH55+AI55+AG52+AH52+AI52+AJ52+AG49+AH49+AI49+AJ49+AG46+AH46+AI46+AJ46+AG43+AH43+AI43+AJ43+AG40+AH40+AI40+AJ40+AG37+AH37+AI37+AJ37++AG64+AH64+AI64+AG71</f>
+        <f t="shared" ref="AG73" si="55">AG70+AH70+AG67+AH67+AG61+AH61+AI61+AG58+AH58+AI58+AG55+AH55+AI55+AG52+AH52+AI52+AJ52+AG49+AH49+AI49+AJ49+AG46+AH46+AI46+AJ46+AG43+AH43+AI43+AJ43+AG40+AH40+AI40+AJ40+AG37+AH37+AI37+AJ37++AG64+AH64+AI64+AG71</f>
         <v>4</v>
       </c>
       <c r="AH73" s="1">
-        <f t="shared" ref="AH73" si="57">AH70+AI70+AH67+AI67+AH61+AI61+AJ61+AH58+AI58+AJ58+AH55+AI55+AJ55+AH52+AI52+AJ52+AK52+AH49+AI49+AJ49+AK49+AH46+AI46+AJ46+AK46+AH43+AI43+AJ43+AK43+AH40+AI40+AJ40+AK40+AH37+AI37+AJ37+AK37++AH64+AI64+AJ64+AH71</f>
+        <f t="shared" ref="AH73" si="56">AH70+AI70+AH67+AI67+AH61+AI61+AJ61+AH58+AI58+AJ58+AH55+AI55+AJ55+AH52+AI52+AJ52+AK52+AH49+AI49+AJ49+AK49+AH46+AI46+AJ46+AK46+AH43+AI43+AJ43+AK43+AH40+AI40+AJ40+AK40+AH37+AI37+AJ37+AK37++AH64+AI64+AJ64+AH71</f>
         <v>4</v>
       </c>
       <c r="AI73" s="1">
-        <f t="shared" ref="AI73:AJ73" si="58">AI70+AJ70+AI67+AJ67+AI61+AJ61+AK61+AI58+AJ58+AK58+AI55+AJ55+AK55+AI52+AJ52+AK52+AL52+AI49+AJ49+AK49+AL49+AI46+AJ46+AK46+AL46+AI43+AJ43+AK43+AL43+AI40+AJ40+AK40+AL40+AI37+AJ37+AK37+AL37++AI64+AJ64+AK64+AI71</f>
+        <f t="shared" ref="AI73:AJ73" si="57">AI70+AJ70+AI67+AJ67+AI61+AJ61+AK61+AI58+AJ58+AK58+AI55+AJ55+AK55+AI52+AJ52+AK52+AL52+AI49+AJ49+AK49+AL49+AI46+AJ46+AK46+AL46+AI43+AJ43+AK43+AL43+AI40+AJ40+AK40+AL40+AI37+AJ37+AK37+AL37++AI64+AJ64+AK64+AI71</f>
         <v>4</v>
       </c>
       <c r="AJ73" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>4</v>
       </c>
       <c r="AK73" s="1">
-        <f t="shared" ref="AK73" si="59">AK70+AL70+AK67+AL67+AK61+AL61+AM61+AK58+AL58+AM58+AK55+AL55+AM55+AK52+AL52+AM52+AN52+AK49+AL49+AM49+AN49+AK46+AL46+AM46+AN46+AK43+AL43+AM43+AN43+AK40+AL40+AM40+AN40+AK37+AL37+AM37+AN37++AK64+AL64+AM64+AK71</f>
+        <f t="shared" ref="AK73" si="58">AK70+AL70+AK67+AL67+AK61+AL61+AM61+AK58+AL58+AM58+AK55+AL55+AM55+AK52+AL52+AM52+AN52+AK49+AL49+AM49+AN49+AK46+AL46+AM46+AN46+AK43+AL43+AM43+AN43+AK40+AL40+AM40+AN40+AK37+AL37+AM37+AN37++AK64+AL64+AM64+AK71</f>
         <v>4</v>
       </c>
       <c r="AL73" s="1">
-        <f t="shared" ref="AL73" si="60">AL70+AM70+AL67+AM67+AL61+AM61+AN61+AL58+AM58+AN58+AL55+AM55+AN55+AL52+AM52+AN52+AO52+AL49+AM49+AN49+AO49+AL46+AM46+AN46+AO46+AL43+AM43+AN43+AO43+AL40+AM40+AN40+AO40+AL37+AM37+AN37+AO37++AL64+AM64+AN64+AL71</f>
+        <f t="shared" ref="AL73" si="59">AL70+AM70+AL67+AM67+AL61+AM61+AN61+AL58+AM58+AN58+AL55+AM55+AN55+AL52+AM52+AN52+AO52+AL49+AM49+AN49+AO49+AL46+AM46+AN46+AO46+AL43+AM43+AN43+AO43+AL40+AM40+AN40+AO40+AL37+AM37+AN37+AO37++AL64+AM64+AN64+AL71</f>
         <v>4</v>
       </c>
       <c r="AM73" s="1">
-        <f t="shared" ref="AM73" si="61">AM70+AN70+AM67+AN67+AM61+AN61+AO61+AM58+AN58+AO58+AM55+AN55+AO55+AM52+AN52+AO52+AP52+AM49+AN49+AO49+AP49+AM46+AN46+AO46+AP46+AM43+AN43+AO43+AP43+AM40+AN40+AO40+AP40+AM37+AN37+AO37+AP37++AM64+AN64+AO64+AM71</f>
+        <f t="shared" ref="AM73" si="60">AM70+AN70+AM67+AN67+AM61+AN61+AO61+AM58+AN58+AO58+AM55+AN55+AO55+AM52+AN52+AO52+AP52+AM49+AN49+AO49+AP49+AM46+AN46+AO46+AP46+AM43+AN43+AO43+AP43+AM40+AN40+AO40+AP40+AM37+AN37+AO37+AP37++AM64+AN64+AO64+AM71</f>
         <v>4</v>
       </c>
       <c r="AN73" s="1">
-        <f t="shared" ref="AN73:AO73" si="62">AN70+AO70+AN67+AO67+AN61+AO61+AP61+AN58+AO58+AP58+AN55+AO55+AP55+AN52+AO52+AP52+AQ52+AN49+AO49+AP49+AQ49+AN46+AO46+AP46+AQ46+AN43+AO43+AP43+AQ43+AN40+AO40+AP40+AQ40+AN37+AO37+AP37+AQ37++AN64+AO64+AP64+AN71</f>
+        <f t="shared" ref="AN73:AO73" si="61">AN70+AO70+AN67+AO67+AN61+AO61+AP61+AN58+AO58+AP58+AN55+AO55+AP55+AN52+AO52+AP52+AQ52+AN49+AO49+AP49+AQ49+AN46+AO46+AP46+AQ46+AN43+AO43+AP43+AQ43+AN40+AO40+AP40+AQ40+AN37+AO37+AP37+AQ37++AN64+AO64+AP64+AN71</f>
         <v>3</v>
       </c>
       <c r="AO73" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>3</v>
       </c>
       <c r="AP73" s="1">
-        <f t="shared" ref="AP73" si="63">AP70+AQ70+AP67+AQ67+AP61+AQ61+AR61+AP58+AQ58+AR58+AP55+AQ55+AR55+AP52+AQ52+AR52+AS52+AP49+AQ49+AR49+AS49+AP46+AQ46+AR46+AS46+AP43+AQ43+AR43+AS43+AP40+AQ40+AR40+AS40+AP37+AQ37+AR37+AS37++AP64+AQ64+AR64+AP71</f>
+        <f t="shared" ref="AP73" si="62">AP70+AQ70+AP67+AQ67+AP61+AQ61+AR61+AP58+AQ58+AR58+AP55+AQ55+AR55+AP52+AQ52+AR52+AS52+AP49+AQ49+AR49+AS49+AP46+AQ46+AR46+AS46+AP43+AQ43+AR43+AS43+AP40+AQ40+AR40+AS40+AP37+AQ37+AR37+AS37++AP64+AQ64+AR64+AP71</f>
         <v>2</v>
       </c>
       <c r="AQ73" s="1">
-        <f t="shared" ref="AQ73" si="64">AQ70+AR70+AQ67+AR67+AQ61+AR61+AS61+AQ58+AR58+AS58+AQ55+AR55+AS55+AQ52+AR52+AS52+AT52+AQ49+AR49+AS49+AT49+AQ46+AR46+AS46+AT46+AQ43+AR43+AS43+AT43+AQ40+AR40+AS40+AT40+AQ37+AR37+AS37+AT37++AQ64+AR64+AS64+AQ71</f>
+        <f t="shared" ref="AQ73" si="63">AQ70+AR70+AQ67+AR67+AQ61+AR61+AS61+AQ58+AR58+AS58+AQ55+AR55+AS55+AQ52+AR52+AS52+AT52+AQ49+AR49+AS49+AT49+AQ46+AR46+AS46+AT46+AQ43+AR43+AS43+AT43+AQ40+AR40+AS40+AT40+AQ37+AR37+AS37+AT37++AQ64+AR64+AS64+AQ71</f>
         <v>1</v>
       </c>
       <c r="AR73" s="7">
-        <f t="shared" ref="AR73:AT73" si="65">AR70+AS70+AR67+AS67+AR61+AS61+AT61+AR58+AS58+AT58+AR55+AS55+AT55+AR52+AS52+AT52+AU52+AR49+AS49+AT49+AU49+AR46+AS46+AT46+AU46+AR43+AS43+AT43+AU43+AR40+AS40+AT40+AU40+AR37+AS37+AT37+AU37++AR64+AS64+AT64</f>
+        <f t="shared" ref="AR73:AT73" si="64">AR70+AS70+AR67+AS67+AR61+AS61+AT61+AR58+AS58+AT58+AR55+AS55+AT55+AR52+AS52+AT52+AU52+AR49+AS49+AT49+AU49+AR46+AS46+AT46+AU46+AR43+AS43+AT43+AU43+AR40+AS40+AT40+AU40+AR37+AS37+AT37+AU37++AR64+AS64+AT64</f>
         <v>0</v>
       </c>
       <c r="AS73" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AT73" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AV73" t="s">
@@ -6574,79 +6574,79 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:T74" si="66">MOD(B72,3)</f>
+        <f t="shared" ref="B74:T74" si="65">MOD(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="J74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="P74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="R74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="T74">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
     </row>
@@ -6656,79 +6656,79 @@
         <v>0</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ref="B75:T75" si="67">B73+B74+C73</f>
+        <f t="shared" ref="B75:T75" si="66">B73+B74+C73</f>
         <v>0</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>4</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
@@ -6738,79 +6738,79 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76" si="68">QUOTIENT(B75,3)</f>
+        <f t="shared" ref="B76" si="67">QUOTIENT(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76" si="69">QUOTIENT(C75,3)</f>
+        <f t="shared" ref="C76" si="68">QUOTIENT(C75,3)</f>
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" si="70">QUOTIENT(D75,3)</f>
+        <f t="shared" ref="D76" si="69">QUOTIENT(D75,3)</f>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76" si="71">QUOTIENT(E75,3)</f>
+        <f t="shared" ref="E76" si="70">QUOTIENT(E75,3)</f>
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76" si="72">QUOTIENT(F75,3)</f>
+        <f t="shared" ref="F76" si="71">QUOTIENT(F75,3)</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" ref="G76" si="73">QUOTIENT(G75,3)</f>
+        <f t="shared" ref="G76" si="72">QUOTIENT(G75,3)</f>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" ref="H76" si="74">QUOTIENT(H75,3)</f>
+        <f t="shared" ref="H76" si="73">QUOTIENT(H75,3)</f>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" ref="I76" si="75">QUOTIENT(I75,3)</f>
+        <f t="shared" ref="I76" si="74">QUOTIENT(I75,3)</f>
         <v>1</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76" si="76">QUOTIENT(J75,3)</f>
+        <f t="shared" ref="J76" si="75">QUOTIENT(J75,3)</f>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" ref="K76" si="77">QUOTIENT(K75,3)</f>
+        <f t="shared" ref="K76" si="76">QUOTIENT(K75,3)</f>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" ref="L76" si="78">QUOTIENT(L75,3)</f>
+        <f t="shared" ref="L76" si="77">QUOTIENT(L75,3)</f>
         <v>1</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76" si="79">QUOTIENT(M75,3)</f>
+        <f t="shared" ref="M76" si="78">QUOTIENT(M75,3)</f>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" ref="N76" si="80">QUOTIENT(N75,3)</f>
+        <f t="shared" ref="N76" si="79">QUOTIENT(N75,3)</f>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" ref="O76" si="81">QUOTIENT(O75,3)</f>
+        <f t="shared" ref="O76" si="80">QUOTIENT(O75,3)</f>
         <v>1</v>
       </c>
       <c r="P76">
-        <f t="shared" ref="P76" si="82">QUOTIENT(P75,3)</f>
+        <f t="shared" ref="P76" si="81">QUOTIENT(P75,3)</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f t="shared" ref="Q76" si="83">QUOTIENT(Q75,3)</f>
+        <f t="shared" ref="Q76" si="82">QUOTIENT(Q75,3)</f>
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" ref="R76" si="84">QUOTIENT(R75,3)</f>
+        <f t="shared" ref="R76" si="83">QUOTIENT(R75,3)</f>
         <v>0</v>
       </c>
       <c r="S76">
-        <f t="shared" ref="S76" si="85">QUOTIENT(S75,3)</f>
+        <f t="shared" ref="S76" si="84">QUOTIENT(S75,3)</f>
         <v>0</v>
       </c>
       <c r="T76">
-        <f t="shared" ref="T76" si="86">QUOTIENT(T75,3)</f>
+        <f t="shared" ref="T76" si="85">QUOTIENT(T75,3)</f>
         <v>0</v>
       </c>
       <c r="V76">
@@ -6824,79 +6824,79 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:T77" si="87">MOD(B75,3)</f>
+        <f t="shared" ref="B77:T77" si="86">MOD(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="L77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="M77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="O77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="R77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="S77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2</v>
       </c>
       <c r="T77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
     </row>
@@ -6906,79 +6906,79 @@
         <v>0</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" ref="B78" si="88">B76+B77+C76</f>
+        <f t="shared" ref="B78" si="87">B76+B77+C76</f>
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ref="C78" si="89">C76+C77+D76</f>
+        <f t="shared" ref="C78" si="88">C76+C77+D76</f>
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78" si="90">D76+D77+E76</f>
+        <f t="shared" ref="D78" si="89">D76+D77+E76</f>
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ref="E78" si="91">E76+E77+F76</f>
+        <f t="shared" ref="E78" si="90">E76+E77+F76</f>
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ref="F78" si="92">F76+F77+G76</f>
+        <f t="shared" ref="F78" si="91">F76+F77+G76</f>
         <v>2</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" ref="G78" si="93">G76+G77+H76</f>
+        <f t="shared" ref="G78" si="92">G76+G77+H76</f>
         <v>2</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78" si="94">H76+H77+I76</f>
+        <f t="shared" ref="H78" si="93">H76+H77+I76</f>
         <v>2</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ref="I78" si="95">I76+I77+J76</f>
+        <f t="shared" ref="I78" si="94">I76+I77+J76</f>
         <v>2</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" ref="J78" si="96">J76+J77+K76</f>
+        <f t="shared" ref="J78" si="95">J76+J77+K76</f>
         <v>1</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" ref="K78" si="97">K76+K77+L76</f>
+        <f t="shared" ref="K78" si="96">K76+K77+L76</f>
         <v>3</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" ref="L78" si="98">L76+L77+M76</f>
+        <f t="shared" ref="L78" si="97">L76+L77+M76</f>
         <v>2</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" ref="M78" si="99">M76+M77+N76</f>
+        <f t="shared" ref="M78" si="98">M76+M77+N76</f>
         <v>2</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" ref="N78" si="100">N76+N77+O76</f>
+        <f t="shared" ref="N78" si="99">N76+N77+O76</f>
         <v>3</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" ref="O78" si="101">O76+O77+P76</f>
+        <f t="shared" ref="O78" si="100">O76+O77+P76</f>
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" ref="P78" si="102">P76+P77+Q76</f>
+        <f t="shared" ref="P78" si="101">P76+P77+Q76</f>
         <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" ref="Q78" si="103">Q76+Q77+R76</f>
+        <f t="shared" ref="Q78" si="102">Q76+Q77+R76</f>
         <v>1</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R78" si="104">R76+R77+S76</f>
+        <f t="shared" ref="R78" si="103">R76+R77+S76</f>
         <v>1</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" ref="S78" si="105">S76+S77+T76</f>
+        <f t="shared" ref="S78" si="104">S76+S77+T76</f>
         <v>2</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" ref="T78" si="106">T76+T77+U76</f>
+        <f t="shared" ref="T78" si="105">T76+T77+U76</f>
         <v>1</v>
       </c>
     </row>
@@ -6988,79 +6988,79 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79" si="107">QUOTIENT(B78,3)</f>
+        <f t="shared" ref="B79" si="106">QUOTIENT(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79" si="108">QUOTIENT(C78,3)</f>
+        <f t="shared" ref="C79" si="107">QUOTIENT(C78,3)</f>
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="109">QUOTIENT(D78,3)</f>
+        <f t="shared" ref="D79" si="108">QUOTIENT(D78,3)</f>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79" si="110">QUOTIENT(E78,3)</f>
+        <f t="shared" ref="E79" si="109">QUOTIENT(E78,3)</f>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="111">QUOTIENT(F78,3)</f>
+        <f t="shared" ref="F79" si="110">QUOTIENT(F78,3)</f>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79" si="112">QUOTIENT(G78,3)</f>
+        <f t="shared" ref="G79" si="111">QUOTIENT(G78,3)</f>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79" si="113">QUOTIENT(H78,3)</f>
+        <f t="shared" ref="H79" si="112">QUOTIENT(H78,3)</f>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" ref="I79" si="114">QUOTIENT(I78,3)</f>
+        <f t="shared" ref="I79" si="113">QUOTIENT(I78,3)</f>
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J79" si="115">QUOTIENT(J78,3)</f>
+        <f t="shared" ref="J79" si="114">QUOTIENT(J78,3)</f>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" ref="K79" si="116">QUOTIENT(K78,3)</f>
+        <f t="shared" ref="K79" si="115">QUOTIENT(K78,3)</f>
         <v>1</v>
       </c>
       <c r="L79">
-        <f t="shared" ref="L79" si="117">QUOTIENT(L78,3)</f>
+        <f t="shared" ref="L79" si="116">QUOTIENT(L78,3)</f>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" ref="M79" si="118">QUOTIENT(M78,3)</f>
+        <f t="shared" ref="M79" si="117">QUOTIENT(M78,3)</f>
         <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" ref="N79" si="119">QUOTIENT(N78,3)</f>
+        <f t="shared" ref="N79" si="118">QUOTIENT(N78,3)</f>
         <v>1</v>
       </c>
       <c r="O79">
-        <f t="shared" ref="O79" si="120">QUOTIENT(O78,3)</f>
+        <f t="shared" ref="O79" si="119">QUOTIENT(O78,3)</f>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" ref="P79" si="121">QUOTIENT(P78,3)</f>
+        <f t="shared" ref="P79" si="120">QUOTIENT(P78,3)</f>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f t="shared" ref="Q79" si="122">QUOTIENT(Q78,3)</f>
+        <f t="shared" ref="Q79" si="121">QUOTIENT(Q78,3)</f>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" ref="R79" si="123">QUOTIENT(R78,3)</f>
+        <f t="shared" ref="R79" si="122">QUOTIENT(R78,3)</f>
         <v>0</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79" si="124">QUOTIENT(S78,3)</f>
+        <f t="shared" ref="S79" si="123">QUOTIENT(S78,3)</f>
         <v>0</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79" si="125">QUOTIENT(T78,3)</f>
+        <f t="shared" ref="T79" si="124">QUOTIENT(T78,3)</f>
         <v>0</v>
       </c>
       <c r="V79">
@@ -7074,79 +7074,79 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:T80" si="126">MOD(B78,3)</f>
+        <f t="shared" ref="B80:T80" si="125">MOD(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>2</v>
       </c>
       <c r="I80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>2</v>
       </c>
       <c r="N80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="P80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="R80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="S80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>2</v>
       </c>
       <c r="T80">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
     </row>
@@ -7156,79 +7156,79 @@
         <v>0</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" ref="B81" si="127">B79+B80+C79</f>
+        <f t="shared" ref="B81" si="126">B79+B80+C79</f>
         <v>0</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ref="C81" si="128">C79+C80+D79</f>
+        <f t="shared" ref="C81" si="127">C79+C80+D79</f>
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" ref="D81" si="129">D79+D80+E79</f>
+        <f t="shared" ref="D81" si="128">D79+D80+E79</f>
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" ref="E81" si="130">E79+E80+F79</f>
+        <f t="shared" ref="E81" si="129">E79+E80+F79</f>
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" ref="F81" si="131">F79+F80+G79</f>
+        <f t="shared" ref="F81" si="130">F79+F80+G79</f>
         <v>2</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81" si="132">G79+G80+H79</f>
+        <f t="shared" ref="G81" si="131">G79+G80+H79</f>
         <v>2</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ref="H81" si="133">H79+H80+I79</f>
+        <f t="shared" ref="H81" si="132">H79+H80+I79</f>
         <v>2</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" ref="I81" si="134">I79+I80+J79</f>
+        <f t="shared" ref="I81" si="133">I79+I80+J79</f>
         <v>2</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ref="J81" si="135">J79+J80+K79</f>
+        <f t="shared" ref="J81" si="134">J79+J80+K79</f>
         <v>2</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81" si="136">K79+K80+L79</f>
+        <f t="shared" ref="K81" si="135">K79+K80+L79</f>
         <v>1</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" ref="L81" si="137">L79+L80+M79</f>
+        <f t="shared" ref="L81" si="136">L79+L80+M79</f>
         <v>2</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" ref="M81" si="138">M79+M80+N79</f>
+        <f t="shared" ref="M81" si="137">M79+M80+N79</f>
         <v>3</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ref="N81" si="139">N79+N80+O79</f>
+        <f t="shared" ref="N81" si="138">N79+N80+O79</f>
         <v>1</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" ref="O81" si="140">O79+O80+P79</f>
+        <f t="shared" ref="O81" si="139">O79+O80+P79</f>
         <v>1</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" ref="P81" si="141">P79+P80+Q79</f>
+        <f t="shared" ref="P81" si="140">P79+P80+Q79</f>
         <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81" si="142">Q79+Q80+R79</f>
+        <f t="shared" ref="Q81" si="141">Q79+Q80+R79</f>
         <v>1</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" ref="R81" si="143">R79+R80+S79</f>
+        <f t="shared" ref="R81" si="142">R79+R80+S79</f>
         <v>1</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" ref="S81" si="144">S79+S80+T79</f>
+        <f t="shared" ref="S81" si="143">S79+S80+T79</f>
         <v>2</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" ref="T81" si="145">T79+T80+U79</f>
+        <f t="shared" ref="T81" si="144">T79+T80+U79</f>
         <v>1</v>
       </c>
     </row>
@@ -7238,79 +7238,79 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82" si="146">QUOTIENT(B81,3)</f>
+        <f t="shared" ref="B82" si="145">QUOTIENT(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82" si="147">QUOTIENT(C81,3)</f>
+        <f t="shared" ref="C82" si="146">QUOTIENT(C81,3)</f>
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82" si="148">QUOTIENT(D81,3)</f>
+        <f t="shared" ref="D82" si="147">QUOTIENT(D81,3)</f>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82" si="149">QUOTIENT(E81,3)</f>
+        <f t="shared" ref="E82" si="148">QUOTIENT(E81,3)</f>
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82" si="150">QUOTIENT(F81,3)</f>
+        <f t="shared" ref="F82" si="149">QUOTIENT(F81,3)</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82" si="151">QUOTIENT(G81,3)</f>
+        <f t="shared" ref="G82" si="150">QUOTIENT(G81,3)</f>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82" si="152">QUOTIENT(H81,3)</f>
+        <f t="shared" ref="H82" si="151">QUOTIENT(H81,3)</f>
         <v>0</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82" si="153">QUOTIENT(I81,3)</f>
+        <f t="shared" ref="I82" si="152">QUOTIENT(I81,3)</f>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82" si="154">QUOTIENT(J81,3)</f>
+        <f t="shared" ref="J82" si="153">QUOTIENT(J81,3)</f>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82" si="155">QUOTIENT(K81,3)</f>
+        <f t="shared" ref="K82" si="154">QUOTIENT(K81,3)</f>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" ref="L82" si="156">QUOTIENT(L81,3)</f>
+        <f t="shared" ref="L82" si="155">QUOTIENT(L81,3)</f>
         <v>0</v>
       </c>
       <c r="M82">
-        <f t="shared" ref="M82" si="157">QUOTIENT(M81,3)</f>
+        <f t="shared" ref="M82" si="156">QUOTIENT(M81,3)</f>
         <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" ref="N82" si="158">QUOTIENT(N81,3)</f>
+        <f t="shared" ref="N82" si="157">QUOTIENT(N81,3)</f>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" ref="O82" si="159">QUOTIENT(O81,3)</f>
+        <f t="shared" ref="O82" si="158">QUOTIENT(O81,3)</f>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" ref="P82" si="160">QUOTIENT(P81,3)</f>
+        <f t="shared" ref="P82" si="159">QUOTIENT(P81,3)</f>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" ref="Q82" si="161">QUOTIENT(Q81,3)</f>
+        <f t="shared" ref="Q82" si="160">QUOTIENT(Q81,3)</f>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" ref="R82" si="162">QUOTIENT(R81,3)</f>
+        <f t="shared" ref="R82" si="161">QUOTIENT(R81,3)</f>
         <v>0</v>
       </c>
       <c r="S82">
-        <f t="shared" ref="S82" si="163">QUOTIENT(S81,3)</f>
+        <f t="shared" ref="S82" si="162">QUOTIENT(S81,3)</f>
         <v>0</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82" si="164">QUOTIENT(T81,3)</f>
+        <f t="shared" ref="T82" si="163">QUOTIENT(T81,3)</f>
         <v>0</v>
       </c>
       <c r="V82">
@@ -7387,79 +7387,79 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:T83" si="165">MOD(B81,3)</f>
+        <f t="shared" ref="B83:T83" si="164">MOD(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>2</v>
       </c>
       <c r="H83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>2</v>
       </c>
       <c r="I83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>1</v>
       </c>
       <c r="L83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>2</v>
       </c>
       <c r="M83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>1</v>
       </c>
       <c r="O83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>1</v>
       </c>
       <c r="P83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>1</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>1</v>
       </c>
       <c r="R83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>1</v>
       </c>
       <c r="S83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>2</v>
       </c>
       <c r="T83">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>1</v>
       </c>
       <c r="AS83" t="s">
@@ -7472,79 +7472,79 @@
         <v>0</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" ref="B84" si="166">B82+B83+C82</f>
+        <f t="shared" ref="B84" si="165">B82+B83+C82</f>
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" ref="C84" si="167">C82+C83+D82</f>
+        <f t="shared" ref="C84" si="166">C82+C83+D82</f>
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" ref="D84" si="168">D82+D83+E82</f>
+        <f t="shared" ref="D84" si="167">D82+D83+E82</f>
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ref="E84" si="169">E82+E83+F82</f>
+        <f t="shared" ref="E84" si="168">E82+E83+F82</f>
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" ref="F84" si="170">F82+F83+G82</f>
+        <f t="shared" ref="F84" si="169">F82+F83+G82</f>
         <v>2</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" ref="G84" si="171">G82+G83+H82</f>
+        <f t="shared" ref="G84" si="170">G82+G83+H82</f>
         <v>2</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" ref="H84" si="172">H82+H83+I82</f>
+        <f t="shared" ref="H84" si="171">H82+H83+I82</f>
         <v>2</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" ref="I84" si="173">I82+I83+J82</f>
+        <f t="shared" ref="I84" si="172">I82+I83+J82</f>
         <v>2</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" ref="J84" si="174">J82+J83+K82</f>
+        <f t="shared" ref="J84" si="173">J82+J83+K82</f>
         <v>2</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ref="K84" si="175">K82+K83+L82</f>
+        <f t="shared" ref="K84" si="174">K82+K83+L82</f>
         <v>1</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" ref="L84" si="176">L82+L83+M82</f>
+        <f t="shared" ref="L84" si="175">L82+L83+M82</f>
         <v>3</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" ref="M84" si="177">M82+M83+N82</f>
+        <f t="shared" ref="M84" si="176">M82+M83+N82</f>
         <v>1</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" ref="N84" si="178">N82+N83+O82</f>
+        <f t="shared" ref="N84" si="177">N82+N83+O82</f>
         <v>1</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" ref="O84" si="179">O82+O83+P82</f>
+        <f t="shared" ref="O84" si="178">O82+O83+P82</f>
         <v>1</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84" si="180">P82+P83+Q82</f>
+        <f t="shared" ref="P84" si="179">P82+P83+Q82</f>
         <v>1</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ref="Q84" si="181">Q82+Q83+R82</f>
+        <f t="shared" ref="Q84" si="180">Q82+Q83+R82</f>
         <v>1</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ref="R84" si="182">R82+R83+S82</f>
+        <f t="shared" ref="R84" si="181">R82+R83+S82</f>
         <v>1</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84" si="183">S82+S83+T82</f>
+        <f t="shared" ref="S84" si="182">S82+S83+T82</f>
         <v>2</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84" si="184">T82+T83+U82</f>
+        <f t="shared" ref="T84" si="183">T82+T83+U82</f>
         <v>1</v>
       </c>
     </row>
@@ -7554,79 +7554,79 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" ref="B85" si="185">QUOTIENT(B84,3)</f>
+        <f t="shared" ref="B85" si="184">QUOTIENT(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85" si="186">QUOTIENT(C84,3)</f>
+        <f t="shared" ref="C85" si="185">QUOTIENT(C84,3)</f>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="187">QUOTIENT(D84,3)</f>
+        <f t="shared" ref="D85" si="186">QUOTIENT(D84,3)</f>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85" si="188">QUOTIENT(E84,3)</f>
+        <f t="shared" ref="E85" si="187">QUOTIENT(E84,3)</f>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="189">QUOTIENT(F84,3)</f>
+        <f t="shared" ref="F85" si="188">QUOTIENT(F84,3)</f>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85" si="190">QUOTIENT(G84,3)</f>
+        <f t="shared" ref="G85" si="189">QUOTIENT(G84,3)</f>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H85" si="191">QUOTIENT(H84,3)</f>
+        <f t="shared" ref="H85" si="190">QUOTIENT(H84,3)</f>
         <v>0</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85" si="192">QUOTIENT(I84,3)</f>
+        <f t="shared" ref="I85" si="191">QUOTIENT(I84,3)</f>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85" si="193">QUOTIENT(J84,3)</f>
+        <f t="shared" ref="J85" si="192">QUOTIENT(J84,3)</f>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" ref="K85" si="194">QUOTIENT(K84,3)</f>
+        <f t="shared" ref="K85" si="193">QUOTIENT(K84,3)</f>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" ref="L85" si="195">QUOTIENT(L84,3)</f>
+        <f t="shared" ref="L85" si="194">QUOTIENT(L84,3)</f>
         <v>1</v>
       </c>
       <c r="M85">
-        <f t="shared" ref="M85" si="196">QUOTIENT(M84,3)</f>
+        <f t="shared" ref="M85" si="195">QUOTIENT(M84,3)</f>
         <v>0</v>
       </c>
       <c r="N85">
-        <f t="shared" ref="N85" si="197">QUOTIENT(N84,3)</f>
+        <f t="shared" ref="N85" si="196">QUOTIENT(N84,3)</f>
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" ref="O85" si="198">QUOTIENT(O84,3)</f>
+        <f t="shared" ref="O85" si="197">QUOTIENT(O84,3)</f>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" ref="P85" si="199">QUOTIENT(P84,3)</f>
+        <f t="shared" ref="P85" si="198">QUOTIENT(P84,3)</f>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" ref="Q85" si="200">QUOTIENT(Q84,3)</f>
+        <f t="shared" ref="Q85" si="199">QUOTIENT(Q84,3)</f>
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" ref="R85" si="201">QUOTIENT(R84,3)</f>
+        <f t="shared" ref="R85" si="200">QUOTIENT(R84,3)</f>
         <v>0</v>
       </c>
       <c r="S85">
-        <f t="shared" ref="S85" si="202">QUOTIENT(S84,3)</f>
+        <f t="shared" ref="S85" si="201">QUOTIENT(S84,3)</f>
         <v>0</v>
       </c>
       <c r="T85">
-        <f t="shared" ref="T85" si="203">QUOTIENT(T84,3)</f>
+        <f t="shared" ref="T85" si="202">QUOTIENT(T84,3)</f>
         <v>0</v>
       </c>
       <c r="V85">
@@ -7640,79 +7640,79 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" ref="B86:T86" si="204">MOD(B84,3)</f>
+        <f t="shared" ref="B86:T86" si="203">MOD(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="H86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="L86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="N86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="O86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="P86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="R86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="S86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="T86">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
     </row>
@@ -7722,79 +7722,79 @@
         <v>0</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ref="B87" si="205">B85+B86+C85</f>
+        <f t="shared" ref="B87" si="204">B85+B86+C85</f>
         <v>0</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" ref="C87" si="206">C85+C86+D85</f>
+        <f t="shared" ref="C87" si="205">C85+C86+D85</f>
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" ref="D87" si="207">D85+D86+E85</f>
+        <f t="shared" ref="D87" si="206">D85+D86+E85</f>
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ref="E87" si="208">E85+E86+F85</f>
+        <f t="shared" ref="E87" si="207">E85+E86+F85</f>
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ref="F87" si="209">F85+F86+G85</f>
+        <f t="shared" ref="F87" si="208">F85+F86+G85</f>
         <v>2</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" ref="G87" si="210">G85+G86+H85</f>
+        <f t="shared" ref="G87" si="209">G85+G86+H85</f>
         <v>2</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87" si="211">H85+H86+I85</f>
+        <f t="shared" ref="H87" si="210">H85+H86+I85</f>
         <v>2</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" ref="I87" si="212">I85+I86+J85</f>
+        <f t="shared" ref="I87" si="211">I85+I86+J85</f>
         <v>2</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" ref="J87" si="213">J85+J86+K85</f>
+        <f t="shared" ref="J87" si="212">J85+J86+K85</f>
         <v>2</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ref="K87" si="214">K85+K86+L85</f>
+        <f t="shared" ref="K87" si="213">K85+K86+L85</f>
         <v>2</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" ref="L87" si="215">L85+L86+M85</f>
+        <f t="shared" ref="L87" si="214">L85+L86+M85</f>
         <v>1</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" ref="M87" si="216">M85+M86+N85</f>
+        <f t="shared" ref="M87" si="215">M85+M86+N85</f>
         <v>1</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ref="N87" si="217">N85+N86+O85</f>
+        <f t="shared" ref="N87" si="216">N85+N86+O85</f>
         <v>1</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" ref="O87" si="218">O85+O86+P85</f>
+        <f t="shared" ref="O87" si="217">O85+O86+P85</f>
         <v>1</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" ref="P87" si="219">P85+P86+Q85</f>
+        <f t="shared" ref="P87" si="218">P85+P86+Q85</f>
         <v>1</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" ref="Q87" si="220">Q85+Q86+R85</f>
+        <f t="shared" ref="Q87" si="219">Q85+Q86+R85</f>
         <v>1</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" ref="R87" si="221">R85+R86+S85</f>
+        <f t="shared" ref="R87" si="220">R85+R86+S85</f>
         <v>1</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" ref="S87" si="222">S85+S86+T85</f>
+        <f t="shared" ref="S87" si="221">S85+S86+T85</f>
         <v>2</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" ref="T87" si="223">T85+T86+U85</f>
+        <f t="shared" ref="T87" si="222">T85+T86+U85</f>
         <v>1</v>
       </c>
       <c r="V87" s="1">
@@ -7867,71 +7867,71 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <f t="shared" ref="AA89:AQ89" si="224">AA73-AA88*4</f>
-        <v>0</v>
+        <f t="shared" ref="AA89:AQ89" si="223">AA73-AA88*4</f>
+        <v>1</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>2</v>
       </c>
       <c r="AC89">
-        <f t="shared" si="224"/>
-        <v>0</v>
+        <f t="shared" si="223"/>
+        <v>1</v>
       </c>
       <c r="AD89">
-        <f t="shared" si="224"/>
-        <v>0</v>
+        <f t="shared" si="223"/>
+        <v>1</v>
       </c>
       <c r="AE89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AF89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AG89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AH89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AI89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AJ89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AK89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AL89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AM89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AN89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>3</v>
       </c>
       <c r="AO89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>3</v>
       </c>
       <c r="AP89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>2</v>
       </c>
       <c r="AQ89">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>1</v>
       </c>
     </row>
@@ -7941,71 +7941,71 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <f t="shared" ref="AA91:AQ91" si="225">AA89+AA88+AB88+AC88</f>
-        <v>1</v>
+        <f t="shared" ref="AA91:AQ91" si="224">AA89+AA88+AB88+AC88</f>
+        <v>2</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>4</v>
       </c>
       <c r="AC91">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
+        <v>4</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="224"/>
+        <v>4</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="224"/>
         <v>3</v>
       </c>
-      <c r="AD91">
-        <f t="shared" si="225"/>
+      <c r="AF91">
+        <f t="shared" si="224"/>
         <v>3</v>
       </c>
-      <c r="AE91">
-        <f t="shared" si="225"/>
+      <c r="AG91">
+        <f t="shared" si="224"/>
         <v>3</v>
       </c>
-      <c r="AF91">
-        <f t="shared" si="225"/>
+      <c r="AH91">
+        <f t="shared" si="224"/>
         <v>3</v>
       </c>
-      <c r="AG91">
-        <f t="shared" si="225"/>
+      <c r="AI91">
+        <f t="shared" si="224"/>
         <v>3</v>
       </c>
-      <c r="AH91">
-        <f t="shared" si="225"/>
+      <c r="AJ91">
+        <f t="shared" si="224"/>
         <v>3</v>
       </c>
-      <c r="AI91">
-        <f t="shared" si="225"/>
+      <c r="AK91">
+        <f t="shared" si="224"/>
         <v>3</v>
       </c>
-      <c r="AJ91">
-        <f t="shared" si="225"/>
+      <c r="AL91">
+        <f t="shared" si="224"/>
+        <v>2</v>
+      </c>
+      <c r="AM91">
+        <f t="shared" si="224"/>
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <f t="shared" si="224"/>
         <v>3</v>
       </c>
-      <c r="AK91">
-        <f t="shared" si="225"/>
+      <c r="AO91">
+        <f t="shared" si="224"/>
         <v>3</v>
       </c>
-      <c r="AL91">
-        <f t="shared" si="225"/>
-        <v>2</v>
-      </c>
-      <c r="AM91">
-        <f t="shared" si="225"/>
-        <v>1</v>
-      </c>
-      <c r="AN91">
-        <f t="shared" si="225"/>
-        <v>3</v>
-      </c>
-      <c r="AO91">
-        <f t="shared" si="225"/>
-        <v>3</v>
-      </c>
       <c r="AP91">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>2</v>
       </c>
       <c r="AQ91">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>1</v>
       </c>
     </row>
@@ -8080,79 +8080,79 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:U93" si="226">QUOTIENT(C92,5)</f>
+        <f t="shared" ref="C93:U93" si="225">QUOTIENT(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="L93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="M93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="N93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="O93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="P93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="R93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="S93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="T93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="U93">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="AN93">
@@ -8171,79 +8171,79 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:U94" si="227">MOD(C92,5)</f>
+        <f t="shared" ref="C94:U94" si="226">MOD(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>2</v>
       </c>
       <c r="I94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>4</v>
       </c>
       <c r="K94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="M94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>2</v>
       </c>
       <c r="N94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>3</v>
       </c>
       <c r="O94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>2</v>
       </c>
       <c r="P94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>4</v>
       </c>
       <c r="S94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>3</v>
       </c>
       <c r="T94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>2</v>
       </c>
       <c r="U94">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="Z94" s="8"/>
@@ -8271,79 +8271,79 @@
         <v>0</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ref="C95:U95" si="228">C93+C94+D93+E93</f>
+        <f t="shared" ref="C95:U95" si="227">C93+C94+D93+E93</f>
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>1</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>2</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>4</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>6</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>3</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>4</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>5</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>6</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>5</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>3</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>1</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>4</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>3</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>2</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>1</v>
       </c>
       <c r="AM95" t="s">

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB2ED1-E990-4B8B-8614-11BA634B7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A9914-4D4A-445B-8637-ACAB47642E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="9">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,46 +46,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1stage </t>
+    <t xml:space="preserve">2stage </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O1</t>
+    <t>previous output</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O2</t>
+    <t>stage 2 input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O3</t>
+    <t>stage 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O4</t>
+    <t>out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>method 1</t>
+    <t>adder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>square root carry select adder</t>
-  </si>
-  <si>
-    <t>srcsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay 5 * 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area 5 * 13 * 2?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2stage </t>
+    <t>check overflow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS18" sqref="AS18"/>
+    <sheetView tabSelected="1" topLeftCell="X16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1272,8 +1257,8 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>AA7+AA10+1</f>
-        <v>1</v>
+        <f>AA7+AA10</f>
+        <v>0</v>
       </c>
       <c r="AB11">
         <f>AB7+AB10</f>
@@ -1292,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="AF11">
-        <f t="shared" ref="AE11:AH11" si="1">AF7+1+AF10</f>
+        <f t="shared" ref="AF11:AH11" si="1">AF7+1+AF10</f>
         <v>11</v>
       </c>
       <c r="AG11">
@@ -1556,7 +1541,7 @@
       </c>
       <c r="AA14">
         <f t="shared" ref="AA14" si="4">AA11-AA13*15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <f t="shared" ref="AB14" si="5">AB11-AB13*15</f>
@@ -1833,7 +1818,7 @@
       </c>
       <c r="AA17">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <f t="shared" si="8"/>
@@ -2110,7 +2095,7 @@
       </c>
       <c r="AA20">
         <f t="shared" ref="AA20:AT20" si="25">AA17-AA19*11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <f t="shared" si="25"/>
@@ -2365,7 +2350,7 @@
       </c>
       <c r="AA23">
         <f t="shared" ref="AA23:AT23" si="27">AA20-AA22*10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <f t="shared" si="27"/>
@@ -2621,7 +2606,7 @@
       </c>
       <c r="AA26">
         <f t="shared" ref="AA26:AT26" si="28">AA23-AA25*7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <f t="shared" si="28"/>
@@ -2877,7 +2862,7 @@
       </c>
       <c r="AA29">
         <f t="shared" ref="AA29:AT29" si="29">AA26-AA28*5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <f t="shared" si="29"/>
@@ -3118,7 +3103,7 @@
       </c>
       <c r="AA32">
         <f t="shared" ref="AA32:AT32" si="30">AA29-AA31*4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <f t="shared" si="30"/>
@@ -3229,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33">
         <v>1</v>
@@ -3287,6 +3272,9 @@
       </c>
       <c r="AT33">
         <v>0</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.45">
@@ -3323,7 +3311,7 @@
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34:AT34" si="31">AA13+AB13+AC13+AD13+AA16+AB16+AC16+AD16+AA19+AB19+AC19+AD19+AA22+AB22+AC22+AD22+AA25+AB25+AC25+AA28+AB28+AC28+AA31+AB31+AC31+AA32</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" si="31"/>
@@ -3402,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="AV34" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW34" t="s">
         <v>1</v>
@@ -3520,6 +3508,9 @@
         <f t="shared" si="33"/>
         <v>5</v>
       </c>
+      <c r="AV35" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A36">
@@ -3549,48 +3540,21 @@
       <c r="R36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="AA36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB36" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE36" s="11">
-        <v>8</v>
-      </c>
-      <c r="AF36" s="11">
-        <v>7</v>
-      </c>
-      <c r="AG36" s="11">
-        <v>6</v>
-      </c>
-      <c r="AH36" s="11">
-        <v>5</v>
-      </c>
-      <c r="AI36" s="11">
-        <v>4</v>
-      </c>
-      <c r="AJ36" s="11">
-        <v>3</v>
-      </c>
-      <c r="AK36" s="11">
-        <v>2</v>
-      </c>
-      <c r="AL36" s="11">
-        <v>1</v>
-      </c>
-      <c r="AM36" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AN36" s="11">
-        <v>-2</v>
-      </c>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
       <c r="AR36" s="7"/>
       <c r="AS36" s="7"/>
       <c r="AT36" s="7"/>
@@ -5369,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE64">
         <v>0</v>
@@ -5421,7 +5385,7 @@
       </c>
       <c r="AY64">
         <f>SUM(Z64:AT64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ64">
         <v>4</v>
@@ -5446,7 +5410,7 @@
       </c>
       <c r="AD65">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE65">
         <f t="shared" si="43"/>
@@ -5673,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67">
         <v>0</v>
@@ -5829,11 +5793,11 @@
       </c>
       <c r="AC68">
         <f t="shared" si="46"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD68">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68">
         <f t="shared" si="46"/>
@@ -6073,11 +6037,8 @@
       <c r="Z70">
         <v>0</v>
       </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
       <c r="AB70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6135,7 +6096,7 @@
       </c>
       <c r="AY70">
         <f>SUM(Z70:AT70)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ70">
         <v>2</v>
@@ -6232,15 +6193,15 @@
       </c>
       <c r="AB71">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC71">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD71">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE71">
         <f t="shared" si="50"/>
@@ -6483,19 +6444,19 @@
       </c>
       <c r="AA73" s="1">
         <f t="shared" ref="AA73:AE73" si="53">AA70+AB70+AA67+AB67+AA61+AB61+AC61+AA58+AB58+AC58+AA55+AB55+AC55+AA52+AB52+AC52+AD52+AA49+AB49+AC49+AD49+AA46+AB46+AC46+AD46+AA43+AB43+AC43+AD43+AA40+AB40+AC40+AD40+AA37+AB37+AC37+AD37++AA64+AB64+AC64+AA71</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB73" s="1">
         <f t="shared" si="53"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC73" s="1">
         <f t="shared" si="53"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD73" s="1">
-        <f t="shared" si="53"/>
-        <v>5</v>
+        <f>AD70+AE70+AD67+AE67+AD61+AE61+AF61+AD58+AE58+AF58+AD55+AE55+AF55+AD52+AE52+AF52+AG52+AD49+AE49+AF49+AG49+AD46+AE46+AF46+AG46+AD43+AE43+AF43+AG43+AD40+AE40+AF40+AG40+AD37+AE37+AF37+AG37++AD64+AE64+AF64+AD71</f>
+        <v>4</v>
       </c>
       <c r="AE73" s="1">
         <f t="shared" si="53"/>
@@ -6562,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="AV73" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AW73" t="s">
         <v>1</v>
@@ -6649,6 +6610,21 @@
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="11"/>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -6731,6 +6707,9 @@
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
+      <c r="Z75" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A76">
@@ -6817,6 +6796,54 @@
         <f>SUM(B76:U76)</f>
         <v>4</v>
       </c>
+      <c r="Y76" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB76">
+        <v>3</v>
+      </c>
+      <c r="AC76">
+        <v>3</v>
+      </c>
+      <c r="AD76">
+        <v>3</v>
+      </c>
+      <c r="AE76">
+        <v>3</v>
+      </c>
+      <c r="AF76">
+        <v>3</v>
+      </c>
+      <c r="AG76">
+        <v>3</v>
+      </c>
+      <c r="AH76">
+        <v>3</v>
+      </c>
+      <c r="AI76">
+        <v>3</v>
+      </c>
+      <c r="AJ76">
+        <v>3</v>
+      </c>
+      <c r="AK76">
+        <v>3</v>
+      </c>
+      <c r="AL76">
+        <v>3</v>
+      </c>
+      <c r="AM76">
+        <v>3</v>
+      </c>
+      <c r="AN76">
+        <v>3</v>
+      </c>
+      <c r="AO76">
+        <v>3</v>
+      </c>
+      <c r="AP76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A77">
@@ -6899,6 +6926,57 @@
         <f t="shared" si="86"/>
         <v>1</v>
       </c>
+      <c r="Y77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA77">
+        <v>2</v>
+      </c>
+      <c r="AB77">
+        <v>2</v>
+      </c>
+      <c r="AC77">
+        <v>2</v>
+      </c>
+      <c r="AD77">
+        <v>3</v>
+      </c>
+      <c r="AE77">
+        <v>3</v>
+      </c>
+      <c r="AF77">
+        <v>3</v>
+      </c>
+      <c r="AG77">
+        <v>3</v>
+      </c>
+      <c r="AH77">
+        <v>3</v>
+      </c>
+      <c r="AI77">
+        <v>3</v>
+      </c>
+      <c r="AJ77">
+        <v>3</v>
+      </c>
+      <c r="AK77">
+        <v>3</v>
+      </c>
+      <c r="AL77">
+        <v>3</v>
+      </c>
+      <c r="AM77">
+        <v>3</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>2</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -7067,6 +7145,51 @@
         <f>SUM(B79:U79)</f>
         <v>2</v>
       </c>
+      <c r="AA79">
+        <v>2</v>
+      </c>
+      <c r="AB79">
+        <v>2</v>
+      </c>
+      <c r="AC79">
+        <v>2</v>
+      </c>
+      <c r="AD79">
+        <v>3</v>
+      </c>
+      <c r="AE79">
+        <v>3</v>
+      </c>
+      <c r="AF79">
+        <v>3</v>
+      </c>
+      <c r="AG79">
+        <v>3</v>
+      </c>
+      <c r="AH79">
+        <v>3</v>
+      </c>
+      <c r="AI79">
+        <v>3</v>
+      </c>
+      <c r="AJ79">
+        <v>3</v>
+      </c>
+      <c r="AK79">
+        <v>3</v>
+      </c>
+      <c r="AL79">
+        <v>3</v>
+      </c>
+      <c r="AM79">
+        <v>3</v>
+      </c>
+      <c r="AN79">
+        <v>2</v>
+      </c>
+      <c r="AO79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A80">
@@ -7149,8 +7272,56 @@
         <f t="shared" si="125"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>2</v>
+      </c>
+      <c r="AB80">
+        <v>2</v>
+      </c>
+      <c r="AC80">
+        <v>2</v>
+      </c>
+      <c r="AD80">
+        <v>2</v>
+      </c>
+      <c r="AE80">
+        <v>2</v>
+      </c>
+      <c r="AF80">
+        <v>2</v>
+      </c>
+      <c r="AG80">
+        <v>2</v>
+      </c>
+      <c r="AH80">
+        <v>2</v>
+      </c>
+      <c r="AI80">
+        <v>2</v>
+      </c>
+      <c r="AJ80">
+        <v>2</v>
+      </c>
+      <c r="AK80">
+        <v>2</v>
+      </c>
+      <c r="AL80">
+        <v>2</v>
+      </c>
+      <c r="AM80">
+        <v>2</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <f>A79+A80+B79</f>
         <v>0</v>
@@ -7232,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82">
         <f>QUOTIENT(A81,3)</f>
         <v>0</v>
@@ -7317,71 +7488,8 @@
         <f>SUM(B82:U82)</f>
         <v>1</v>
       </c>
-      <c r="Z82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AJ82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM82" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN82" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO82" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP82" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ82" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS82" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV82" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83">
         <f>MOD(A81,3)</f>
         <v>0</v>
@@ -7462,11 +7570,8 @@
         <f t="shared" si="164"/>
         <v>1</v>
       </c>
-      <c r="AS83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <f>A82+A83+B82</f>
         <v>0</v>
@@ -7548,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85">
         <f>QUOTIENT(A84,3)</f>
         <v>0</v>
@@ -7634,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86">
         <f>MOD(A84,3)</f>
         <v>0</v>
@@ -7716,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <f>A85+A86+B85</f>
         <v>0</v>
@@ -7802,555 +7907,312 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="Z88">
-        <v>0</v>
-      </c>
-      <c r="AA88">
-        <v>0</v>
-      </c>
-      <c r="AB88">
-        <v>0</v>
-      </c>
-      <c r="AC88">
-        <v>1</v>
-      </c>
-      <c r="AD88">
-        <v>1</v>
-      </c>
-      <c r="AE88">
-        <v>1</v>
-      </c>
-      <c r="AF88">
-        <v>1</v>
-      </c>
-      <c r="AG88">
-        <v>1</v>
-      </c>
-      <c r="AH88">
-        <v>1</v>
-      </c>
-      <c r="AI88">
-        <v>1</v>
-      </c>
-      <c r="AJ88">
-        <v>1</v>
-      </c>
-      <c r="AK88">
-        <v>1</v>
-      </c>
-      <c r="AL88">
-        <v>1</v>
-      </c>
-      <c r="AM88">
-        <v>1</v>
-      </c>
-      <c r="AN88">
-        <v>0</v>
-      </c>
-      <c r="AO88">
-        <v>0</v>
-      </c>
-      <c r="AP88">
-        <v>0</v>
-      </c>
-      <c r="AQ88">
-        <v>0</v>
-      </c>
-      <c r="AZ88">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1">
+        <v>3</v>
+      </c>
+      <c r="J92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="Z89">
-        <f>Z73-Z88*4</f>
-        <v>0</v>
-      </c>
-      <c r="AA89">
-        <f t="shared" ref="AA89:AQ89" si="223">AA73-AA88*4</f>
-        <v>1</v>
-      </c>
-      <c r="AB89">
+      <c r="K92" s="1">
+        <v>5</v>
+      </c>
+      <c r="L92" s="1">
+        <v>6</v>
+      </c>
+      <c r="M92" s="1">
+        <v>7</v>
+      </c>
+      <c r="N92" s="1">
+        <v>8</v>
+      </c>
+      <c r="O92" s="1">
+        <v>7</v>
+      </c>
+      <c r="P92" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>5</v>
+      </c>
+      <c r="R92" s="1">
+        <v>4</v>
+      </c>
+      <c r="S92" s="1">
+        <v>3</v>
+      </c>
+      <c r="T92" s="1">
+        <v>2</v>
+      </c>
+      <c r="U92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B93">
+        <f>QUOTIENT(B92,5)</f>
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:U93" si="223">QUOTIENT(C92,5)</f>
+        <v>0</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="223"/>
-        <v>2</v>
-      </c>
-      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="E93">
         <f t="shared" si="223"/>
-        <v>1</v>
-      </c>
-      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="F93">
         <f t="shared" si="223"/>
-        <v>1</v>
-      </c>
-      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="G93">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AF89">
+      <c r="H93">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AG89">
+      <c r="I93">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AH89">
+      <c r="J93">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AI89">
+      <c r="K93">
         <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="AJ89">
+        <v>1</v>
+      </c>
+      <c r="L93">
         <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="M93">
         <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="N93">
         <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="O93">
         <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="P93">
         <f t="shared" si="223"/>
-        <v>3</v>
-      </c>
-      <c r="AO89">
+        <v>1</v>
+      </c>
+      <c r="Q93">
         <f t="shared" si="223"/>
-        <v>3</v>
-      </c>
-      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="R93">
         <f t="shared" si="223"/>
-        <v>2</v>
-      </c>
-      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="S93">
         <f t="shared" si="223"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="Z91">
-        <f>Z89+Z88+AA88+AB88</f>
-        <v>0</v>
-      </c>
-      <c r="AA91">
-        <f t="shared" ref="AA91:AQ91" si="224">AA89+AA88+AB88+AC88</f>
-        <v>2</v>
-      </c>
-      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B94">
+        <f>MOD(B92,5)</f>
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:U94" si="224">MOD(C92,5)</f>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="224"/>
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="224"/>
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="224"/>
+        <v>3</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="224"/>
         <v>4</v>
       </c>
-      <c r="AC91">
+      <c r="K94">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="224"/>
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="224"/>
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="224"/>
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="224"/>
+        <v>2</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="224"/>
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="R94">
         <f t="shared" si="224"/>
         <v>4</v>
       </c>
-      <c r="AD91">
+      <c r="S94">
         <f t="shared" si="224"/>
-        <v>4</v>
-      </c>
-      <c r="AE91">
+        <v>3</v>
+      </c>
+      <c r="T94">
         <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AF91">
+        <v>2</v>
+      </c>
+      <c r="U94">
         <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AG91">
-        <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AH91">
-        <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AI91">
-        <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AJ91">
-        <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AK91">
-        <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AL91">
-        <f t="shared" si="224"/>
-        <v>2</v>
-      </c>
-      <c r="AM91">
-        <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-      <c r="AN91">
-        <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AO91">
-        <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AP91">
-        <f t="shared" si="224"/>
-        <v>2</v>
-      </c>
-      <c r="AQ91">
-        <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="B92" s="1">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
-      <c r="H92" s="1">
-        <v>2</v>
-      </c>
-      <c r="I92" s="1">
-        <v>3</v>
-      </c>
-      <c r="J92" s="1">
-        <v>4</v>
-      </c>
-      <c r="K92" s="1">
-        <v>5</v>
-      </c>
-      <c r="L92" s="1">
-        <v>6</v>
-      </c>
-      <c r="M92" s="1">
-        <v>7</v>
-      </c>
-      <c r="N92" s="1">
-        <v>8</v>
-      </c>
-      <c r="O92" s="1">
-        <v>7</v>
-      </c>
-      <c r="P92" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>5</v>
-      </c>
-      <c r="R92" s="1">
-        <v>4</v>
-      </c>
-      <c r="S92" s="1">
-        <v>3</v>
-      </c>
-      <c r="T92" s="1">
-        <v>2</v>
-      </c>
-      <c r="U92" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="B93">
-        <f>QUOTIENT(B92,5)</f>
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <f t="shared" ref="C93:U93" si="225">QUOTIENT(C92,5)</f>
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="225"/>
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="225"/>
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <f t="shared" si="225"/>
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="225"/>
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="225"/>
-        <v>1</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="225"/>
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <f t="shared" si="225"/>
-        <v>1</v>
-      </c>
-      <c r="R93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="225"/>
-        <v>0</v>
-      </c>
-      <c r="AN93">
-        <v>3</v>
-      </c>
-      <c r="AO93">
-        <v>3</v>
-      </c>
-      <c r="AP93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="B94">
-        <f>MOD(B92,5)</f>
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <f t="shared" ref="C94:U94" si="226">MOD(C92,5)</f>
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="226"/>
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="226"/>
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="226"/>
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="226"/>
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="226"/>
-        <v>2</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="226"/>
-        <v>3</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="226"/>
-        <v>4</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="226"/>
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="226"/>
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="226"/>
-        <v>2</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="226"/>
-        <v>3</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="226"/>
-        <v>2</v>
-      </c>
-      <c r="P94">
-        <f t="shared" si="226"/>
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <f t="shared" si="226"/>
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <f t="shared" si="226"/>
-        <v>4</v>
-      </c>
-      <c r="S94">
-        <f t="shared" si="226"/>
-        <v>3</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="226"/>
-        <v>2</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="226"/>
-        <v>1</v>
-      </c>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="8"/>
-      <c r="AB94" s="8"/>
-      <c r="AC94" s="8"/>
-      <c r="AD94" s="8"/>
-      <c r="AE94" s="8"/>
-      <c r="AF94" s="8"/>
-      <c r="AG94" s="8"/>
-      <c r="AH94" s="8"/>
-      <c r="AI94" s="8"/>
-      <c r="AJ94" s="8"/>
-      <c r="AK94" s="8"/>
-      <c r="AL94" s="8"/>
-      <c r="AM94" s="8"/>
-      <c r="AN94" s="8"/>
-      <c r="AO94" s="8"/>
-      <c r="AP94" s="8"/>
-      <c r="AQ94" s="8"/>
-    </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B95" s="1">
         <f>B93+B94+C93+D93</f>
         <v>0</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ref="C95:U95" si="227">C93+C94+D93+E93</f>
+        <f t="shared" ref="C95:U95" si="225">C93+C94+D93+E93</f>
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>2</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>4</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>6</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>3</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>4</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>5</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>6</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>5</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>3</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>1</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>4</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>3</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>2</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="227"/>
-        <v>1</v>
-      </c>
-      <c r="AM95" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR95" t="s">
-        <v>9</v>
+        <f t="shared" si="225"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/mul_adder.xlsx
+++ b/mul_adder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A9914-4D4A-445B-8637-ACAB47642E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA24D03-1BA1-45C3-AF53-49D4A7835554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -181,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -463,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView tabSelected="1" topLeftCell="X49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA80" sqref="AA80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3214,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>1</v>
@@ -3305,7 +3306,7 @@
       <c r="R34" s="2"/>
       <c r="T34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="Z34" s="1">
+      <c r="Z34" s="12">
         <f>Z13+AA13+AB13+AC13+Z16+AA16+AB16+AC16+Z19+AA19+AB19+AC19+Z22+AA22+AB22+AC22+Z25+AA25+AB25+Z28+AA28+AB28+Z31+AA31+AB31+Z32</f>
         <v>0</v>
       </c>
@@ -3430,7 +3431,7 @@
       </c>
       <c r="AA35">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <f>AB34+AB33</f>
@@ -3540,7 +3541,7 @@
       <c r="R36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="Z36" s="11"/>
+      <c r="Z36" s="12"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="AA38">
         <f t="shared" ref="AA38:AT38" si="34">AA35-AA37*13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <f t="shared" si="34"/>
@@ -3916,7 +3917,7 @@
       </c>
       <c r="AA41">
         <f t="shared" ref="AA41:AT41" si="35">AA38-AA40*12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41">
         <f t="shared" si="35"/>
@@ -4136,7 +4137,7 @@
       </c>
       <c r="AA44">
         <f t="shared" ref="AA44:AT44" si="36">AA41-AA43*11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44">
         <f t="shared" si="36"/>
@@ -4335,7 +4336,7 @@
       </c>
       <c r="AA47">
         <f t="shared" ref="AA47:AT47" si="37">AA44-AA46*10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <f t="shared" si="37"/>
@@ -4528,7 +4529,7 @@
       </c>
       <c r="AA50">
         <f t="shared" ref="AA50:AT50" si="38">AA47-AA49*9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <f t="shared" si="38"/>
@@ -4708,7 +4709,7 @@
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53:AT53" si="39">AA50-AA52*8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53">
         <f t="shared" si="39"/>
@@ -4889,7 +4890,7 @@
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56:AT56" si="40">AA53-AA55*7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56">
         <f t="shared" si="40"/>
@@ -5072,7 +5073,7 @@
       </c>
       <c r="AA59">
         <f t="shared" ref="AA59:AT59" si="41">AA56-AA58*6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <f t="shared" si="41"/>
@@ -5235,7 +5236,7 @@
       </c>
       <c r="AA62">
         <f t="shared" ref="AA62:AT62" si="42">AA59-AA61*5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <f t="shared" si="42"/>
@@ -5398,7 +5399,7 @@
       </c>
       <c r="AA65">
         <f t="shared" ref="AA65:AT65" si="43">AA62-AA64*4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65">
         <f t="shared" si="43"/>
@@ -5785,7 +5786,7 @@
       </c>
       <c r="AA68">
         <f t="shared" ref="AA68:AT68" si="46">AA65-AA67*3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB68">
         <f t="shared" si="46"/>
@@ -6183,13 +6184,13 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="Z71">
+      <c r="Z71" s="12">
         <f>Z68-Z70*2</f>
         <v>0</v>
       </c>
       <c r="AA71">
         <f t="shared" ref="AA71:AT71" si="50">AA68-AA70*2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB71">
         <f t="shared" si="50"/>
@@ -6349,6 +6350,7 @@
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
+      <c r="Z72" s="12"/>
       <c r="AR72" s="7"/>
       <c r="AS72" s="7"/>
       <c r="AT72" s="7"/>
@@ -6438,13 +6440,13 @@
         <f>SUM(B73:U73)</f>
         <v>7</v>
       </c>
-      <c r="Z73" s="1">
+      <c r="Z73" s="12">
         <f>Z70+AA70+Z67+AA67+Z61+AA61+AB61+Z58+AA58+AB58+Z55+AA55+AB55+Z52+AA52+AB52+AC52+Z49+AA49+AB49+AC49+Z46+AA46+AB46+AC46+Z43+AA43+AB43+AC43+Z40+AA40+AB40+AC40+Z37+AA37+AB37+AC37++Z64+AA64+AB64+Z71</f>
         <v>0</v>
       </c>
       <c r="AA73" s="1">
         <f t="shared" ref="AA73:AE73" si="53">AA70+AB70+AA67+AB67+AA61+AB61+AC61+AA58+AB58+AC58+AA55+AB55+AC55+AA52+AB52+AC52+AD52+AA49+AB49+AC49+AD49+AA46+AB46+AC46+AD46+AA43+AB43+AC43+AD43+AA40+AB40+AC40+AD40+AA37+AB37+AC37+AD37++AA64+AB64+AC64+AA71</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB73" s="1">
         <f t="shared" si="53"/>
@@ -6610,7 +6612,7 @@
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="Z74" s="11"/>
+      <c r="Z74" s="12"/>
       <c r="AA74" s="11"/>
       <c r="AB74" s="11"/>
       <c r="AC74" s="11"/>
